--- a/Гербарии/Actaeae DNA  samples by AE (04.12.2023).xlsx
+++ b/Гербарии/Actaeae DNA  samples by AE (04.12.2023).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Eranthis\Гербарии\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31114810-7229-4806-8376-5102AFA8D56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA989876-F4DE-468E-8511-369D18277912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="218">
   <si>
     <t>Species</t>
   </si>
@@ -1073,6 +1073,36 @@
   </si>
   <si>
     <t>43°12'18.4"N, 131°30'13.6"E</t>
+  </si>
+  <si>
+    <t>T.V. Leonova</t>
+  </si>
+  <si>
+    <t>HAK2023-3</t>
+  </si>
+  <si>
+    <t>Russia, Republic of Khakassia, Shirinsky district, near Topanovo village (3 km)</t>
+  </si>
+  <si>
+    <t>54°31'58.9''N, 89°42'04.7''E</t>
+  </si>
+  <si>
+    <t>IRK2023-5</t>
+  </si>
+  <si>
+    <t>PR2023-6</t>
+  </si>
+  <si>
+    <t>Russia, Primorye Territory, Vladivostok city, Sopochnay street</t>
+  </si>
+  <si>
+    <t>43°10'59.51"N, 131°56'41.02"E</t>
+  </si>
+  <si>
+    <t>broadleaf forest on the right side of the road</t>
+  </si>
+  <si>
+    <t>V.A. Kalinkina</t>
   </si>
 </sst>
 </file>
@@ -1219,7 +1249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1331,22 +1361,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1654,10 +1675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CF224"/>
+  <dimension ref="A1:CF227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1668,11 +1689,11 @@
     <col min="5" max="5" width="5.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="50.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="24" style="6" customWidth="1"/>
-    <col min="9" max="9" width="24" style="47" customWidth="1"/>
+    <col min="8" max="8" width="52.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" style="45" customWidth="1"/>
     <col min="10" max="10" width="16.28515625" style="10" customWidth="1"/>
     <col min="11" max="11" width="12" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13" style="47" customWidth="1"/>
+    <col min="12" max="12" width="13" style="45" customWidth="1"/>
     <col min="13" max="13" width="93" style="6" customWidth="1"/>
     <col min="14" max="14" width="28.5703125" style="3" customWidth="1"/>
     <col min="15" max="15" width="39.7109375" style="10" customWidth="1"/>
@@ -1706,7 +1727,7 @@
       <c r="H1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="21" t="s">
         <v>197</v>
       </c>
       <c r="J1" s="15" t="s">
@@ -1715,7 +1736,7 @@
       <c r="K1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="41" t="s">
@@ -1802,14 +1823,16 @@
       <c r="H2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="45"/>
+      <c r="I2" s="22">
+        <v>3</v>
+      </c>
       <c r="J2" s="16" t="s">
         <v>59</v>
       </c>
       <c r="K2" s="19">
         <v>45093</v>
       </c>
-      <c r="L2" s="45">
+      <c r="L2" s="22">
         <v>59</v>
       </c>
       <c r="M2" s="13" t="s">
@@ -1897,14 +1920,16 @@
       <c r="H3" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="45"/>
+      <c r="I3" s="22">
+        <v>3</v>
+      </c>
       <c r="J3" s="16" t="s">
         <v>60</v>
       </c>
       <c r="K3" s="19">
         <v>45095</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="22">
         <v>109</v>
       </c>
       <c r="M3" s="13" t="s">
@@ -1985,57 +2010,127 @@
       <c r="CE3" s="2"/>
       <c r="CF3" s="2"/>
     </row>
-    <row r="4" spans="1:84">
-      <c r="G4" s="20" t="s">
+    <row r="4" spans="1:84" s="1" customFormat="1">
+      <c r="G4" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="I4" s="22">
+        <v>18</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="K4" s="19">
+        <v>45139</v>
+      </c>
+      <c r="L4" s="22"/>
+      <c r="M4" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="P4" s="12"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BE4" s="2"/>
+      <c r="BF4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BH4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BJ4" s="2"/>
+      <c r="BK4" s="2"/>
+      <c r="BL4" s="2"/>
+      <c r="BM4" s="2"/>
+      <c r="BN4" s="2"/>
+      <c r="BO4" s="2"/>
+      <c r="BP4" s="2"/>
+      <c r="BQ4" s="2"/>
+      <c r="BR4" s="2"/>
+      <c r="BS4" s="2"/>
+      <c r="BT4" s="2"/>
+      <c r="BU4" s="2"/>
+      <c r="BV4" s="2"/>
+      <c r="BW4" s="2"/>
+      <c r="BX4" s="2"/>
+      <c r="BY4" s="2"/>
+      <c r="BZ4" s="2"/>
+      <c r="CA4" s="2"/>
+      <c r="CB4" s="2"/>
+      <c r="CC4" s="2"/>
+      <c r="CD4" s="2"/>
+      <c r="CE4" s="2"/>
+      <c r="CF4" s="2"/>
+    </row>
+    <row r="5" spans="1:84">
+      <c r="G5" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H5" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="24" t="s">
+      <c r="I5" s="22">
+        <v>3</v>
+      </c>
+      <c r="J5" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K5" s="25">
         <v>45122</v>
       </c>
-      <c r="L4" s="47">
+      <c r="L5" s="45">
         <v>2385</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:84" s="1" customFormat="1">
-      <c r="G5" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" s="19">
-        <v>45119</v>
-      </c>
-      <c r="L5" s="45"/>
-      <c r="M5" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="N5" s="43"/>
-      <c r="O5" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="P5" s="40"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
+      <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:84" s="1" customFormat="1">
       <c r="G6" s="20" t="s">
@@ -2044,22 +2139,22 @@
       <c r="H6" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="45"/>
+      <c r="I6" s="22"/>
       <c r="J6" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K6" s="19">
-        <v>45117</v>
-      </c>
-      <c r="L6" s="45"/>
-      <c r="M6" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="N6" s="44"/>
-      <c r="O6" s="12"/>
-      <c r="Q6" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>45119</v>
+      </c>
+      <c r="L6" s="22"/>
+      <c r="M6" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="N6" s="43"/>
+      <c r="O6" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" s="40"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
@@ -2071,20 +2166,21 @@
       <c r="H7" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="45"/>
+      <c r="I7" s="22"/>
       <c r="J7" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K7" s="19">
         <v>45117</v>
       </c>
-      <c r="L7" s="45"/>
+      <c r="L7" s="22"/>
       <c r="M7" s="14" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N7" s="44"/>
-      <c r="O7" s="12" t="s">
-        <v>104</v>
+      <c r="O7" s="12"/>
+      <c r="Q7" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
@@ -2094,60 +2190,52 @@
       <c r="G8" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="I8" s="45"/>
-      <c r="J8" s="12" t="s">
-        <v>68</v>
+      <c r="H8" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="K8" s="19">
-        <v>45135</v>
-      </c>
-      <c r="L8" s="45">
-        <v>306</v>
-      </c>
+        <v>45117</v>
+      </c>
+      <c r="L8" s="22"/>
       <c r="M8" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="N8" s="44"/>
       <c r="O8" s="12" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
     <row r="9" spans="1:84" s="1" customFormat="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
       <c r="G9" s="20" t="s">
         <v>133</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="I9" s="45"/>
+      <c r="I9" s="22">
+        <v>5</v>
+      </c>
       <c r="J9" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K9" s="19">
-        <v>45142</v>
-      </c>
-      <c r="L9" s="45">
-        <v>502</v>
+        <v>45135</v>
+      </c>
+      <c r="L9" s="22">
+        <v>306</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="O9" s="12" t="s">
         <v>141</v>
@@ -2155,70 +2243,6 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="2"/>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="2"/>
-      <c r="AK9" s="2"/>
-      <c r="AL9" s="2"/>
-      <c r="AM9" s="2"/>
-      <c r="AN9" s="2"/>
-      <c r="AO9" s="2"/>
-      <c r="AP9" s="2"/>
-      <c r="AQ9" s="2"/>
-      <c r="AR9" s="2"/>
-      <c r="AS9" s="2"/>
-      <c r="AT9" s="2"/>
-      <c r="AU9" s="2"/>
-      <c r="AV9" s="2"/>
-      <c r="AW9" s="2"/>
-      <c r="AX9" s="2"/>
-      <c r="AY9" s="2"/>
-      <c r="AZ9" s="2"/>
-      <c r="BA9" s="2"/>
-      <c r="BB9" s="2"/>
-      <c r="BC9" s="2"/>
-      <c r="BD9" s="2"/>
-      <c r="BE9" s="2"/>
-      <c r="BF9" s="2"/>
-      <c r="BG9" s="2"/>
-      <c r="BH9" s="2"/>
-      <c r="BI9" s="2"/>
-      <c r="BJ9" s="2"/>
-      <c r="BK9" s="2"/>
-      <c r="BL9" s="2"/>
-      <c r="BM9" s="2"/>
-      <c r="BN9" s="2"/>
-      <c r="BO9" s="2"/>
-      <c r="BP9" s="2"/>
-      <c r="BQ9" s="2"/>
-      <c r="BR9" s="2"/>
-      <c r="BS9" s="2"/>
-      <c r="BT9" s="2"/>
-      <c r="BU9" s="2"/>
-      <c r="BV9" s="2"/>
-      <c r="BW9" s="2"/>
-      <c r="BX9" s="2"/>
-      <c r="BY9" s="2"/>
-      <c r="BZ9" s="2"/>
-      <c r="CA9" s="2"/>
-      <c r="CB9" s="2"/>
-      <c r="CC9" s="2"/>
-      <c r="CD9" s="2"/>
-      <c r="CE9" s="2"/>
-      <c r="CF9" s="2"/>
     </row>
     <row r="10" spans="1:84" s="1" customFormat="1">
       <c r="A10" s="3"/>
@@ -2227,32 +2251,31 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="I10" s="48"/>
-      <c r="J10" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="K10" s="28">
-        <v>45173</v>
-      </c>
-      <c r="L10" s="48">
-        <v>463</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="N10" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="O10" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q10" s="3"/>
+      <c r="G10" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="19">
+        <v>45142</v>
+      </c>
+      <c r="L10" s="22">
+        <v>502</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>141</v>
+      </c>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
@@ -2322,30 +2345,38 @@
       <c r="CF10" s="2"/>
     </row>
     <row r="11" spans="1:84" s="1" customFormat="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="26" t="s">
         <v>151</v>
       </c>
       <c r="H11" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="I11" s="48"/>
+      <c r="I11" s="42">
+        <v>19</v>
+      </c>
       <c r="J11" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K11" s="28">
-        <v>45168</v>
-      </c>
-      <c r="L11" s="48">
-        <v>489</v>
+        <v>45173</v>
+      </c>
+      <c r="L11" s="42">
+        <v>463</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N11" s="29" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O11" s="27" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
@@ -2417,32 +2448,34 @@
       <c r="CF11" s="2"/>
     </row>
     <row r="12" spans="1:84" s="1" customFormat="1">
-      <c r="G12" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" s="45"/>
-      <c r="J12" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="19">
-        <v>45093</v>
-      </c>
-      <c r="L12" s="45">
-        <v>59</v>
+      <c r="G12" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="42">
+        <v>34</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="K12" s="28">
+        <v>45168</v>
+      </c>
+      <c r="L12" s="42">
+        <v>489</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="P12" s="16"/>
+        <v>109</v>
+      </c>
+      <c r="N12" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="O12" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -2512,32 +2545,34 @@
       <c r="CF12" s="2"/>
     </row>
     <row r="13" spans="1:84" s="1" customFormat="1">
-      <c r="G13" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" s="45"/>
-      <c r="J13" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="K13" s="19">
-        <v>45095</v>
-      </c>
-      <c r="L13" s="45">
-        <v>109</v>
+      <c r="G13" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="42">
+        <v>14</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="K13" s="28">
+        <v>45134</v>
+      </c>
+      <c r="L13" s="42">
+        <v>463</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O13" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="P13" s="16"/>
+        <v>106</v>
+      </c>
+      <c r="N13" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="O13" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
@@ -2606,66 +2641,132 @@
       <c r="CE13" s="2"/>
       <c r="CF13" s="2"/>
     </row>
-    <row r="14" spans="1:84" s="13" customFormat="1">
-      <c r="G14" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="I14" s="45"/>
-      <c r="J14" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="K14" s="25">
-        <v>45119</v>
-      </c>
-      <c r="L14" s="47">
-        <v>2782</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="O14" s="16"/>
-      <c r="P14" s="3"/>
+    <row r="14" spans="1:84" s="1" customFormat="1">
+      <c r="G14" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="I14" s="42">
+        <v>24</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="K14" s="28">
+        <v>45164</v>
+      </c>
+      <c r="L14" s="42">
+        <v>555</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="N14" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>141</v>
+      </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2"/>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="2"/>
+      <c r="BD14" s="2"/>
+      <c r="BE14" s="2"/>
+      <c r="BF14" s="2"/>
+      <c r="BG14" s="2"/>
+      <c r="BH14" s="2"/>
+      <c r="BI14" s="2"/>
+      <c r="BJ14" s="2"/>
+      <c r="BK14" s="2"/>
+      <c r="BL14" s="2"/>
+      <c r="BM14" s="2"/>
+      <c r="BN14" s="2"/>
+      <c r="BO14" s="2"/>
+      <c r="BP14" s="2"/>
+      <c r="BQ14" s="2"/>
+      <c r="BR14" s="2"/>
+      <c r="BS14" s="2"/>
+      <c r="BT14" s="2"/>
+      <c r="BU14" s="2"/>
+      <c r="BV14" s="2"/>
+      <c r="BW14" s="2"/>
+      <c r="BX14" s="2"/>
+      <c r="BY14" s="2"/>
+      <c r="BZ14" s="2"/>
+      <c r="CA14" s="2"/>
+      <c r="CB14" s="2"/>
+      <c r="CC14" s="2"/>
+      <c r="CD14" s="2"/>
+      <c r="CE14" s="2"/>
+      <c r="CF14" s="2"/>
     </row>
     <row r="15" spans="1:84" s="1" customFormat="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
       <c r="G15" s="13" t="s">
         <v>134</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="I15" s="45"/>
-      <c r="J15" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="K15" s="25">
-        <v>45121</v>
-      </c>
-      <c r="L15" s="47">
-        <v>2199</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="O15" s="12"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="I15" s="22">
+        <v>2</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="19">
+        <v>45093</v>
+      </c>
+      <c r="L15" s="22">
+        <v>59</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" s="16"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -2735,33 +2836,34 @@
       <c r="CF15" s="2"/>
     </row>
     <row r="16" spans="1:84" s="1" customFormat="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
       <c r="G16" s="13" t="s">
         <v>134</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="I16" s="45"/>
-      <c r="J16" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="K16" s="25">
-        <v>45188</v>
-      </c>
-      <c r="L16" s="45"/>
-      <c r="M16" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="I16" s="22">
+        <v>6</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="19">
+        <v>45095</v>
+      </c>
+      <c r="L16" s="22">
+        <v>109</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" s="16"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
@@ -2830,463 +2932,593 @@
       <c r="CE16" s="2"/>
       <c r="CF16" s="2"/>
     </row>
-    <row r="17" spans="1:84" ht="15" customHeight="1">
-      <c r="G17" s="26" t="s">
-        <v>152</v>
+    <row r="17" spans="1:84" s="13" customFormat="1">
+      <c r="G17" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="45"/>
-      <c r="J17" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="K17" s="19">
-        <v>45109</v>
+        <v>137</v>
+      </c>
+      <c r="I17" s="22">
+        <v>3</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="K17" s="25">
+        <v>45119</v>
       </c>
       <c r="L17" s="45">
-        <v>150</v>
-      </c>
-      <c r="M17" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O17" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:84" ht="15" customHeight="1">
-      <c r="G18" s="26" t="s">
-        <v>152</v>
+        <v>2782</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O17" s="16"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="1:84" s="1" customFormat="1">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" s="45"/>
-      <c r="J18" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="K18" s="19">
-        <v>45160</v>
+        <v>137</v>
+      </c>
+      <c r="I18" s="22">
+        <v>4</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="K18" s="25">
+        <v>45121</v>
       </c>
       <c r="L18" s="45">
-        <v>352</v>
-      </c>
-      <c r="M18" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="N18" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="O18" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" spans="1:84" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="G19" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="I19" s="48"/>
-      <c r="J19" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="K19" s="28">
-        <v>45168</v>
-      </c>
-      <c r="L19" s="48">
-        <v>552</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="N19" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="O19" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="P19" s="1"/>
+        <v>2199</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="O18" s="12"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="2"/>
+      <c r="AR18" s="2"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="2"/>
+      <c r="AU18" s="2"/>
+      <c r="AV18" s="2"/>
+      <c r="AW18" s="2"/>
+      <c r="AX18" s="2"/>
+      <c r="AY18" s="2"/>
+      <c r="AZ18" s="2"/>
+      <c r="BA18" s="2"/>
+      <c r="BB18" s="2"/>
+      <c r="BC18" s="2"/>
+      <c r="BD18" s="2"/>
+      <c r="BE18" s="2"/>
+      <c r="BF18" s="2"/>
+      <c r="BG18" s="2"/>
+      <c r="BH18" s="2"/>
+      <c r="BI18" s="2"/>
+      <c r="BJ18" s="2"/>
+      <c r="BK18" s="2"/>
+      <c r="BL18" s="2"/>
+      <c r="BM18" s="2"/>
+      <c r="BN18" s="2"/>
+      <c r="BO18" s="2"/>
+      <c r="BP18" s="2"/>
+      <c r="BQ18" s="2"/>
+      <c r="BR18" s="2"/>
+      <c r="BS18" s="2"/>
+      <c r="BT18" s="2"/>
+      <c r="BU18" s="2"/>
+      <c r="BV18" s="2"/>
+      <c r="BW18" s="2"/>
+      <c r="BX18" s="2"/>
+      <c r="BY18" s="2"/>
+      <c r="BZ18" s="2"/>
+      <c r="CA18" s="2"/>
+      <c r="CB18" s="2"/>
+      <c r="CC18" s="2"/>
+      <c r="CD18" s="2"/>
+      <c r="CE18" s="2"/>
+      <c r="CF18" s="2"/>
+    </row>
+    <row r="19" spans="1:84" s="1" customFormat="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="I19" s="22">
+        <v>2</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="K19" s="25">
+        <v>45188</v>
+      </c>
+      <c r="L19" s="22"/>
+      <c r="M19" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="1:84" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="2"/>
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="2"/>
+      <c r="AY19" s="2"/>
+      <c r="AZ19" s="2"/>
+      <c r="BA19" s="2"/>
+      <c r="BB19" s="2"/>
+      <c r="BC19" s="2"/>
+      <c r="BD19" s="2"/>
+      <c r="BE19" s="2"/>
+      <c r="BF19" s="2"/>
+      <c r="BG19" s="2"/>
+      <c r="BH19" s="2"/>
+      <c r="BI19" s="2"/>
+      <c r="BJ19" s="2"/>
+      <c r="BK19" s="2"/>
+      <c r="BL19" s="2"/>
+      <c r="BM19" s="2"/>
+      <c r="BN19" s="2"/>
+      <c r="BO19" s="2"/>
+      <c r="BP19" s="2"/>
+      <c r="BQ19" s="2"/>
+      <c r="BR19" s="2"/>
+      <c r="BS19" s="2"/>
+      <c r="BT19" s="2"/>
+      <c r="BU19" s="2"/>
+      <c r="BV19" s="2"/>
+      <c r="BW19" s="2"/>
+      <c r="BX19" s="2"/>
+      <c r="BY19" s="2"/>
+      <c r="BZ19" s="2"/>
+      <c r="CA19" s="2"/>
+      <c r="CB19" s="2"/>
+      <c r="CC19" s="2"/>
+      <c r="CD19" s="2"/>
+      <c r="CE19" s="2"/>
+      <c r="CF19" s="2"/>
+    </row>
+    <row r="20" spans="1:84" ht="15" customHeight="1">
       <c r="G20" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="22"/>
+      <c r="J20" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20" s="19">
+        <v>45109</v>
+      </c>
+      <c r="L20" s="22">
+        <v>150</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O20" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:84" ht="15" customHeight="1">
+      <c r="G21" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="22"/>
+      <c r="J21" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="K21" s="19">
+        <v>45160</v>
+      </c>
+      <c r="L21" s="22">
+        <v>352</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="N21" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="O21" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" spans="1:84" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="G22" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="H22" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="I20" s="48"/>
-      <c r="J20" s="27" t="s">
+      <c r="I22" s="42"/>
+      <c r="J22" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="K22" s="28">
+        <v>45168</v>
+      </c>
+      <c r="L22" s="42">
+        <v>552</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="N22" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="O22" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="1:84" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="G23" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23" s="42"/>
+      <c r="J23" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="K20" s="28">
+      <c r="K23" s="28">
         <v>45168</v>
       </c>
-      <c r="L20" s="48">
+      <c r="L23" s="42">
         <v>492</v>
       </c>
-      <c r="M20" s="13" t="s">
+      <c r="M23" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="N20" s="29" t="s">
+      <c r="N23" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="O20" s="27" t="s">
+      <c r="O23" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="3"/>
-    </row>
-    <row r="21" spans="1:84" s="13" customFormat="1">
-      <c r="G21" s="13" t="s">
+      <c r="P23" s="1"/>
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="1:84" s="13" customFormat="1">
+      <c r="G24" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H24" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="I21" s="45"/>
-      <c r="J21" s="16" t="s">
+      <c r="I24" s="22"/>
+      <c r="J24" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K24" s="19">
         <v>45173</v>
       </c>
-      <c r="L21" s="45"/>
-      <c r="M21" s="13" t="s">
+      <c r="L24" s="22"/>
+      <c r="M24" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="N21" s="13" t="s">
+      <c r="N24" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="O21" s="16" t="s">
+      <c r="O24" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="Q21" s="3"/>
-    </row>
-    <row r="22" spans="1:84">
-      <c r="G22" s="13" t="s">
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="1:84">
+      <c r="G25" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H25" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="I22" s="45"/>
-      <c r="J22" s="16" t="s">
+      <c r="I25" s="22"/>
+      <c r="J25" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="K22" s="19">
+      <c r="K25" s="19">
         <v>45173</v>
       </c>
-      <c r="L22" s="45"/>
-      <c r="M22" s="13" t="s">
+      <c r="L25" s="22"/>
+      <c r="M25" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="N22" s="13" t="s">
+      <c r="N25" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="O22" s="16" t="s">
+      <c r="O25" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="P22" s="13"/>
-    </row>
-    <row r="23" spans="1:84">
-      <c r="G23" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="I23" s="45"/>
-      <c r="J23" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K23" s="19">
-        <v>45120</v>
-      </c>
-      <c r="L23" s="45">
-        <v>228</v>
-      </c>
-      <c r="M23" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="O23" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" spans="1:84">
-      <c r="G24" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I24" s="45">
-        <v>10</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="K24" s="19">
-        <v>45124</v>
-      </c>
-      <c r="L24" s="45">
-        <v>242</v>
-      </c>
-      <c r="M24" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="N24" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="O24" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" spans="1:84" s="1" customFormat="1">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I25" s="45">
-        <v>12</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="K25" s="19">
-        <v>45160</v>
-      </c>
-      <c r="L25" s="45">
-        <v>373</v>
-      </c>
-      <c r="M25" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="N25" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="O25" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
-      <c r="AC25" s="2"/>
-      <c r="AD25" s="2"/>
-      <c r="AE25" s="2"/>
-      <c r="AF25" s="2"/>
-      <c r="AG25" s="2"/>
-      <c r="AH25" s="2"/>
-      <c r="AI25" s="2"/>
-      <c r="AJ25" s="2"/>
-      <c r="AK25" s="2"/>
-      <c r="AL25" s="2"/>
-      <c r="AM25" s="2"/>
-      <c r="AN25" s="2"/>
-      <c r="AO25" s="2"/>
-      <c r="AP25" s="2"/>
-      <c r="AQ25" s="2"/>
-      <c r="AR25" s="2"/>
-      <c r="AS25" s="2"/>
-      <c r="AT25" s="2"/>
-      <c r="AU25" s="2"/>
-      <c r="AV25" s="2"/>
-      <c r="AW25" s="2"/>
-      <c r="AX25" s="2"/>
-      <c r="AY25" s="2"/>
-      <c r="AZ25" s="2"/>
-      <c r="BA25" s="2"/>
-      <c r="BB25" s="2"/>
-      <c r="BC25" s="2"/>
-      <c r="BD25" s="2"/>
-      <c r="BE25" s="2"/>
-      <c r="BF25" s="2"/>
-      <c r="BG25" s="2"/>
-      <c r="BH25" s="2"/>
-      <c r="BI25" s="2"/>
-      <c r="BJ25" s="2"/>
-      <c r="BK25" s="2"/>
-      <c r="BL25" s="2"/>
-      <c r="BM25" s="2"/>
-      <c r="BN25" s="2"/>
-      <c r="BO25" s="2"/>
-      <c r="BP25" s="2"/>
-      <c r="BQ25" s="2"/>
-      <c r="BR25" s="2"/>
-      <c r="BS25" s="2"/>
-      <c r="BT25" s="2"/>
-      <c r="BU25" s="2"/>
-      <c r="BV25" s="2"/>
-      <c r="BW25" s="2"/>
-      <c r="BX25" s="2"/>
-      <c r="BY25" s="2"/>
-      <c r="BZ25" s="2"/>
-      <c r="CA25" s="2"/>
-      <c r="CB25" s="2"/>
-      <c r="CC25" s="2"/>
-      <c r="CD25" s="2"/>
-      <c r="CE25" s="2"/>
-      <c r="CF25" s="2"/>
-    </row>
-    <row r="26" spans="1:84" s="1" customFormat="1">
-      <c r="A26" s="17"/>
+      <c r="P25" s="13"/>
+    </row>
+    <row r="26" spans="1:84">
       <c r="G26" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="H26" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="I26" s="45">
-        <v>15</v>
-      </c>
-      <c r="J26" s="16" t="s">
-        <v>193</v>
+      <c r="H26" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26" s="22"/>
+      <c r="J26" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="K26" s="19">
-        <v>45189</v>
-      </c>
-      <c r="L26" s="45"/>
-      <c r="M26" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="N26" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="O26" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-    </row>
-    <row r="27" spans="1:84" s="1" customFormat="1">
+        <v>45120</v>
+      </c>
+      <c r="L26" s="22">
+        <v>228</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O26" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" spans="1:84">
       <c r="G27" s="13" t="s">
         <v>153</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="I27" s="45">
-        <v>23</v>
+        <v>81</v>
+      </c>
+      <c r="I27" s="22">
+        <v>10</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="K27" s="19">
-        <v>45183</v>
-      </c>
-      <c r="L27" s="45"/>
+        <v>45124</v>
+      </c>
+      <c r="L27" s="22">
+        <v>242</v>
+      </c>
       <c r="M27" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="N27" s="13" t="s">
-        <v>130</v>
+        <v>174</v>
+      </c>
+      <c r="N27" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
+        <v>178</v>
+      </c>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="13"/>
     </row>
     <row r="28" spans="1:84" s="1" customFormat="1">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
       <c r="G28" s="13" t="s">
         <v>153</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I28" s="45">
-        <v>3</v>
-      </c>
-      <c r="J28" s="16" t="s">
-        <v>199</v>
+        <v>81</v>
+      </c>
+      <c r="I28" s="22">
+        <v>12</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="K28" s="19">
-        <v>45175</v>
-      </c>
-      <c r="L28" s="45">
-        <v>106</v>
+        <v>45160</v>
+      </c>
+      <c r="L28" s="22">
+        <v>373</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="N28" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="O28" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="3"/>
+        <v>172</v>
+      </c>
+      <c r="N28" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="O28" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q28" s="13"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="2"/>
+      <c r="AQ28" s="2"/>
+      <c r="AR28" s="2"/>
+      <c r="AS28" s="2"/>
+      <c r="AT28" s="2"/>
+      <c r="AU28" s="2"/>
+      <c r="AV28" s="2"/>
+      <c r="AW28" s="2"/>
+      <c r="AX28" s="2"/>
+      <c r="AY28" s="2"/>
+      <c r="AZ28" s="2"/>
+      <c r="BA28" s="2"/>
+      <c r="BB28" s="2"/>
+      <c r="BC28" s="2"/>
+      <c r="BD28" s="2"/>
+      <c r="BE28" s="2"/>
+      <c r="BF28" s="2"/>
+      <c r="BG28" s="2"/>
+      <c r="BH28" s="2"/>
+      <c r="BI28" s="2"/>
+      <c r="BJ28" s="2"/>
+      <c r="BK28" s="2"/>
+      <c r="BL28" s="2"/>
+      <c r="BM28" s="2"/>
+      <c r="BN28" s="2"/>
+      <c r="BO28" s="2"/>
+      <c r="BP28" s="2"/>
+      <c r="BQ28" s="2"/>
+      <c r="BR28" s="2"/>
+      <c r="BS28" s="2"/>
+      <c r="BT28" s="2"/>
+      <c r="BU28" s="2"/>
+      <c r="BV28" s="2"/>
+      <c r="BW28" s="2"/>
+      <c r="BX28" s="2"/>
+      <c r="BY28" s="2"/>
+      <c r="BZ28" s="2"/>
+      <c r="CA28" s="2"/>
+      <c r="CB28" s="2"/>
+      <c r="CC28" s="2"/>
+      <c r="CD28" s="2"/>
+      <c r="CE28" s="2"/>
+      <c r="CF28" s="2"/>
     </row>
     <row r="29" spans="1:84" s="1" customFormat="1">
+      <c r="A29" s="17"/>
       <c r="G29" s="13" t="s">
         <v>153</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I29" s="45">
-        <v>2</v>
+        <v>121</v>
+      </c>
+      <c r="I29" s="22">
+        <v>15</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="K29" s="19">
-        <v>45174</v>
-      </c>
-      <c r="L29" s="45">
-        <v>131</v>
-      </c>
+        <v>45189</v>
+      </c>
+      <c r="L29" s="22"/>
       <c r="M29" s="13" t="s">
-        <v>198</v>
+        <v>127</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>203</v>
+        <v>128</v>
       </c>
       <c r="O29" s="16" t="s">
-        <v>204</v>
+        <v>129</v>
       </c>
       <c r="P29" s="13"/>
       <c r="Q29" s="3"/>
@@ -3299,28 +3531,28 @@
         <v>153</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="I30" s="45">
-        <v>1</v>
-      </c>
-      <c r="J30" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="K30" s="25">
-        <v>45119</v>
-      </c>
-      <c r="L30" s="47">
-        <v>2177</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="O30" s="12"/>
-      <c r="P30" s="3"/>
+        <v>121</v>
+      </c>
+      <c r="I30" s="22">
+        <v>23</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="K30" s="19">
+        <v>45183</v>
+      </c>
+      <c r="L30" s="22"/>
+      <c r="M30" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="O30" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="P30" s="13"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
@@ -3333,28 +3565,28 @@
       <c r="H31" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I31" s="45" t="s">
-        <v>201</v>
+      <c r="I31" s="22">
+        <v>3</v>
       </c>
       <c r="J31" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="K31" s="25">
-        <v>45193</v>
-      </c>
-      <c r="L31" s="47">
-        <v>74</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>207</v>
+        <v>199</v>
+      </c>
+      <c r="K31" s="19">
+        <v>45175</v>
+      </c>
+      <c r="L31" s="22">
+        <v>106</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>205</v>
       </c>
       <c r="O31" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="P31" s="3"/>
+        <v>204</v>
+      </c>
+      <c r="P31" s="13"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
@@ -3362,27 +3594,31 @@
     </row>
     <row r="32" spans="1:84" s="1" customFormat="1">
       <c r="G32" s="13" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="I32" s="45"/>
+        <v>56</v>
+      </c>
+      <c r="I32" s="22">
+        <v>2</v>
+      </c>
       <c r="J32" s="16" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="K32" s="19">
-        <v>45133</v>
-      </c>
-      <c r="L32" s="45"/>
+        <v>45174</v>
+      </c>
+      <c r="L32" s="22">
+        <v>131</v>
+      </c>
       <c r="M32" s="13" t="s">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="N32" s="13" t="s">
-        <v>119</v>
+        <v>203</v>
       </c>
       <c r="O32" s="16" t="s">
-        <v>120</v>
+        <v>204</v>
       </c>
       <c r="P32" s="13"/>
       <c r="Q32" s="3"/>
@@ -3390,411 +3626,511 @@
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
     </row>
-    <row r="33" spans="1:84" s="13" customFormat="1">
-      <c r="G33" s="14" t="s">
-        <v>84</v>
+    <row r="33" spans="1:84" s="1" customFormat="1">
+      <c r="G33" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="I33" s="45"/>
-      <c r="J33" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="K33" s="19">
-        <v>45142</v>
+        <v>137</v>
+      </c>
+      <c r="I33" s="22">
+        <v>1</v>
+      </c>
+      <c r="J33" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="K33" s="25">
+        <v>45119</v>
       </c>
       <c r="L33" s="45">
-        <v>266</v>
-      </c>
-      <c r="M33" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O33" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-    </row>
-    <row r="34" spans="1:84">
-      <c r="G34" s="14" t="s">
-        <v>84</v>
+        <v>2177</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="O33" s="12"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+    </row>
+    <row r="34" spans="1:84" s="1" customFormat="1">
+      <c r="G34" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I34" s="45"/>
-      <c r="J34" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="K34" s="28">
-        <v>45137</v>
-      </c>
-      <c r="L34" s="45"/>
-      <c r="M34" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="N34" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="O34" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-    </row>
-    <row r="35" spans="1:84">
-      <c r="G35" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="K34" s="25">
+        <v>45193</v>
+      </c>
+      <c r="L34" s="45">
+        <v>74</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="O34" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+    </row>
+    <row r="35" spans="1:84" s="1" customFormat="1">
+      <c r="G35" s="13" t="s">
         <v>84</v>
       </c>
       <c r="H35" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="I35" s="45"/>
-      <c r="J35" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K35" s="28">
-        <v>45136</v>
-      </c>
-      <c r="L35" s="48">
-        <v>70</v>
-      </c>
-      <c r="M35" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="N35" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="O35" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="18"/>
-    </row>
-    <row r="36" spans="1:84">
+      <c r="I35" s="22">
+        <v>16</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="K35" s="19">
+        <v>45133</v>
+      </c>
+      <c r="L35" s="22"/>
+      <c r="M35" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="N35" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="O35" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+    </row>
+    <row r="36" spans="1:84" s="13" customFormat="1">
       <c r="G36" s="14" t="s">
         <v>84</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I36" s="45"/>
+        <v>180</v>
+      </c>
+      <c r="I36" s="22"/>
       <c r="J36" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="K36" s="28">
-        <v>45138</v>
-      </c>
-      <c r="L36" s="45"/>
+        <v>75</v>
+      </c>
+      <c r="K36" s="19">
+        <v>45142</v>
+      </c>
+      <c r="L36" s="22">
+        <v>266</v>
+      </c>
       <c r="M36" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="N36" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="O36" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O36" s="12" t="s">
         <v>104</v>
       </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
     <row r="37" spans="1:84">
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I37" s="22"/>
+      <c r="J37" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K37" s="28">
+        <v>45137</v>
+      </c>
+      <c r="L37" s="22"/>
+      <c r="M37" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="N37" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="O37" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+    </row>
+    <row r="38" spans="1:84">
+      <c r="G38" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I38" s="22">
+        <v>7</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K38" s="28">
+        <v>45136</v>
+      </c>
+      <c r="L38" s="42">
+        <v>70</v>
+      </c>
+      <c r="M38" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="N38" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="O38" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="18"/>
+    </row>
+    <row r="39" spans="1:84">
+      <c r="G39" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I39" s="22"/>
+      <c r="J39" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K39" s="28">
+        <v>45138</v>
+      </c>
+      <c r="L39" s="22"/>
+      <c r="M39" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="N39" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="O39" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+    </row>
+    <row r="40" spans="1:84">
+      <c r="G40" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H37" s="13" t="s">
+      <c r="H40" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="I37" s="45"/>
-      <c r="J37" s="12" t="s">
+      <c r="I40" s="22"/>
+      <c r="J40" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="K37" s="19">
+      <c r="K40" s="19">
         <v>45171</v>
       </c>
-      <c r="L37" s="45">
+      <c r="L40" s="22">
         <v>125</v>
       </c>
-      <c r="M37" s="14" t="s">
+      <c r="M40" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="N37" s="1" t="s">
+      <c r="N40" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="O37" s="12" t="s">
+      <c r="O40" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="P37" s="12" t="s">
+      <c r="P40" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" spans="1:84">
-      <c r="G38" s="13" t="s">
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" spans="1:84">
+      <c r="G41" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="H41" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="I38" s="45">
+      <c r="I41" s="22">
         <v>5</v>
       </c>
-      <c r="J38" s="24" t="s">
+      <c r="J41" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="K38" s="25">
+      <c r="K41" s="25">
         <v>45119</v>
       </c>
-      <c r="L38" s="47">
+      <c r="L41" s="45">
         <v>2782</v>
       </c>
-      <c r="M38" s="6" t="s">
+      <c r="M41" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="N38" s="3" t="s">
+      <c r="N41" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:84" s="1" customFormat="1">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="2"/>
-      <c r="AB39" s="2"/>
-      <c r="AC39" s="2"/>
-      <c r="AD39" s="2"/>
-      <c r="AE39" s="2"/>
-      <c r="AF39" s="2"/>
-      <c r="AG39" s="2"/>
-      <c r="AH39" s="2"/>
-      <c r="AI39" s="2"/>
-      <c r="AJ39" s="2"/>
-      <c r="AK39" s="2"/>
-      <c r="AL39" s="2"/>
-      <c r="AM39" s="2"/>
-      <c r="AN39" s="2"/>
-      <c r="AO39" s="2"/>
-      <c r="AP39" s="2"/>
-      <c r="AQ39" s="2"/>
-      <c r="AR39" s="2"/>
-      <c r="AS39" s="2"/>
-      <c r="AT39" s="2"/>
-      <c r="AU39" s="2"/>
-      <c r="AV39" s="2"/>
-      <c r="AW39" s="2"/>
-      <c r="AX39" s="2"/>
-      <c r="AY39" s="2"/>
-      <c r="AZ39" s="2"/>
-      <c r="BA39" s="2"/>
-      <c r="BB39" s="2"/>
-      <c r="BC39" s="2"/>
-      <c r="BD39" s="2"/>
-      <c r="BE39" s="2"/>
-      <c r="BF39" s="2"/>
-      <c r="BG39" s="2"/>
-      <c r="BH39" s="2"/>
-      <c r="BI39" s="2"/>
-      <c r="BJ39" s="2"/>
-      <c r="BK39" s="2"/>
-      <c r="BL39" s="2"/>
-      <c r="BM39" s="2"/>
-      <c r="BN39" s="2"/>
-      <c r="BO39" s="2"/>
-      <c r="BP39" s="2"/>
-      <c r="BQ39" s="2"/>
-      <c r="BR39" s="2"/>
-      <c r="BS39" s="2"/>
-      <c r="BT39" s="2"/>
-      <c r="BU39" s="2"/>
-      <c r="BV39" s="2"/>
-      <c r="BW39" s="2"/>
-      <c r="BX39" s="2"/>
-      <c r="BY39" s="2"/>
-      <c r="BZ39" s="2"/>
-      <c r="CA39" s="2"/>
-      <c r="CB39" s="2"/>
-      <c r="CC39" s="2"/>
-      <c r="CD39" s="2"/>
-      <c r="CE39" s="2"/>
-      <c r="CF39" s="2"/>
-    </row>
-    <row r="40" spans="1:84" ht="16.5" customHeight="1">
-      <c r="G40" s="1" t="s">
+    <row r="42" spans="1:84" s="1" customFormat="1">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="2"/>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="2"/>
+      <c r="AG42" s="2"/>
+      <c r="AH42" s="2"/>
+      <c r="AI42" s="2"/>
+      <c r="AJ42" s="2"/>
+      <c r="AK42" s="2"/>
+      <c r="AL42" s="2"/>
+      <c r="AM42" s="2"/>
+      <c r="AN42" s="2"/>
+      <c r="AO42" s="2"/>
+      <c r="AP42" s="2"/>
+      <c r="AQ42" s="2"/>
+      <c r="AR42" s="2"/>
+      <c r="AS42" s="2"/>
+      <c r="AT42" s="2"/>
+      <c r="AU42" s="2"/>
+      <c r="AV42" s="2"/>
+      <c r="AW42" s="2"/>
+      <c r="AX42" s="2"/>
+      <c r="AY42" s="2"/>
+      <c r="AZ42" s="2"/>
+      <c r="BA42" s="2"/>
+      <c r="BB42" s="2"/>
+      <c r="BC42" s="2"/>
+      <c r="BD42" s="2"/>
+      <c r="BE42" s="2"/>
+      <c r="BF42" s="2"/>
+      <c r="BG42" s="2"/>
+      <c r="BH42" s="2"/>
+      <c r="BI42" s="2"/>
+      <c r="BJ42" s="2"/>
+      <c r="BK42" s="2"/>
+      <c r="BL42" s="2"/>
+      <c r="BM42" s="2"/>
+      <c r="BN42" s="2"/>
+      <c r="BO42" s="2"/>
+      <c r="BP42" s="2"/>
+      <c r="BQ42" s="2"/>
+      <c r="BR42" s="2"/>
+      <c r="BS42" s="2"/>
+      <c r="BT42" s="2"/>
+      <c r="BU42" s="2"/>
+      <c r="BV42" s="2"/>
+      <c r="BW42" s="2"/>
+      <c r="BX42" s="2"/>
+      <c r="BY42" s="2"/>
+      <c r="BZ42" s="2"/>
+      <c r="CA42" s="2"/>
+      <c r="CB42" s="2"/>
+      <c r="CC42" s="2"/>
+      <c r="CD42" s="2"/>
+      <c r="CE42" s="2"/>
+      <c r="CF42" s="2"/>
+    </row>
+    <row r="43" spans="1:84" ht="16.5" customHeight="1">
+      <c r="G43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H40" s="1"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-    </row>
-    <row r="41" spans="1:84">
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:84">
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
     </row>
     <row r="44" spans="1:84">
-      <c r="H44" s="13"/>
-      <c r="I44" s="45"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:84">
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="47" spans="1:84">
+      <c r="H47" s="13"/>
+      <c r="I47" s="22"/>
+    </row>
+    <row r="48" spans="1:84">
+      <c r="G48" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="122" ht="15" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="210" spans="1:13">
-      <c r="A210" s="30"/>
-      <c r="B210" s="31"/>
-      <c r="G210" s="32"/>
-      <c r="H210" s="33"/>
-      <c r="I210" s="49"/>
-    </row>
-    <row r="211" spans="1:13">
-      <c r="A211" s="30"/>
-      <c r="B211" s="31"/>
-      <c r="G211" s="32"/>
-      <c r="H211" s="33"/>
-      <c r="I211" s="49"/>
-    </row>
-    <row r="212" spans="1:13">
-      <c r="A212" s="30"/>
-      <c r="B212" s="31"/>
-      <c r="G212" s="32"/>
-      <c r="H212" s="33"/>
-      <c r="I212" s="49"/>
-    </row>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="103" ht="14.25" customHeight="1"/>
+    <row r="117" ht="14.25" customHeight="1"/>
+    <row r="125" ht="15" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
     <row r="213" spans="1:13">
       <c r="A213" s="30"/>
       <c r="B213" s="31"/>
       <c r="G213" s="32"/>
       <c r="H213" s="33"/>
-      <c r="I213" s="49"/>
+      <c r="I213" s="46"/>
     </row>
     <row r="214" spans="1:13">
       <c r="A214" s="30"/>
       <c r="B214" s="31"/>
       <c r="G214" s="32"/>
       <c r="H214" s="33"/>
-      <c r="I214" s="49"/>
+      <c r="I214" s="46"/>
     </row>
     <row r="215" spans="1:13">
       <c r="A215" s="30"/>
       <c r="B215" s="31"/>
       <c r="G215" s="32"/>
       <c r="H215" s="33"/>
-      <c r="I215" s="49"/>
+      <c r="I215" s="46"/>
     </row>
     <row r="216" spans="1:13">
-      <c r="A216" s="1"/>
+      <c r="A216" s="30"/>
       <c r="B216" s="31"/>
-      <c r="G216" s="34"/>
-      <c r="H216" s="35"/>
-      <c r="I216" s="45"/>
-      <c r="J216" s="16"/>
-      <c r="M216" s="14"/>
+      <c r="G216" s="32"/>
+      <c r="H216" s="33"/>
+      <c r="I216" s="46"/>
     </row>
     <row r="217" spans="1:13">
-      <c r="B217" s="1"/>
-      <c r="G217" s="34"/>
-      <c r="H217" s="35"/>
-      <c r="I217" s="45"/>
-      <c r="J217" s="22"/>
-      <c r="M217" s="14"/>
+      <c r="A217" s="30"/>
+      <c r="B217" s="31"/>
+      <c r="G217" s="32"/>
+      <c r="H217" s="33"/>
+      <c r="I217" s="46"/>
     </row>
     <row r="218" spans="1:13">
-      <c r="B218" s="1"/>
-      <c r="G218" s="34"/>
-      <c r="H218" s="36"/>
-      <c r="I218" s="50"/>
-      <c r="J218" s="22"/>
-      <c r="M218" s="14"/>
+      <c r="A218" s="30"/>
+      <c r="B218" s="31"/>
+      <c r="G218" s="32"/>
+      <c r="H218" s="33"/>
+      <c r="I218" s="46"/>
     </row>
     <row r="219" spans="1:13">
-      <c r="B219" s="1"/>
-      <c r="G219" s="11"/>
-      <c r="H219" s="37"/>
-      <c r="I219" s="49"/>
-      <c r="J219" s="38"/>
-      <c r="M219" s="37"/>
+      <c r="A219" s="1"/>
+      <c r="B219" s="31"/>
+      <c r="G219" s="34"/>
+      <c r="H219" s="35"/>
+      <c r="I219" s="22"/>
+      <c r="J219" s="16"/>
+      <c r="M219" s="14"/>
     </row>
     <row r="220" spans="1:13">
       <c r="B220" s="1"/>
-      <c r="G220" s="11"/>
-      <c r="H220" s="37"/>
-      <c r="I220" s="49"/>
-      <c r="J220" s="38"/>
-      <c r="M220" s="37"/>
+      <c r="G220" s="34"/>
+      <c r="H220" s="35"/>
+      <c r="I220" s="22"/>
+      <c r="J220" s="22"/>
+      <c r="M220" s="14"/>
     </row>
     <row r="221" spans="1:13">
       <c r="B221" s="1"/>
-      <c r="G221" s="11"/>
-      <c r="H221" s="37"/>
-      <c r="I221" s="49"/>
-      <c r="J221" s="39"/>
-      <c r="M221" s="37"/>
+      <c r="G221" s="34"/>
+      <c r="H221" s="36"/>
+      <c r="I221" s="47"/>
+      <c r="J221" s="22"/>
+      <c r="M221" s="14"/>
     </row>
     <row r="222" spans="1:13">
       <c r="B222" s="1"/>
       <c r="G222" s="11"/>
       <c r="H222" s="37"/>
-      <c r="I222" s="49"/>
-      <c r="J222" s="39"/>
+      <c r="I222" s="46"/>
+      <c r="J222" s="38"/>
       <c r="M222" s="37"/>
     </row>
     <row r="223" spans="1:13">
       <c r="B223" s="1"/>
       <c r="G223" s="11"/>
       <c r="H223" s="37"/>
-      <c r="I223" s="49"/>
-      <c r="J223" s="39"/>
+      <c r="I223" s="46"/>
+      <c r="J223" s="38"/>
       <c r="M223" s="37"/>
     </row>
     <row r="224" spans="1:13">
       <c r="B224" s="1"/>
       <c r="G224" s="11"/>
       <c r="H224" s="37"/>
-      <c r="I224" s="49"/>
+      <c r="I224" s="46"/>
       <c r="J224" s="39"/>
       <c r="M224" s="37"/>
+    </row>
+    <row r="225" spans="2:13">
+      <c r="B225" s="1"/>
+      <c r="G225" s="11"/>
+      <c r="H225" s="37"/>
+      <c r="I225" s="46"/>
+      <c r="J225" s="39"/>
+      <c r="M225" s="37"/>
+    </row>
+    <row r="226" spans="2:13">
+      <c r="B226" s="1"/>
+      <c r="G226" s="11"/>
+      <c r="H226" s="37"/>
+      <c r="I226" s="46"/>
+      <c r="J226" s="39"/>
+      <c r="M226" s="37"/>
+    </row>
+    <row r="227" spans="2:13">
+      <c r="B227" s="1"/>
+      <c r="G227" s="11"/>
+      <c r="H227" s="37"/>
+      <c r="I227" s="46"/>
+      <c r="J227" s="39"/>
+      <c r="M227" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -3808,7 +4144,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Гербарии/Actaeae DNA  samples by AE (04.12.2023).xlsx
+++ b/Гербарии/Actaeae DNA  samples by AE (04.12.2023).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Eranthis\Гербарии\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA989876-F4DE-468E-8511-369D18277912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A4B8ED-B699-457A-9F9D-D0EB647BB9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,25 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="238">
   <si>
     <t>Species</t>
   </si>
@@ -505,9 +518,6 @@
     <t>AM2023-7</t>
   </si>
   <si>
-    <t>P.A. Kuzmina</t>
-  </si>
-  <si>
     <t>Russia, Perm Territory, Kungursky district, left bank of the Babka river - left tributary of the Sylva river, Zhilino village</t>
   </si>
   <si>
@@ -1103,6 +1113,69 @@
   </si>
   <si>
     <t>V.A. Kalinkina</t>
+  </si>
+  <si>
+    <t>P.A. Kuzmina (P.A. Zaremba)</t>
+  </si>
+  <si>
+    <t>Russia, Krasnoyarsk region, Minusinsk district, district of the village of Znamenka</t>
+  </si>
+  <si>
+    <t>53°32'43.4"N, 91°56'11.1"E</t>
+  </si>
+  <si>
+    <t>KR2023-4</t>
+  </si>
+  <si>
+    <t>HAK2023-4</t>
+  </si>
+  <si>
+    <t>Russia, Republic of Khakassia, Sayanogorsk urban district, left bank of the Yenisei river, Babik valley (surrounding the Gladenkaya hotel)</t>
+  </si>
+  <si>
+    <t>52°59'19.9"N, 91°25'47.2"E</t>
+  </si>
+  <si>
+    <t>TU1990-1</t>
+  </si>
+  <si>
+    <t>1300-1400</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>I.N. Pospelov</t>
+  </si>
+  <si>
+    <t>Russia, southwestern Taimyr, Putorana plateau, western shore of Lake Nakomyaken, area of the mouth of the Tonel river</t>
+  </si>
+  <si>
+    <t>68°51'44.8"N, 90°37'2.14"E</t>
+  </si>
+  <si>
+    <t>KR2021-1</t>
+  </si>
+  <si>
+    <t>grass-moss forest on a stream fan</t>
+  </si>
+  <si>
+    <t>Actaea heracleifolia Kom</t>
+  </si>
+  <si>
+    <t>the foot of the mountain, on a turfed scree overgrown with forest</t>
+  </si>
+  <si>
+    <t>PR2023-7</t>
+  </si>
+  <si>
+    <t>ДНК</t>
+  </si>
+  <si>
+    <t>TU1990-2</t>
+  </si>
+  <si>
+    <t>1400-1500</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1322,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1370,12 +1443,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1675,10 +1762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CF227"/>
+  <dimension ref="A1:CG232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1690,19 +1777,19 @@
     <col min="6" max="6" width="10.85546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="50.7109375" style="6" customWidth="1"/>
     <col min="8" max="8" width="52.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" style="45" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="12" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13" style="45" customWidth="1"/>
-    <col min="13" max="13" width="93" style="6" customWidth="1"/>
-    <col min="14" max="14" width="28.5703125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="39.7109375" style="10" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="3"/>
-    <col min="17" max="17" width="20" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="3"/>
+    <col min="9" max="10" width="24" style="45" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="12" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13" style="45" customWidth="1"/>
+    <col min="14" max="14" width="93" style="6" customWidth="1"/>
+    <col min="15" max="15" width="28.5703125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="39.7109375" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="3"/>
+    <col min="18" max="18" width="20" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" s="12" customFormat="1">
+    <row r="1" spans="1:85" s="12" customFormat="1">
       <c r="A1" s="15" t="s">
         <v>53</v>
       </c>
@@ -1710,16 +1797,16 @@
         <v>16</v>
       </c>
       <c r="C1" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>149</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>150</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>0</v>
@@ -1728,30 +1815,32 @@
         <v>17</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="J1" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="K1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="N1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="O1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="P1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="10"/>
       <c r="S1" s="10"/>
       <c r="T1" s="10"/>
-      <c r="U1" s="38"/>
+      <c r="U1" s="10"/>
       <c r="V1" s="38"/>
       <c r="W1" s="38"/>
       <c r="X1" s="38"/>
@@ -1815,8 +1904,9 @@
       <c r="CD1" s="38"/>
       <c r="CE1" s="38"/>
       <c r="CF1" s="38"/>
-    </row>
-    <row r="2" spans="1:84" s="1" customFormat="1">
+      <c r="CG1" s="38"/>
+    </row>
+    <row r="2" spans="1:85" s="1" customFormat="1">
       <c r="G2" s="13" t="s">
         <v>83</v>
       </c>
@@ -1826,29 +1916,29 @@
       <c r="I2" s="22">
         <v>3</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="22"/>
+      <c r="K2" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="19">
+      <c r="L2" s="19">
         <v>45093</v>
       </c>
-      <c r="L2" s="22">
+      <c r="M2" s="22">
         <v>59</v>
       </c>
-      <c r="M2" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="P2" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="16"/>
-      <c r="R2" s="3"/>
+      <c r="Q2" s="16"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
-      <c r="U2" s="2"/>
+      <c r="U2" s="3"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -1912,8 +2002,9 @@
       <c r="CD2" s="2"/>
       <c r="CE2" s="2"/>
       <c r="CF2" s="2"/>
-    </row>
-    <row r="3" spans="1:84" s="1" customFormat="1">
+      <c r="CG2" s="2"/>
+    </row>
+    <row r="3" spans="1:85" s="1" customFormat="1">
       <c r="G3" s="13" t="s">
         <v>83</v>
       </c>
@@ -1923,29 +2014,29 @@
       <c r="I3" s="22">
         <v>3</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="22"/>
+      <c r="K3" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="19">
+      <c r="L3" s="19">
         <v>45095</v>
       </c>
-      <c r="L3" s="22">
+      <c r="M3" s="22">
         <v>109</v>
       </c>
-      <c r="M3" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="P3" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="P3" s="12"/>
-      <c r="R3" s="3"/>
+      <c r="Q3" s="12"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
-      <c r="U3" s="2"/>
+      <c r="U3" s="3"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -2009,38 +2100,42 @@
       <c r="CD3" s="2"/>
       <c r="CE3" s="2"/>
       <c r="CF3" s="2"/>
-    </row>
-    <row r="4" spans="1:84" s="1" customFormat="1">
+      <c r="CG3" s="2"/>
+    </row>
+    <row r="4" spans="1:85" s="1" customFormat="1">
       <c r="G4" s="13" t="s">
         <v>83</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I4" s="22">
         <v>18</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="22">
+        <f>19+20+14+20+20+20+18+20+18+20</f>
+        <v>189</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="L4" s="19">
+        <v>45139</v>
+      </c>
+      <c r="M4" s="22"/>
+      <c r="N4" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="K4" s="19">
-        <v>45139</v>
-      </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="13" t="s">
+      <c r="O4" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="P4" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="O4" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="P4" s="12"/>
-      <c r="R4" s="3"/>
+      <c r="Q4" s="12"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
-      <c r="U4" s="2"/>
+      <c r="U4" s="3"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -2104,147 +2199,153 @@
       <c r="CD4" s="2"/>
       <c r="CE4" s="2"/>
       <c r="CF4" s="2"/>
-    </row>
-    <row r="5" spans="1:84">
+      <c r="CG4" s="2"/>
+    </row>
+    <row r="5" spans="1:85">
       <c r="G5" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I5" s="22">
         <v>3</v>
       </c>
-      <c r="J5" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="K5" s="25">
+      <c r="J5" s="22"/>
+      <c r="K5" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="L5" s="25">
         <v>45122</v>
       </c>
-      <c r="L5" s="45">
+      <c r="M5" s="45">
         <v>2385</v>
       </c>
-      <c r="M5" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:84" s="1" customFormat="1">
+      <c r="O5" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:85" s="1" customFormat="1">
       <c r="G6" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>63</v>
       </c>
       <c r="I6" s="22"/>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="22"/>
+      <c r="K6" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="19">
+      <c r="L6" s="19">
         <v>45119</v>
       </c>
-      <c r="L6" s="22"/>
-      <c r="M6" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="N6" s="43"/>
-      <c r="O6" s="16" t="s">
+      <c r="M6" s="22"/>
+      <c r="N6" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="O6" s="43"/>
+      <c r="P6" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="P6" s="40"/>
-      <c r="R6" s="3"/>
+      <c r="Q6" s="40"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
-    </row>
-    <row r="7" spans="1:84" s="1" customFormat="1">
+      <c r="U6" s="3"/>
+    </row>
+    <row r="7" spans="1:85" s="1" customFormat="1">
       <c r="G7" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>63</v>
       </c>
       <c r="I7" s="22"/>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="22"/>
+      <c r="K7" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="K7" s="19">
+      <c r="L7" s="19">
         <v>45117</v>
       </c>
-      <c r="L7" s="22"/>
-      <c r="M7" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="N7" s="44"/>
-      <c r="O7" s="12"/>
-      <c r="Q7" s="1" t="s">
+      <c r="M7" s="22"/>
+      <c r="N7" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="O7" s="44"/>
+      <c r="P7" s="12"/>
+      <c r="R7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-    </row>
-    <row r="8" spans="1:84" s="1" customFormat="1">
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="1:85" s="1" customFormat="1">
       <c r="G8" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>63</v>
       </c>
       <c r="I8" s="22"/>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="22"/>
+      <c r="K8" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="K8" s="19">
+      <c r="L8" s="19">
         <v>45117</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="N8" s="44"/>
-      <c r="O8" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="R8" s="3"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="O8" s="44"/>
+      <c r="P8" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
-    </row>
-    <row r="9" spans="1:84" s="1" customFormat="1">
+      <c r="U8" s="3"/>
+    </row>
+    <row r="9" spans="1:85" s="1" customFormat="1">
       <c r="G9" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I9" s="22">
         <v>5</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="22"/>
+      <c r="K9" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="K9" s="19">
+      <c r="L9" s="19">
         <v>45135</v>
       </c>
-      <c r="L9" s="22">
+      <c r="M9" s="22">
         <v>306</v>
       </c>
-      <c r="M9" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O9" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="R9" s="3"/>
+      <c r="P9" s="12" t="s">
+        <v>140</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
-    </row>
-    <row r="10" spans="1:84" s="1" customFormat="1">
+      <c r="U9" s="3"/>
+    </row>
+    <row r="10" spans="1:85" s="1" customFormat="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2252,34 +2353,36 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I10" s="22"/>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="22">
+        <v>19</v>
+      </c>
+      <c r="K10" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="K10" s="19">
+      <c r="L10" s="19">
         <v>45142</v>
       </c>
-      <c r="L10" s="22">
+      <c r="M10" s="22">
         <v>502</v>
       </c>
-      <c r="M10" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="O10" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="R10" s="3"/>
+      <c r="P10" s="12" t="s">
+        <v>140</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="2"/>
+      <c r="U10" s="3"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -2343,8 +2446,9 @@
       <c r="CD10" s="2"/>
       <c r="CE10" s="2"/>
       <c r="CF10" s="2"/>
-    </row>
-    <row r="11" spans="1:84" s="1" customFormat="1">
+      <c r="CG10" s="2"/>
+    </row>
+    <row r="11" spans="1:85" s="1" customFormat="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2352,37 +2456,37 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I11" s="42">
         <v>19</v>
       </c>
-      <c r="J11" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="K11" s="28">
+      <c r="J11" s="42"/>
+      <c r="K11" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="L11" s="28">
         <v>45173</v>
       </c>
-      <c r="L11" s="42">
+      <c r="M11" s="42">
         <v>463</v>
       </c>
-      <c r="M11" s="13" t="s">
+      <c r="N11" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="O11" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="N11" s="29" t="s">
+      <c r="P11" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="O11" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="2"/>
+      <c r="U11" s="3"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -2446,40 +2550,41 @@
       <c r="CD11" s="2"/>
       <c r="CE11" s="2"/>
       <c r="CF11" s="2"/>
-    </row>
-    <row r="12" spans="1:84" s="1" customFormat="1">
+      <c r="CG11" s="2"/>
+    </row>
+    <row r="12" spans="1:85" s="1" customFormat="1">
       <c r="G12" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I12" s="42">
         <v>34</v>
       </c>
-      <c r="J12" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="K12" s="28">
+      <c r="J12" s="42"/>
+      <c r="K12" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="L12" s="28">
         <v>45168</v>
       </c>
-      <c r="L12" s="42">
+      <c r="M12" s="42">
         <v>489</v>
       </c>
-      <c r="M12" s="13" t="s">
+      <c r="N12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="O12" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="N12" s="29" t="s">
+      <c r="P12" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="O12" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="2"/>
+      <c r="U12" s="3"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -2543,40 +2648,41 @@
       <c r="CD12" s="2"/>
       <c r="CE12" s="2"/>
       <c r="CF12" s="2"/>
-    </row>
-    <row r="13" spans="1:84" s="1" customFormat="1">
+      <c r="CG12" s="2"/>
+    </row>
+    <row r="13" spans="1:85" s="1" customFormat="1">
       <c r="G13" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I13" s="42">
         <v>14</v>
       </c>
-      <c r="J13" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="K13" s="28">
+      <c r="J13" s="42"/>
+      <c r="K13" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="L13" s="28">
         <v>45134</v>
       </c>
-      <c r="L13" s="42">
+      <c r="M13" s="42">
         <v>463</v>
       </c>
-      <c r="M13" s="13" t="s">
+      <c r="N13" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="O13" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="N13" s="29" t="s">
+      <c r="P13" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="O13" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="2"/>
+      <c r="U13" s="3"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -2640,40 +2746,41 @@
       <c r="CD13" s="2"/>
       <c r="CE13" s="2"/>
       <c r="CF13" s="2"/>
-    </row>
-    <row r="14" spans="1:84" s="1" customFormat="1">
+      <c r="CG13" s="2"/>
+    </row>
+    <row r="14" spans="1:85" s="1" customFormat="1">
       <c r="G14" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I14" s="42">
         <v>24</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="42"/>
+      <c r="K14" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="L14" s="28">
+        <v>45164</v>
+      </c>
+      <c r="M14" s="42">
+        <v>555</v>
+      </c>
+      <c r="N14" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="K14" s="28">
-        <v>45164</v>
-      </c>
-      <c r="L14" s="42">
-        <v>555</v>
-      </c>
-      <c r="M14" s="13" t="s">
+      <c r="O14" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="N14" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q14" s="3"/>
+      <c r="P14" s="12" t="s">
+        <v>140</v>
+      </c>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
-      <c r="U14" s="2"/>
+      <c r="U14" s="3"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -2737,10 +2844,11 @@
       <c r="CD14" s="2"/>
       <c r="CE14" s="2"/>
       <c r="CF14" s="2"/>
-    </row>
-    <row r="15" spans="1:84" s="1" customFormat="1">
+      <c r="CG14" s="2"/>
+    </row>
+    <row r="15" spans="1:85" s="1" customFormat="1">
       <c r="G15" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>56</v>
@@ -2748,29 +2856,29 @@
       <c r="I15" s="22">
         <v>2</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" s="22"/>
+      <c r="K15" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="K15" s="19">
+      <c r="L15" s="19">
         <v>45093</v>
       </c>
-      <c r="L15" s="22">
+      <c r="M15" s="22">
         <v>59</v>
       </c>
-      <c r="M15" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="O15" s="16" t="s">
+      <c r="P15" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="P15" s="16"/>
-      <c r="R15" s="3"/>
+      <c r="Q15" s="16"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="2"/>
+      <c r="U15" s="3"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -2834,10 +2942,11 @@
       <c r="CD15" s="2"/>
       <c r="CE15" s="2"/>
       <c r="CF15" s="2"/>
-    </row>
-    <row r="16" spans="1:84" s="1" customFormat="1">
+      <c r="CG15" s="2"/>
+    </row>
+    <row r="16" spans="1:85" s="1" customFormat="1">
       <c r="G16" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H16" s="13" t="s">
         <v>56</v>
@@ -2845,29 +2954,29 @@
       <c r="I16" s="22">
         <v>6</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="J16" s="22"/>
+      <c r="K16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="K16" s="19">
+      <c r="L16" s="19">
         <v>45095</v>
       </c>
-      <c r="L16" s="22">
+      <c r="M16" s="22">
         <v>109</v>
       </c>
-      <c r="M16" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="O16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="O16" s="16" t="s">
+      <c r="P16" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="P16" s="16"/>
-      <c r="R16" s="3"/>
+      <c r="Q16" s="16"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-      <c r="U16" s="2"/>
+      <c r="U16" s="3"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -2931,38 +3040,40 @@
       <c r="CD16" s="2"/>
       <c r="CE16" s="2"/>
       <c r="CF16" s="2"/>
-    </row>
-    <row r="17" spans="1:84" s="13" customFormat="1">
+      <c r="CG16" s="2"/>
+    </row>
+    <row r="17" spans="1:85" s="13" customFormat="1">
       <c r="G17" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I17" s="22">
         <v>3</v>
       </c>
-      <c r="J17" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="K17" s="25">
+      <c r="J17" s="22"/>
+      <c r="K17" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="L17" s="25">
         <v>45119</v>
       </c>
-      <c r="L17" s="45">
+      <c r="M17" s="45">
         <v>2782</v>
       </c>
-      <c r="M17" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="O17" s="16"/>
-      <c r="P17" s="3"/>
+      <c r="N17" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="P17" s="16"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
-    </row>
-    <row r="18" spans="1:84" s="1" customFormat="1">
+      <c r="S17" s="3"/>
+    </row>
+    <row r="18" spans="1:85" s="1" customFormat="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2970,36 +3081,36 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I18" s="22">
         <v>4</v>
       </c>
-      <c r="J18" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="K18" s="25">
+      <c r="J18" s="22"/>
+      <c r="K18" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="L18" s="25">
         <v>45121</v>
       </c>
-      <c r="L18" s="45">
+      <c r="M18" s="45">
         <v>2199</v>
       </c>
-      <c r="M18" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="O18" s="12"/>
-      <c r="P18" s="3"/>
+      <c r="N18" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P18" s="12"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
-      <c r="U18" s="2"/>
+      <c r="U18" s="3"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -3063,8 +3174,9 @@
       <c r="CD18" s="2"/>
       <c r="CE18" s="2"/>
       <c r="CF18" s="2"/>
-    </row>
-    <row r="19" spans="1:84" s="1" customFormat="1">
+      <c r="CG18" s="2"/>
+    </row>
+    <row r="19" spans="1:85" s="1" customFormat="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3072,32 +3184,32 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I19" s="22">
         <v>2</v>
       </c>
-      <c r="J19" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="K19" s="25">
+      <c r="J19" s="22"/>
+      <c r="K19" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="L19" s="25">
         <v>45188</v>
       </c>
-      <c r="L19" s="22"/>
-      <c r="M19" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="N19" s="3"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="3"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="O19" s="3"/>
+      <c r="P19" s="10"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-      <c r="U19" s="2"/>
+      <c r="U19" s="3"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -3161,979 +3273,1198 @@
       <c r="CD19" s="2"/>
       <c r="CE19" s="2"/>
       <c r="CF19" s="2"/>
-    </row>
-    <row r="20" spans="1:84" ht="15" customHeight="1">
+      <c r="CG19" s="2"/>
+    </row>
+    <row r="20" spans="1:85" ht="15" customHeight="1">
       <c r="G20" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H20" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="16" t="s">
+      <c r="I20" s="22">
+        <v>12</v>
+      </c>
+      <c r="J20" s="22"/>
+      <c r="K20" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="K20" s="19">
+      <c r="L20" s="19">
         <v>45109</v>
       </c>
-      <c r="L20" s="22">
+      <c r="M20" s="22">
         <v>150</v>
       </c>
-      <c r="M20" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="N20" s="1" t="s">
+      <c r="N20" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O20" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:84" ht="15" customHeight="1">
+      <c r="P20" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="1:85" ht="15" customHeight="1">
       <c r="G21" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>81</v>
       </c>
       <c r="I21" s="22"/>
-      <c r="J21" s="16" t="s">
+      <c r="J21" s="22"/>
+      <c r="K21" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="K21" s="19">
+      <c r="L21" s="19">
         <v>45160</v>
       </c>
-      <c r="L21" s="22">
+      <c r="M21" s="22">
         <v>352</v>
       </c>
-      <c r="M21" s="13" t="s">
+      <c r="N21" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="O21" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="13"/>
+    </row>
+    <row r="22" spans="1:85" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="G22" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22" s="42">
+        <v>19</v>
+      </c>
+      <c r="J22" s="42"/>
+      <c r="K22" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L22" s="28">
+        <v>45168</v>
+      </c>
+      <c r="M22" s="42">
+        <v>552</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="O22" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="P22" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" spans="1:85" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="G23" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" s="42">
+        <v>11</v>
+      </c>
+      <c r="J23" s="42"/>
+      <c r="K23" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="L23" s="28">
+        <v>45168</v>
+      </c>
+      <c r="M23" s="42">
+        <v>492</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="O23" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="P23" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="1:85" s="13" customFormat="1">
+      <c r="G24" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="I24" s="22">
+        <v>23</v>
+      </c>
+      <c r="J24" s="22"/>
+      <c r="K24" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="L24" s="19">
+        <v>45173</v>
+      </c>
+      <c r="M24" s="22"/>
+      <c r="N24" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O24" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="P24" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="R24" s="3"/>
+    </row>
+    <row r="25" spans="1:85">
+      <c r="G25" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="I25" s="22">
+        <v>17</v>
+      </c>
+      <c r="J25" s="22"/>
+      <c r="K25" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="L25" s="19">
+        <v>45173</v>
+      </c>
+      <c r="M25" s="22"/>
+      <c r="N25" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O25" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="P25" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" spans="1:85">
+      <c r="G26" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="I26" s="22">
+        <v>6</v>
+      </c>
+      <c r="J26" s="22"/>
+      <c r="K26" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="L26" s="19">
+        <v>45122</v>
+      </c>
+      <c r="M26" s="22">
+        <v>461</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" spans="1:85">
+      <c r="G27" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="I27" s="22">
+        <v>6</v>
+      </c>
+      <c r="J27" s="22"/>
+      <c r="K27" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="L27" s="19">
+        <v>45121</v>
+      </c>
+      <c r="M27" s="22">
+        <v>534</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="O27" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" spans="1:85">
+      <c r="G28" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="I28" s="22">
+        <v>1</v>
+      </c>
+      <c r="J28" s="22"/>
+      <c r="K28" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="L28" s="19">
+        <v>44408</v>
+      </c>
+      <c r="M28" s="22">
+        <v>103</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="O28" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="P28" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" spans="1:85">
+      <c r="G29" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="L29" s="19">
+        <v>45120</v>
+      </c>
+      <c r="M29" s="22">
+        <v>228</v>
+      </c>
+      <c r="N29" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="N21" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="O21" s="12" t="s">
+      <c r="O29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P29" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" spans="1:84" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="G22" s="26" t="s">
+      <c r="Q29" s="1"/>
+      <c r="R29" s="13"/>
+    </row>
+    <row r="30" spans="1:85">
+      <c r="G30" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="H22" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="I22" s="42"/>
-      <c r="J22" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="K22" s="28">
-        <v>45168</v>
-      </c>
-      <c r="L22" s="42">
-        <v>552</v>
-      </c>
-      <c r="M22" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="N22" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="O22" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="3"/>
-    </row>
-    <row r="23" spans="1:84" s="13" customFormat="1" ht="15" customHeight="1">
-      <c r="G23" s="26" t="s">
+      <c r="H30" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="I30" s="22">
+        <v>10</v>
+      </c>
+      <c r="J30" s="22"/>
+      <c r="K30" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="L30" s="19">
+        <v>45124</v>
+      </c>
+      <c r="M30" s="22">
+        <v>242</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="O30" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="P30" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="13"/>
+    </row>
+    <row r="31" spans="1:85" s="1" customFormat="1">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="H23" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="I23" s="42"/>
-      <c r="J23" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="K23" s="28">
-        <v>45168</v>
-      </c>
-      <c r="L23" s="42">
-        <v>492</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="N23" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="O23" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="3"/>
-    </row>
-    <row r="24" spans="1:84" s="13" customFormat="1">
-      <c r="G24" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="I24" s="22"/>
-      <c r="J24" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="K24" s="19">
-        <v>45173</v>
-      </c>
-      <c r="L24" s="22"/>
-      <c r="M24" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="N24" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="O24" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q24" s="3"/>
-    </row>
-    <row r="25" spans="1:84">
-      <c r="G25" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="K25" s="19">
-        <v>45173</v>
-      </c>
-      <c r="L25" s="22"/>
-      <c r="M25" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="N25" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="O25" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="P25" s="13"/>
-    </row>
-    <row r="26" spans="1:84">
-      <c r="G26" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="H26" s="14" t="s">
+      <c r="H31" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="K26" s="19">
-        <v>45120</v>
-      </c>
-      <c r="L26" s="22">
-        <v>228</v>
-      </c>
-      <c r="M26" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="O26" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" spans="1:84">
-      <c r="G27" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I27" s="22">
-        <v>10</v>
-      </c>
-      <c r="J27" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="K27" s="19">
-        <v>45124</v>
-      </c>
-      <c r="L27" s="22">
-        <v>242</v>
-      </c>
-      <c r="M27" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="N27" s="17" t="s">
+      <c r="I31" s="22">
+        <v>12</v>
+      </c>
+      <c r="J31" s="22"/>
+      <c r="K31" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="L31" s="19">
+        <v>45160</v>
+      </c>
+      <c r="M31" s="22">
+        <v>373</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="O31" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="O27" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" spans="1:84" s="1" customFormat="1">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I28" s="22">
-        <v>12</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="K28" s="19">
-        <v>45160</v>
-      </c>
-      <c r="L28" s="22">
-        <v>373</v>
-      </c>
-      <c r="M28" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="N28" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="O28" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="2"/>
-      <c r="AF28" s="2"/>
-      <c r="AG28" s="2"/>
-      <c r="AH28" s="2"/>
-      <c r="AI28" s="2"/>
-      <c r="AJ28" s="2"/>
-      <c r="AK28" s="2"/>
-      <c r="AL28" s="2"/>
-      <c r="AM28" s="2"/>
-      <c r="AN28" s="2"/>
-      <c r="AO28" s="2"/>
-      <c r="AP28" s="2"/>
-      <c r="AQ28" s="2"/>
-      <c r="AR28" s="2"/>
-      <c r="AS28" s="2"/>
-      <c r="AT28" s="2"/>
-      <c r="AU28" s="2"/>
-      <c r="AV28" s="2"/>
-      <c r="AW28" s="2"/>
-      <c r="AX28" s="2"/>
-      <c r="AY28" s="2"/>
-      <c r="AZ28" s="2"/>
-      <c r="BA28" s="2"/>
-      <c r="BB28" s="2"/>
-      <c r="BC28" s="2"/>
-      <c r="BD28" s="2"/>
-      <c r="BE28" s="2"/>
-      <c r="BF28" s="2"/>
-      <c r="BG28" s="2"/>
-      <c r="BH28" s="2"/>
-      <c r="BI28" s="2"/>
-      <c r="BJ28" s="2"/>
-      <c r="BK28" s="2"/>
-      <c r="BL28" s="2"/>
-      <c r="BM28" s="2"/>
-      <c r="BN28" s="2"/>
-      <c r="BO28" s="2"/>
-      <c r="BP28" s="2"/>
-      <c r="BQ28" s="2"/>
-      <c r="BR28" s="2"/>
-      <c r="BS28" s="2"/>
-      <c r="BT28" s="2"/>
-      <c r="BU28" s="2"/>
-      <c r="BV28" s="2"/>
-      <c r="BW28" s="2"/>
-      <c r="BX28" s="2"/>
-      <c r="BY28" s="2"/>
-      <c r="BZ28" s="2"/>
-      <c r="CA28" s="2"/>
-      <c r="CB28" s="2"/>
-      <c r="CC28" s="2"/>
-      <c r="CD28" s="2"/>
-      <c r="CE28" s="2"/>
-      <c r="CF28" s="2"/>
-    </row>
-    <row r="29" spans="1:84" s="1" customFormat="1">
-      <c r="A29" s="17"/>
-      <c r="G29" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="I29" s="22">
-        <v>15</v>
-      </c>
-      <c r="J29" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="K29" s="19">
-        <v>45189</v>
-      </c>
-      <c r="L29" s="22"/>
-      <c r="M29" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="N29" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="O29" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-    </row>
-    <row r="30" spans="1:84" s="1" customFormat="1">
-      <c r="G30" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="I30" s="22">
-        <v>23</v>
-      </c>
-      <c r="J30" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="K30" s="19">
-        <v>45183</v>
-      </c>
-      <c r="L30" s="22"/>
-      <c r="M30" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="N30" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="O30" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-    </row>
-    <row r="31" spans="1:84" s="1" customFormat="1">
-      <c r="G31" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I31" s="22">
-        <v>3</v>
-      </c>
-      <c r="J31" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="K31" s="19">
-        <v>45175</v>
-      </c>
-      <c r="L31" s="22">
-        <v>106</v>
-      </c>
-      <c r="M31" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="N31" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="O31" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
+      <c r="P31" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="R31" s="13"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
-    </row>
-    <row r="32" spans="1:84" s="1" customFormat="1">
+      <c r="U31" s="3"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="2"/>
+      <c r="AK31" s="2"/>
+      <c r="AL31" s="2"/>
+      <c r="AM31" s="2"/>
+      <c r="AN31" s="2"/>
+      <c r="AO31" s="2"/>
+      <c r="AP31" s="2"/>
+      <c r="AQ31" s="2"/>
+      <c r="AR31" s="2"/>
+      <c r="AS31" s="2"/>
+      <c r="AT31" s="2"/>
+      <c r="AU31" s="2"/>
+      <c r="AV31" s="2"/>
+      <c r="AW31" s="2"/>
+      <c r="AX31" s="2"/>
+      <c r="AY31" s="2"/>
+      <c r="AZ31" s="2"/>
+      <c r="BA31" s="2"/>
+      <c r="BB31" s="2"/>
+      <c r="BC31" s="2"/>
+      <c r="BD31" s="2"/>
+      <c r="BE31" s="2"/>
+      <c r="BF31" s="2"/>
+      <c r="BG31" s="2"/>
+      <c r="BH31" s="2"/>
+      <c r="BI31" s="2"/>
+      <c r="BJ31" s="2"/>
+      <c r="BK31" s="2"/>
+      <c r="BL31" s="2"/>
+      <c r="BM31" s="2"/>
+      <c r="BN31" s="2"/>
+      <c r="BO31" s="2"/>
+      <c r="BP31" s="2"/>
+      <c r="BQ31" s="2"/>
+      <c r="BR31" s="2"/>
+      <c r="BS31" s="2"/>
+      <c r="BT31" s="2"/>
+      <c r="BU31" s="2"/>
+      <c r="BV31" s="2"/>
+      <c r="BW31" s="2"/>
+      <c r="BX31" s="2"/>
+      <c r="BY31" s="2"/>
+      <c r="BZ31" s="2"/>
+      <c r="CA31" s="2"/>
+      <c r="CB31" s="2"/>
+      <c r="CC31" s="2"/>
+      <c r="CD31" s="2"/>
+      <c r="CE31" s="2"/>
+      <c r="CF31" s="2"/>
+      <c r="CG31" s="2"/>
+    </row>
+    <row r="32" spans="1:85" s="1" customFormat="1">
+      <c r="A32" s="17"/>
       <c r="G32" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="I32" s="22">
-        <v>2</v>
-      </c>
-      <c r="J32" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="K32" s="19">
-        <v>45174</v>
-      </c>
-      <c r="L32" s="22">
-        <v>131</v>
-      </c>
-      <c r="M32" s="13" t="s">
-        <v>198</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="J32" s="22"/>
+      <c r="K32" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="L32" s="19">
+        <v>45189</v>
+      </c>
+      <c r="M32" s="22"/>
       <c r="N32" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="O32" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="3"/>
+        <v>126</v>
+      </c>
+      <c r="O32" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="P32" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q32" s="13"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
-    </row>
-    <row r="33" spans="1:84" s="1" customFormat="1">
+      <c r="U32" s="3"/>
+    </row>
+    <row r="33" spans="1:85" s="1" customFormat="1">
       <c r="G33" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="I33" s="22">
-        <v>1</v>
-      </c>
-      <c r="J33" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="K33" s="25">
-        <v>45119</v>
-      </c>
-      <c r="L33" s="45">
-        <v>2177</v>
-      </c>
-      <c r="M33" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="O33" s="12"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="J33" s="22"/>
+      <c r="K33" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="L33" s="19">
+        <v>45183</v>
+      </c>
+      <c r="M33" s="22"/>
+      <c r="N33" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="O33" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="P33" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q33" s="13"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
-    </row>
-    <row r="34" spans="1:84" s="1" customFormat="1">
+      <c r="U33" s="3"/>
+    </row>
+    <row r="34" spans="1:85" s="1" customFormat="1">
       <c r="G34" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I34" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="J34" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="K34" s="25">
-        <v>45193</v>
-      </c>
-      <c r="L34" s="45">
-        <v>74</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="O34" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
+      <c r="I34" s="22">
+        <v>3</v>
+      </c>
+      <c r="J34" s="22"/>
+      <c r="K34" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="L34" s="19">
+        <v>45175</v>
+      </c>
+      <c r="M34" s="22">
+        <v>106</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="O34" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="P34" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q34" s="13"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
-    </row>
-    <row r="35" spans="1:84" s="1" customFormat="1">
+      <c r="U34" s="3"/>
+    </row>
+    <row r="35" spans="1:85" s="1" customFormat="1">
       <c r="G35" s="13" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="I35" s="22">
-        <v>16</v>
-      </c>
-      <c r="J35" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="K35" s="19">
-        <v>45133</v>
-      </c>
-      <c r="L35" s="22"/>
-      <c r="M35" s="13" t="s">
-        <v>118</v>
+        <v>2</v>
+      </c>
+      <c r="J35" s="22"/>
+      <c r="K35" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="L35" s="19">
+        <v>45174</v>
+      </c>
+      <c r="M35" s="22">
+        <v>131</v>
       </c>
       <c r="N35" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="O35" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="3"/>
+        <v>197</v>
+      </c>
+      <c r="O35" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="P35" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q35" s="13"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
-    </row>
-    <row r="36" spans="1:84" s="13" customFormat="1">
-      <c r="G36" s="14" t="s">
+      <c r="U35" s="3"/>
+    </row>
+    <row r="36" spans="1:85" s="1" customFormat="1">
+      <c r="G36" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="I36" s="22">
+        <v>1</v>
+      </c>
+      <c r="J36" s="22"/>
+      <c r="K36" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="L36" s="25">
+        <v>45119</v>
+      </c>
+      <c r="M36" s="45">
+        <v>2177</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+    </row>
+    <row r="37" spans="1:85" s="1" customFormat="1">
+      <c r="G37" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I37" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="J37" s="22"/>
+      <c r="K37" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="L37" s="25">
+        <v>45193</v>
+      </c>
+      <c r="M37" s="45">
+        <v>74</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="P37" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+    </row>
+    <row r="38" spans="1:85" s="1" customFormat="1">
+      <c r="G38" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="H36" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="I36" s="22"/>
-      <c r="J36" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="K36" s="19">
-        <v>45142</v>
-      </c>
-      <c r="L36" s="22">
-        <v>266</v>
-      </c>
-      <c r="M36" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="O36" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-    </row>
-    <row r="37" spans="1:84">
-      <c r="G37" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I37" s="22"/>
-      <c r="J37" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="K37" s="28">
-        <v>45137</v>
-      </c>
-      <c r="L37" s="22"/>
-      <c r="M37" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="N37" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="O37" s="27" t="s">
+      <c r="H38" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-    </row>
-    <row r="38" spans="1:84">
-      <c r="G38" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>98</v>
-      </c>
       <c r="I38" s="22">
-        <v>7</v>
-      </c>
-      <c r="J38" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K38" s="28">
-        <v>45136</v>
-      </c>
-      <c r="L38" s="42">
-        <v>70</v>
-      </c>
-      <c r="M38" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="N38" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="O38" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="18"/>
-    </row>
-    <row r="39" spans="1:84">
+        <v>16</v>
+      </c>
+      <c r="J38" s="22"/>
+      <c r="K38" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="L38" s="19">
+        <v>45133</v>
+      </c>
+      <c r="M38" s="22"/>
+      <c r="N38" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="O38" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="P38" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+    </row>
+    <row r="39" spans="1:85" s="13" customFormat="1">
       <c r="G39" s="14" t="s">
         <v>84</v>
       </c>
       <c r="H39" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="I39" s="22">
+        <v>10</v>
+      </c>
+      <c r="J39" s="22"/>
+      <c r="K39" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="L39" s="19">
+        <v>45142</v>
+      </c>
+      <c r="M39" s="22">
+        <v>266</v>
+      </c>
+      <c r="N39" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P39" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+    </row>
+    <row r="40" spans="1:85">
+      <c r="G40" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="I40" s="22">
+        <v>2</v>
+      </c>
+      <c r="J40" s="22"/>
+      <c r="K40" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="L40" s="28">
+        <v>45137</v>
+      </c>
+      <c r="M40" s="22"/>
+      <c r="N40" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="I39" s="22"/>
-      <c r="J39" s="12" t="s">
+      <c r="O40" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="P40" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+    </row>
+    <row r="41" spans="1:85">
+      <c r="G41" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I41" s="22">
+        <v>7</v>
+      </c>
+      <c r="J41" s="22"/>
+      <c r="K41" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L41" s="28">
+        <v>45136</v>
+      </c>
+      <c r="M41" s="42">
+        <v>70</v>
+      </c>
+      <c r="N41" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="O41" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="P41" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="18"/>
+    </row>
+    <row r="42" spans="1:85">
+      <c r="G42" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="I42" s="22">
+        <v>2</v>
+      </c>
+      <c r="J42" s="22"/>
+      <c r="K42" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="K39" s="28">
+      <c r="L42" s="28">
         <v>45138</v>
       </c>
-      <c r="L39" s="22"/>
-      <c r="M39" s="14" t="s">
+      <c r="M42" s="22"/>
+      <c r="N42" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="O42" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="N39" s="29" t="s">
+      <c r="P42" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="O39" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-    </row>
-    <row r="40" spans="1:84">
-      <c r="G40" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H40" s="13" t="s">
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+    </row>
+    <row r="43" spans="1:85">
+      <c r="G43" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="L43" s="19">
+        <v>45171</v>
+      </c>
+      <c r="M43" s="22">
+        <v>125</v>
+      </c>
+      <c r="N43" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P43" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q43" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R43" s="13"/>
+    </row>
+    <row r="44" spans="1:85">
+      <c r="G44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H44" s="13"/>
+      <c r="I44" s="22">
+        <v>2</v>
+      </c>
+      <c r="J44" s="22"/>
+      <c r="K44" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="L44" s="19">
+        <v>33048</v>
+      </c>
+      <c r="M44" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="N44" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="O44" s="1"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="13"/>
+    </row>
+    <row r="45" spans="1:85">
+      <c r="G45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H45" s="13"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22">
+        <v>1</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="L45" s="19">
+        <v>33062</v>
+      </c>
+      <c r="M45" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="N45" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="O45" s="1"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="13"/>
+    </row>
+    <row r="46" spans="1:85">
+      <c r="G46" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="H46" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="I40" s="22"/>
-      <c r="J40" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="K40" s="19">
-        <v>45171</v>
-      </c>
-      <c r="L40" s="22">
-        <v>125</v>
-      </c>
-      <c r="M40" s="14" t="s">
+      <c r="I46" s="22">
+        <v>5</v>
+      </c>
+      <c r="J46" s="22"/>
+      <c r="K46" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="L46" s="25">
+        <v>45119</v>
+      </c>
+      <c r="M46" s="45">
+        <v>2782</v>
+      </c>
+      <c r="N46" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="N40" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="O40" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="P40" s="12" t="s">
+      <c r="O46" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:85" s="1" customFormat="1">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I47" s="22">
         <v>6</v>
       </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" spans="1:84">
-      <c r="G41" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="I41" s="22">
-        <v>5</v>
-      </c>
-      <c r="J41" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="K41" s="25">
-        <v>45119</v>
-      </c>
-      <c r="L41" s="45">
-        <v>2782</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="1:84" s="1" customFormat="1">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
-      <c r="AA42" s="2"/>
-      <c r="AB42" s="2"/>
-      <c r="AC42" s="2"/>
-      <c r="AD42" s="2"/>
-      <c r="AE42" s="2"/>
-      <c r="AF42" s="2"/>
-      <c r="AG42" s="2"/>
-      <c r="AH42" s="2"/>
-      <c r="AI42" s="2"/>
-      <c r="AJ42" s="2"/>
-      <c r="AK42" s="2"/>
-      <c r="AL42" s="2"/>
-      <c r="AM42" s="2"/>
-      <c r="AN42" s="2"/>
-      <c r="AO42" s="2"/>
-      <c r="AP42" s="2"/>
-      <c r="AQ42" s="2"/>
-      <c r="AR42" s="2"/>
-      <c r="AS42" s="2"/>
-      <c r="AT42" s="2"/>
-      <c r="AU42" s="2"/>
-      <c r="AV42" s="2"/>
-      <c r="AW42" s="2"/>
-      <c r="AX42" s="2"/>
-      <c r="AY42" s="2"/>
-      <c r="AZ42" s="2"/>
-      <c r="BA42" s="2"/>
-      <c r="BB42" s="2"/>
-      <c r="BC42" s="2"/>
-      <c r="BD42" s="2"/>
-      <c r="BE42" s="2"/>
-      <c r="BF42" s="2"/>
-      <c r="BG42" s="2"/>
-      <c r="BH42" s="2"/>
-      <c r="BI42" s="2"/>
-      <c r="BJ42" s="2"/>
-      <c r="BK42" s="2"/>
-      <c r="BL42" s="2"/>
-      <c r="BM42" s="2"/>
-      <c r="BN42" s="2"/>
-      <c r="BO42" s="2"/>
-      <c r="BP42" s="2"/>
-      <c r="BQ42" s="2"/>
-      <c r="BR42" s="2"/>
-      <c r="BS42" s="2"/>
-      <c r="BT42" s="2"/>
-      <c r="BU42" s="2"/>
-      <c r="BV42" s="2"/>
-      <c r="BW42" s="2"/>
-      <c r="BX42" s="2"/>
-      <c r="BY42" s="2"/>
-      <c r="BZ42" s="2"/>
-      <c r="CA42" s="2"/>
-      <c r="CB42" s="2"/>
-      <c r="CC42" s="2"/>
-      <c r="CD42" s="2"/>
-      <c r="CE42" s="2"/>
-      <c r="CF42" s="2"/>
-    </row>
-    <row r="43" spans="1:84" ht="16.5" customHeight="1">
-      <c r="G43" s="1" t="s">
+      <c r="J47" s="22"/>
+      <c r="K47" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="L47" s="25">
+        <v>45193</v>
+      </c>
+      <c r="M47" s="45">
+        <v>74</v>
+      </c>
+      <c r="N47" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="P47" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="2"/>
+      <c r="AD47" s="2"/>
+      <c r="AE47" s="2"/>
+      <c r="AF47" s="2"/>
+      <c r="AG47" s="2"/>
+      <c r="AH47" s="2"/>
+      <c r="AI47" s="2"/>
+      <c r="AJ47" s="2"/>
+      <c r="AK47" s="2"/>
+      <c r="AL47" s="2"/>
+      <c r="AM47" s="2"/>
+      <c r="AN47" s="2"/>
+      <c r="AO47" s="2"/>
+      <c r="AP47" s="2"/>
+      <c r="AQ47" s="2"/>
+      <c r="AR47" s="2"/>
+      <c r="AS47" s="2"/>
+      <c r="AT47" s="2"/>
+      <c r="AU47" s="2"/>
+      <c r="AV47" s="2"/>
+      <c r="AW47" s="2"/>
+      <c r="AX47" s="2"/>
+      <c r="AY47" s="2"/>
+      <c r="AZ47" s="2"/>
+      <c r="BA47" s="2"/>
+      <c r="BB47" s="2"/>
+      <c r="BC47" s="2"/>
+      <c r="BD47" s="2"/>
+      <c r="BE47" s="2"/>
+      <c r="BF47" s="2"/>
+      <c r="BG47" s="2"/>
+      <c r="BH47" s="2"/>
+      <c r="BI47" s="2"/>
+      <c r="BJ47" s="2"/>
+      <c r="BK47" s="2"/>
+      <c r="BL47" s="2"/>
+      <c r="BM47" s="2"/>
+      <c r="BN47" s="2"/>
+      <c r="BO47" s="2"/>
+      <c r="BP47" s="2"/>
+      <c r="BQ47" s="2"/>
+      <c r="BR47" s="2"/>
+      <c r="BS47" s="2"/>
+      <c r="BT47" s="2"/>
+      <c r="BU47" s="2"/>
+      <c r="BV47" s="2"/>
+      <c r="BW47" s="2"/>
+      <c r="BX47" s="2"/>
+      <c r="BY47" s="2"/>
+      <c r="BZ47" s="2"/>
+      <c r="CA47" s="2"/>
+      <c r="CB47" s="2"/>
+      <c r="CC47" s="2"/>
+      <c r="CD47" s="2"/>
+      <c r="CE47" s="2"/>
+      <c r="CF47" s="2"/>
+      <c r="CG47" s="2"/>
+    </row>
+    <row r="48" spans="1:85" ht="16.5" customHeight="1">
+      <c r="G48" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H43" s="1"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-    </row>
-    <row r="44" spans="1:84">
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="1:84">
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="47" spans="1:84">
-      <c r="H47" s="13"/>
-      <c r="I47" s="22"/>
-    </row>
-    <row r="48" spans="1:84">
-      <c r="G48" s="6" t="s">
+      <c r="H48" s="1"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+    </row>
+    <row r="49" spans="7:10">
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="7:10">
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="52" spans="7:10">
+      <c r="H52" s="13"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+    </row>
+    <row r="53" spans="7:10">
+      <c r="G53" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="125" ht="15" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="213" spans="1:13">
-      <c r="A213" s="30"/>
-      <c r="B213" s="31"/>
-      <c r="G213" s="32"/>
-      <c r="H213" s="33"/>
-      <c r="I213" s="46"/>
-    </row>
-    <row r="214" spans="1:13">
-      <c r="A214" s="30"/>
-      <c r="B214" s="31"/>
-      <c r="G214" s="32"/>
-      <c r="H214" s="33"/>
-      <c r="I214" s="46"/>
-    </row>
-    <row r="215" spans="1:13">
-      <c r="A215" s="30"/>
-      <c r="B215" s="31"/>
-      <c r="G215" s="32"/>
-      <c r="H215" s="33"/>
-      <c r="I215" s="46"/>
-    </row>
-    <row r="216" spans="1:13">
-      <c r="A216" s="30"/>
-      <c r="B216" s="31"/>
-      <c r="G216" s="32"/>
-      <c r="H216" s="33"/>
-      <c r="I216" s="46"/>
-    </row>
-    <row r="217" spans="1:13">
-      <c r="A217" s="30"/>
-      <c r="B217" s="31"/>
-      <c r="G217" s="32"/>
-      <c r="H217" s="33"/>
-      <c r="I217" s="46"/>
-    </row>
-    <row r="218" spans="1:13">
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="108" ht="14.25" customHeight="1"/>
+    <row r="122" ht="14.25" customHeight="1"/>
+    <row r="130" ht="15" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="218" spans="1:14">
       <c r="A218" s="30"/>
       <c r="B218" s="31"/>
       <c r="G218" s="32"/>
       <c r="H218" s="33"/>
       <c r="I218" s="46"/>
-    </row>
-    <row r="219" spans="1:13">
-      <c r="A219" s="1"/>
+      <c r="J218" s="46"/>
+    </row>
+    <row r="219" spans="1:14">
+      <c r="A219" s="30"/>
       <c r="B219" s="31"/>
-      <c r="G219" s="34"/>
-      <c r="H219" s="35"/>
-      <c r="I219" s="22"/>
-      <c r="J219" s="16"/>
-      <c r="M219" s="14"/>
-    </row>
-    <row r="220" spans="1:13">
-      <c r="B220" s="1"/>
-      <c r="G220" s="34"/>
-      <c r="H220" s="35"/>
-      <c r="I220" s="22"/>
-      <c r="J220" s="22"/>
-      <c r="M220" s="14"/>
-    </row>
-    <row r="221" spans="1:13">
-      <c r="B221" s="1"/>
-      <c r="G221" s="34"/>
-      <c r="H221" s="36"/>
-      <c r="I221" s="47"/>
-      <c r="J221" s="22"/>
-      <c r="M221" s="14"/>
-    </row>
-    <row r="222" spans="1:13">
-      <c r="B222" s="1"/>
-      <c r="G222" s="11"/>
-      <c r="H222" s="37"/>
+      <c r="G219" s="32"/>
+      <c r="H219" s="33"/>
+      <c r="I219" s="46"/>
+      <c r="J219" s="46"/>
+    </row>
+    <row r="220" spans="1:14">
+      <c r="A220" s="30"/>
+      <c r="B220" s="31"/>
+      <c r="G220" s="32"/>
+      <c r="H220" s="33"/>
+      <c r="I220" s="46"/>
+      <c r="J220" s="46"/>
+    </row>
+    <row r="221" spans="1:14">
+      <c r="A221" s="30"/>
+      <c r="B221" s="31"/>
+      <c r="G221" s="32"/>
+      <c r="H221" s="33"/>
+      <c r="I221" s="46"/>
+      <c r="J221" s="46"/>
+    </row>
+    <row r="222" spans="1:14">
+      <c r="A222" s="30"/>
+      <c r="B222" s="31"/>
+      <c r="G222" s="32"/>
+      <c r="H222" s="33"/>
       <c r="I222" s="46"/>
-      <c r="J222" s="38"/>
-      <c r="M222" s="37"/>
-    </row>
-    <row r="223" spans="1:13">
-      <c r="B223" s="1"/>
-      <c r="G223" s="11"/>
-      <c r="H223" s="37"/>
+      <c r="J222" s="46"/>
+    </row>
+    <row r="223" spans="1:14">
+      <c r="A223" s="30"/>
+      <c r="B223" s="31"/>
+      <c r="G223" s="32"/>
+      <c r="H223" s="33"/>
       <c r="I223" s="46"/>
-      <c r="J223" s="38"/>
-      <c r="M223" s="37"/>
-    </row>
-    <row r="224" spans="1:13">
-      <c r="B224" s="1"/>
-      <c r="G224" s="11"/>
-      <c r="H224" s="37"/>
-      <c r="I224" s="46"/>
-      <c r="J224" s="39"/>
-      <c r="M224" s="37"/>
-    </row>
-    <row r="225" spans="2:13">
+      <c r="J223" s="46"/>
+    </row>
+    <row r="224" spans="1:14">
+      <c r="A224" s="1"/>
+      <c r="B224" s="31"/>
+      <c r="G224" s="34"/>
+      <c r="H224" s="35"/>
+      <c r="I224" s="22"/>
+      <c r="J224" s="22"/>
+      <c r="K224" s="16"/>
+      <c r="N224" s="14"/>
+    </row>
+    <row r="225" spans="2:14">
       <c r="B225" s="1"/>
-      <c r="G225" s="11"/>
-      <c r="H225" s="37"/>
-      <c r="I225" s="46"/>
-      <c r="J225" s="39"/>
-      <c r="M225" s="37"/>
-    </row>
-    <row r="226" spans="2:13">
+      <c r="G225" s="34"/>
+      <c r="H225" s="35"/>
+      <c r="I225" s="22"/>
+      <c r="J225" s="22"/>
+      <c r="K225" s="22"/>
+      <c r="N225" s="14"/>
+    </row>
+    <row r="226" spans="2:14">
       <c r="B226" s="1"/>
-      <c r="G226" s="11"/>
-      <c r="H226" s="37"/>
-      <c r="I226" s="46"/>
-      <c r="J226" s="39"/>
-      <c r="M226" s="37"/>
-    </row>
-    <row r="227" spans="2:13">
+      <c r="G226" s="34"/>
+      <c r="H226" s="36"/>
+      <c r="I226" s="47"/>
+      <c r="J226" s="47"/>
+      <c r="K226" s="22"/>
+      <c r="N226" s="14"/>
+    </row>
+    <row r="227" spans="2:14">
       <c r="B227" s="1"/>
       <c r="G227" s="11"/>
       <c r="H227" s="37"/>
       <c r="I227" s="46"/>
-      <c r="J227" s="39"/>
-      <c r="M227" s="37"/>
+      <c r="J227" s="46"/>
+      <c r="K227" s="38"/>
+      <c r="N227" s="37"/>
+    </row>
+    <row r="228" spans="2:14">
+      <c r="B228" s="1"/>
+      <c r="G228" s="11"/>
+      <c r="H228" s="37"/>
+      <c r="I228" s="46"/>
+      <c r="J228" s="46"/>
+      <c r="K228" s="38"/>
+      <c r="N228" s="37"/>
+    </row>
+    <row r="229" spans="2:14">
+      <c r="B229" s="1"/>
+      <c r="G229" s="11"/>
+      <c r="H229" s="37"/>
+      <c r="I229" s="46"/>
+      <c r="J229" s="46"/>
+      <c r="K229" s="39"/>
+      <c r="N229" s="37"/>
+    </row>
+    <row r="230" spans="2:14">
+      <c r="B230" s="1"/>
+      <c r="G230" s="11"/>
+      <c r="H230" s="37"/>
+      <c r="I230" s="46"/>
+      <c r="J230" s="46"/>
+      <c r="K230" s="39"/>
+      <c r="N230" s="37"/>
+    </row>
+    <row r="231" spans="2:14">
+      <c r="B231" s="1"/>
+      <c r="G231" s="11"/>
+      <c r="H231" s="37"/>
+      <c r="I231" s="46"/>
+      <c r="J231" s="46"/>
+      <c r="K231" s="39"/>
+      <c r="N231" s="37"/>
+    </row>
+    <row r="232" spans="2:14">
+      <c r="B232" s="1"/>
+      <c r="G232" s="11"/>
+      <c r="H232" s="37"/>
+      <c r="I232" s="46"/>
+      <c r="J232" s="46"/>
+      <c r="K232" s="39"/>
+      <c r="N232" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Гербарии/Actaeae DNA  samples by AE (04.12.2023).xlsx
+++ b/Гербарии/Actaeae DNA  samples by AE (04.12.2023).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Eranthis\Гербарии\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A4B8ED-B699-457A-9F9D-D0EB647BB9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD513EC-E10E-40A4-8E3F-09005BE0EED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1764,8 +1764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CG232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2322,7 +2322,9 @@
       <c r="I9" s="22">
         <v>5</v>
       </c>
-      <c r="J9" s="22"/>
+      <c r="J9" s="22">
+        <v>28</v>
+      </c>
       <c r="K9" s="12" t="s">
         <v>68</v>
       </c>
@@ -2352,34 +2354,35 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22">
+      <c r="G10" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" s="42">
         <v>19</v>
       </c>
-      <c r="K10" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="L10" s="19">
-        <v>45142</v>
-      </c>
-      <c r="M10" s="22">
-        <v>502</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P10" s="12" t="s">
-        <v>140</v>
-      </c>
+      <c r="J10" s="42"/>
+      <c r="K10" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="L10" s="28">
+        <v>45173</v>
+      </c>
+      <c r="M10" s="42">
+        <v>463</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="P10" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
@@ -2449,12 +2452,6 @@
       <c r="CG10" s="2"/>
     </row>
     <row r="11" spans="1:85" s="1" customFormat="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
       <c r="G11" s="26" t="s">
         <v>150</v>
       </c>
@@ -2462,26 +2459,26 @@
         <v>104</v>
       </c>
       <c r="I11" s="42">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="J11" s="42"/>
       <c r="K11" s="27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L11" s="28">
-        <v>45173</v>
+        <v>45168</v>
       </c>
       <c r="M11" s="42">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O11" s="29" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P11" s="27" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
@@ -2560,26 +2557,26 @@
         <v>104</v>
       </c>
       <c r="I12" s="42">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="J12" s="42"/>
       <c r="K12" s="27" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="L12" s="28">
-        <v>45168</v>
+        <v>45134</v>
       </c>
       <c r="M12" s="42">
-        <v>489</v>
+        <v>463</v>
       </c>
       <c r="N12" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O12" s="29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P12" s="27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
@@ -2651,35 +2648,40 @@
       <c r="CG12" s="2"/>
     </row>
     <row r="13" spans="1:85" s="1" customFormat="1">
-      <c r="G13" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="I13" s="42">
-        <v>14</v>
-      </c>
-      <c r="J13" s="42"/>
-      <c r="K13" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="L13" s="28">
-        <v>45134</v>
-      </c>
-      <c r="M13" s="42">
-        <v>463</v>
-      </c>
-      <c r="N13" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="O13" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="P13" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="R13" s="3"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22">
+        <v>19</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="19">
+        <v>45142</v>
+      </c>
+      <c r="M13" s="22">
+        <v>502</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>140</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
@@ -3315,7 +3317,9 @@
         <v>81</v>
       </c>
       <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
+      <c r="J21" s="22">
+        <v>24</v>
+      </c>
       <c r="K21" s="16" t="s">
         <v>90</v>
       </c>
@@ -3411,7 +3415,9 @@
       <c r="I24" s="22">
         <v>23</v>
       </c>
-      <c r="J24" s="22"/>
+      <c r="J24" s="22">
+        <v>11</v>
+      </c>
       <c r="K24" s="16" t="s">
         <v>182</v>
       </c>
@@ -3464,28 +3470,30 @@
         <v>151</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="I26" s="22">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J26" s="22"/>
       <c r="K26" s="16" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="L26" s="19">
-        <v>45122</v>
+        <v>44408</v>
       </c>
       <c r="M26" s="22">
-        <v>461</v>
+        <v>103</v>
       </c>
       <c r="N26" s="13" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="O26" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="P26" s="16"/>
+        <v>229</v>
+      </c>
+      <c r="P26" s="16" t="s">
+        <v>231</v>
+      </c>
       <c r="Q26" s="13"/>
     </row>
     <row r="27" spans="1:85">
@@ -3499,20 +3507,20 @@
         <v>6</v>
       </c>
       <c r="J27" s="22"/>
-      <c r="K27" s="12" t="s">
-        <v>221</v>
+      <c r="K27" s="16" t="s">
+        <v>220</v>
       </c>
       <c r="L27" s="19">
-        <v>45121</v>
+        <v>45122</v>
       </c>
       <c r="M27" s="22">
-        <v>534</v>
+        <v>461</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="O27" s="13" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P27" s="16"/>
       <c r="Q27" s="13"/>
@@ -3522,30 +3530,28 @@
         <v>151</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="I28" s="22">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J28" s="22"/>
-      <c r="K28" s="16" t="s">
-        <v>230</v>
+      <c r="K28" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="L28" s="19">
-        <v>44408</v>
+        <v>45121</v>
       </c>
       <c r="M28" s="22">
-        <v>103</v>
+        <v>534</v>
       </c>
       <c r="N28" s="13" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="O28" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="P28" s="16" t="s">
-        <v>231</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="P28" s="16"/>
       <c r="Q28" s="13"/>
     </row>
     <row r="29" spans="1:85">
@@ -3626,7 +3632,9 @@
       <c r="I31" s="22">
         <v>12</v>
       </c>
-      <c r="J31" s="22"/>
+      <c r="J31" s="22">
+        <v>16</v>
+      </c>
       <c r="K31" s="12" t="s">
         <v>93</v>
       </c>

--- a/Гербарии/Actaeae DNA  samples by AE (04.12.2023).xlsx
+++ b/Гербарии/Actaeae DNA  samples by AE (04.12.2023).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Eranthis\Гербарии\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD513EC-E10E-40A4-8E3F-09005BE0EED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA22998-226B-4C8E-8761-ACA5060CB699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="245">
   <si>
     <t>Species</t>
   </si>
@@ -1176,6 +1176,27 @@
   </si>
   <si>
     <t>1400-1500</t>
+  </si>
+  <si>
+    <t>Russia, Republic of Khakassia, Tashtyp district, district of the village of Tashtyp</t>
+  </si>
+  <si>
+    <t>52°48'02.2''N, 89°51'44.6''E</t>
+  </si>
+  <si>
+    <t>birch forest</t>
+  </si>
+  <si>
+    <t>HAK2023-5</t>
+  </si>
+  <si>
+    <t>HAK2023-6</t>
+  </si>
+  <si>
+    <t>Russia, Republic of Khakassia, Bogradsky district, district of the village of Bograd</t>
+  </si>
+  <si>
+    <t>54°14'28.4''N, 90°46'26.1''E</t>
   </si>
 </sst>
 </file>
@@ -1762,10 +1783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CG232"/>
+  <dimension ref="A1:CG234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="G22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1916,7 +1937,9 @@
       <c r="I2" s="22">
         <v>3</v>
       </c>
-      <c r="J2" s="22"/>
+      <c r="J2" s="22">
+        <v>5</v>
+      </c>
       <c r="K2" s="16" t="s">
         <v>59</v>
       </c>
@@ -2237,7 +2260,9 @@
         <v>63</v>
       </c>
       <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
+      <c r="J6" s="22">
+        <v>2</v>
+      </c>
       <c r="K6" s="16" t="s">
         <v>64</v>
       </c>
@@ -2265,7 +2290,9 @@
         <v>63</v>
       </c>
       <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="J7" s="22">
+        <v>2</v>
+      </c>
       <c r="K7" s="16" t="s">
         <v>66</v>
       </c>
@@ -2293,7 +2320,9 @@
         <v>63</v>
       </c>
       <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
+      <c r="J8" s="22">
+        <v>2</v>
+      </c>
       <c r="K8" s="16" t="s">
         <v>67</v>
       </c>
@@ -2760,7 +2789,9 @@
       <c r="I14" s="42">
         <v>24</v>
       </c>
-      <c r="J14" s="42"/>
+      <c r="J14" s="42">
+        <v>10</v>
+      </c>
       <c r="K14" s="12" t="s">
         <v>208</v>
       </c>
@@ -2849,35 +2880,35 @@
       <c r="CG14" s="2"/>
     </row>
     <row r="15" spans="1:85" s="1" customFormat="1">
-      <c r="G15" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="22">
-        <v>2</v>
-      </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="L15" s="19">
-        <v>45093</v>
-      </c>
-      <c r="M15" s="22">
-        <v>59</v>
+      <c r="G15" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42">
+        <v>5</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="L15" s="28">
+        <v>45127</v>
+      </c>
+      <c r="M15" s="42">
+        <v>535</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="P15" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q15" s="16"/>
+        <v>238</v>
+      </c>
+      <c r="O15" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
@@ -2947,35 +2978,35 @@
       <c r="CG15" s="2"/>
     </row>
     <row r="16" spans="1:85" s="1" customFormat="1">
-      <c r="G16" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I16" s="22">
-        <v>6</v>
-      </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="L16" s="19">
-        <v>45095</v>
-      </c>
-      <c r="M16" s="22">
-        <v>109</v>
+      <c r="G16" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42">
+        <v>7</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="L16" s="28">
+        <v>45157</v>
+      </c>
+      <c r="M16" s="42">
+        <v>544</v>
       </c>
       <c r="N16" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P16" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q16" s="16"/>
+        <v>243</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -3044,72 +3075,138 @@
       <c r="CF16" s="2"/>
       <c r="CG16" s="2"/>
     </row>
-    <row r="17" spans="1:85" s="13" customFormat="1">
+    <row r="17" spans="1:85" s="1" customFormat="1">
       <c r="G17" s="13" t="s">
         <v>133</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="I17" s="22">
-        <v>3</v>
-      </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="L17" s="25">
-        <v>45119</v>
-      </c>
-      <c r="M17" s="45">
-        <v>2782</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="J17" s="22">
+        <v>7</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="L17" s="19">
+        <v>45093</v>
+      </c>
+      <c r="M17" s="22">
+        <v>59</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P17" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q17" s="16"/>
       <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="2"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="2"/>
+      <c r="AU17" s="2"/>
+      <c r="AV17" s="2"/>
+      <c r="AW17" s="2"/>
+      <c r="AX17" s="2"/>
+      <c r="AY17" s="2"/>
+      <c r="AZ17" s="2"/>
+      <c r="BA17" s="2"/>
+      <c r="BB17" s="2"/>
+      <c r="BC17" s="2"/>
+      <c r="BD17" s="2"/>
+      <c r="BE17" s="2"/>
+      <c r="BF17" s="2"/>
+      <c r="BG17" s="2"/>
+      <c r="BH17" s="2"/>
+      <c r="BI17" s="2"/>
+      <c r="BJ17" s="2"/>
+      <c r="BK17" s="2"/>
+      <c r="BL17" s="2"/>
+      <c r="BM17" s="2"/>
+      <c r="BN17" s="2"/>
+      <c r="BO17" s="2"/>
+      <c r="BP17" s="2"/>
+      <c r="BQ17" s="2"/>
+      <c r="BR17" s="2"/>
+      <c r="BS17" s="2"/>
+      <c r="BT17" s="2"/>
+      <c r="BU17" s="2"/>
+      <c r="BV17" s="2"/>
+      <c r="BW17" s="2"/>
+      <c r="BX17" s="2"/>
+      <c r="BY17" s="2"/>
+      <c r="BZ17" s="2"/>
+      <c r="CA17" s="2"/>
+      <c r="CB17" s="2"/>
+      <c r="CC17" s="2"/>
+      <c r="CD17" s="2"/>
+      <c r="CE17" s="2"/>
+      <c r="CF17" s="2"/>
+      <c r="CG17" s="2"/>
     </row>
     <row r="18" spans="1:85" s="1" customFormat="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
       <c r="G18" s="13" t="s">
         <v>133</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="I18" s="22">
-        <v>4</v>
-      </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="L18" s="25">
-        <v>45121</v>
-      </c>
-      <c r="M18" s="45">
-        <v>2199</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="J18" s="22">
+        <v>8</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" s="19">
+        <v>45095</v>
+      </c>
+      <c r="M18" s="22">
+        <v>109</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P18" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q18" s="16"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -3178,351 +3275,431 @@
       <c r="CF18" s="2"/>
       <c r="CG18" s="2"/>
     </row>
-    <row r="19" spans="1:85" s="1" customFormat="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+    <row r="19" spans="1:85" s="13" customFormat="1">
       <c r="G19" s="13" t="s">
         <v>133</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I19" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19" s="22"/>
       <c r="K19" s="24" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="L19" s="25">
-        <v>45188</v>
-      </c>
-      <c r="M19" s="22"/>
+        <v>45119</v>
+      </c>
+      <c r="M19" s="45">
+        <v>2782</v>
+      </c>
       <c r="N19" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="O19" s="3"/>
-      <c r="P19" s="10"/>
+        <v>157</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="16"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="2"/>
-      <c r="AD19" s="2"/>
-      <c r="AE19" s="2"/>
-      <c r="AF19" s="2"/>
-      <c r="AG19" s="2"/>
-      <c r="AH19" s="2"/>
-      <c r="AI19" s="2"/>
-      <c r="AJ19" s="2"/>
-      <c r="AK19" s="2"/>
-      <c r="AL19" s="2"/>
-      <c r="AM19" s="2"/>
-      <c r="AN19" s="2"/>
-      <c r="AO19" s="2"/>
-      <c r="AP19" s="2"/>
-      <c r="AQ19" s="2"/>
-      <c r="AR19" s="2"/>
-      <c r="AS19" s="2"/>
-      <c r="AT19" s="2"/>
-      <c r="AU19" s="2"/>
-      <c r="AV19" s="2"/>
-      <c r="AW19" s="2"/>
-      <c r="AX19" s="2"/>
-      <c r="AY19" s="2"/>
-      <c r="AZ19" s="2"/>
-      <c r="BA19" s="2"/>
-      <c r="BB19" s="2"/>
-      <c r="BC19" s="2"/>
-      <c r="BD19" s="2"/>
-      <c r="BE19" s="2"/>
-      <c r="BF19" s="2"/>
-      <c r="BG19" s="2"/>
-      <c r="BH19" s="2"/>
-      <c r="BI19" s="2"/>
-      <c r="BJ19" s="2"/>
-      <c r="BK19" s="2"/>
-      <c r="BL19" s="2"/>
-      <c r="BM19" s="2"/>
-      <c r="BN19" s="2"/>
-      <c r="BO19" s="2"/>
-      <c r="BP19" s="2"/>
-      <c r="BQ19" s="2"/>
-      <c r="BR19" s="2"/>
-      <c r="BS19" s="2"/>
-      <c r="BT19" s="2"/>
-      <c r="BU19" s="2"/>
-      <c r="BV19" s="2"/>
-      <c r="BW19" s="2"/>
-      <c r="BX19" s="2"/>
-      <c r="BY19" s="2"/>
-      <c r="BZ19" s="2"/>
-      <c r="CA19" s="2"/>
-      <c r="CB19" s="2"/>
-      <c r="CC19" s="2"/>
-      <c r="CD19" s="2"/>
-      <c r="CE19" s="2"/>
-      <c r="CF19" s="2"/>
-      <c r="CG19" s="2"/>
-    </row>
-    <row r="20" spans="1:85" ht="15" customHeight="1">
-      <c r="G20" s="26" t="s">
-        <v>151</v>
+    </row>
+    <row r="20" spans="1:85" s="1" customFormat="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="I20" s="22">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J20" s="22"/>
-      <c r="K20" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="L20" s="19">
-        <v>45109</v>
-      </c>
-      <c r="M20" s="22">
-        <v>150</v>
-      </c>
-      <c r="N20" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P20" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="1"/>
-    </row>
-    <row r="21" spans="1:85" ht="15" customHeight="1">
-      <c r="G21" s="26" t="s">
-        <v>151</v>
+      <c r="K20" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="L20" s="25">
+        <v>45121</v>
+      </c>
+      <c r="M20" s="45">
+        <v>2199</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
+      <c r="AY20" s="2"/>
+      <c r="AZ20" s="2"/>
+      <c r="BA20" s="2"/>
+      <c r="BB20" s="2"/>
+      <c r="BC20" s="2"/>
+      <c r="BD20" s="2"/>
+      <c r="BE20" s="2"/>
+      <c r="BF20" s="2"/>
+      <c r="BG20" s="2"/>
+      <c r="BH20" s="2"/>
+      <c r="BI20" s="2"/>
+      <c r="BJ20" s="2"/>
+      <c r="BK20" s="2"/>
+      <c r="BL20" s="2"/>
+      <c r="BM20" s="2"/>
+      <c r="BN20" s="2"/>
+      <c r="BO20" s="2"/>
+      <c r="BP20" s="2"/>
+      <c r="BQ20" s="2"/>
+      <c r="BR20" s="2"/>
+      <c r="BS20" s="2"/>
+      <c r="BT20" s="2"/>
+      <c r="BU20" s="2"/>
+      <c r="BV20" s="2"/>
+      <c r="BW20" s="2"/>
+      <c r="BX20" s="2"/>
+      <c r="BY20" s="2"/>
+      <c r="BZ20" s="2"/>
+      <c r="CA20" s="2"/>
+      <c r="CB20" s="2"/>
+      <c r="CC20" s="2"/>
+      <c r="CD20" s="2"/>
+      <c r="CE20" s="2"/>
+      <c r="CF20" s="2"/>
+      <c r="CG20" s="2"/>
+    </row>
+    <row r="21" spans="1:85" s="1" customFormat="1">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22">
-        <v>24</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="L21" s="19">
-        <v>45160</v>
-      </c>
-      <c r="M21" s="22">
-        <v>352</v>
-      </c>
-      <c r="N21" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="O21" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="P21" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="13"/>
-    </row>
-    <row r="22" spans="1:85" s="13" customFormat="1" ht="15" customHeight="1">
+        <v>137</v>
+      </c>
+      <c r="I21" s="22">
+        <v>2</v>
+      </c>
+      <c r="J21" s="22"/>
+      <c r="K21" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="L21" s="25">
+        <v>45188</v>
+      </c>
+      <c r="M21" s="22"/>
+      <c r="N21" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="O21" s="3"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="2"/>
+      <c r="AY21" s="2"/>
+      <c r="AZ21" s="2"/>
+      <c r="BA21" s="2"/>
+      <c r="BB21" s="2"/>
+      <c r="BC21" s="2"/>
+      <c r="BD21" s="2"/>
+      <c r="BE21" s="2"/>
+      <c r="BF21" s="2"/>
+      <c r="BG21" s="2"/>
+      <c r="BH21" s="2"/>
+      <c r="BI21" s="2"/>
+      <c r="BJ21" s="2"/>
+      <c r="BK21" s="2"/>
+      <c r="BL21" s="2"/>
+      <c r="BM21" s="2"/>
+      <c r="BN21" s="2"/>
+      <c r="BO21" s="2"/>
+      <c r="BP21" s="2"/>
+      <c r="BQ21" s="2"/>
+      <c r="BR21" s="2"/>
+      <c r="BS21" s="2"/>
+      <c r="BT21" s="2"/>
+      <c r="BU21" s="2"/>
+      <c r="BV21" s="2"/>
+      <c r="BW21" s="2"/>
+      <c r="BX21" s="2"/>
+      <c r="BY21" s="2"/>
+      <c r="BZ21" s="2"/>
+      <c r="CA21" s="2"/>
+      <c r="CB21" s="2"/>
+      <c r="CC21" s="2"/>
+      <c r="CD21" s="2"/>
+      <c r="CE21" s="2"/>
+      <c r="CF21" s="2"/>
+      <c r="CG21" s="2"/>
+    </row>
+    <row r="22" spans="1:85" ht="15" customHeight="1">
       <c r="G22" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="H22" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="I22" s="42">
-        <v>19</v>
-      </c>
-      <c r="J22" s="42"/>
-      <c r="K22" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="L22" s="28">
-        <v>45168</v>
-      </c>
-      <c r="M22" s="42">
-        <v>552</v>
+      <c r="H22" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="22">
+        <v>12</v>
+      </c>
+      <c r="J22" s="22">
+        <v>9</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" s="19">
+        <v>45109</v>
+      </c>
+      <c r="M22" s="22">
+        <v>150</v>
       </c>
       <c r="N22" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="O22" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="P22" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="3"/>
-    </row>
-    <row r="23" spans="1:85" s="13" customFormat="1" ht="15" customHeight="1">
+        <v>170</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="1:85" ht="15" customHeight="1">
       <c r="G23" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="H23" s="26" t="s">
+      <c r="H23" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22">
+        <v>24</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="L23" s="19">
+        <v>45160</v>
+      </c>
+      <c r="M23" s="22">
+        <v>352</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="O23" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="P23" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="13"/>
+    </row>
+    <row r="24" spans="1:85" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="G24" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="H24" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="I23" s="42">
+      <c r="I24" s="42">
+        <v>19</v>
+      </c>
+      <c r="J24" s="42"/>
+      <c r="K24" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L24" s="28">
+        <v>45168</v>
+      </c>
+      <c r="M24" s="42">
+        <v>552</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="O24" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="P24" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="3"/>
+    </row>
+    <row r="25" spans="1:85" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="G25" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="I25" s="42">
         <v>11</v>
       </c>
-      <c r="J23" s="42"/>
-      <c r="K23" s="27" t="s">
+      <c r="J25" s="42">
+        <v>4</v>
+      </c>
+      <c r="K25" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="L23" s="28">
+      <c r="L25" s="28">
         <v>45168</v>
       </c>
-      <c r="M23" s="42">
+      <c r="M25" s="42">
         <v>492</v>
       </c>
-      <c r="N23" s="13" t="s">
+      <c r="N25" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="O23" s="29" t="s">
+      <c r="O25" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="P23" s="27" t="s">
+      <c r="P25" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="3"/>
-    </row>
-    <row r="24" spans="1:85" s="13" customFormat="1">
-      <c r="G24" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="I24" s="22">
-        <v>23</v>
-      </c>
-      <c r="J24" s="22">
-        <v>11</v>
-      </c>
-      <c r="K24" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="L24" s="19">
-        <v>45173</v>
-      </c>
-      <c r="M24" s="22"/>
-      <c r="N24" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="O24" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="P24" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="R24" s="3"/>
-    </row>
-    <row r="25" spans="1:85">
-      <c r="G25" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="I25" s="22">
-        <v>17</v>
-      </c>
-      <c r="J25" s="22"/>
-      <c r="K25" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="L25" s="19">
-        <v>45173</v>
-      </c>
-      <c r="M25" s="22"/>
-      <c r="N25" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="O25" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="P25" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" spans="1:85">
+      <c r="Q25" s="1"/>
+      <c r="R25" s="3"/>
+    </row>
+    <row r="26" spans="1:85" s="13" customFormat="1">
       <c r="G26" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="H26" s="26" t="s">
-        <v>227</v>
+      <c r="H26" s="13" t="s">
+        <v>120</v>
       </c>
       <c r="I26" s="22">
-        <v>1</v>
-      </c>
-      <c r="J26" s="22"/>
+        <v>23</v>
+      </c>
+      <c r="J26" s="22">
+        <v>11</v>
+      </c>
       <c r="K26" s="16" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="L26" s="19">
-        <v>44408</v>
-      </c>
-      <c r="M26" s="22">
-        <v>103</v>
-      </c>
+        <v>45173</v>
+      </c>
+      <c r="M26" s="22"/>
       <c r="N26" s="13" t="s">
-        <v>228</v>
+        <v>121</v>
       </c>
       <c r="O26" s="13" t="s">
-        <v>229</v>
+        <v>122</v>
       </c>
       <c r="P26" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q26" s="13"/>
+        <v>123</v>
+      </c>
+      <c r="R26" s="3"/>
     </row>
     <row r="27" spans="1:85">
       <c r="G27" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="H27" s="26" t="s">
-        <v>207</v>
+      <c r="H27" s="13" t="s">
+        <v>120</v>
       </c>
       <c r="I27" s="22">
-        <v>6</v>
-      </c>
-      <c r="J27" s="22"/>
+        <v>17</v>
+      </c>
+      <c r="J27" s="22">
+        <v>11</v>
+      </c>
       <c r="K27" s="16" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="L27" s="19">
-        <v>45122</v>
-      </c>
-      <c r="M27" s="22">
-        <v>461</v>
-      </c>
+        <v>45173</v>
+      </c>
+      <c r="M27" s="22"/>
       <c r="N27" s="13" t="s">
-        <v>218</v>
+        <v>124</v>
       </c>
       <c r="O27" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="P27" s="16"/>
+        <v>125</v>
+      </c>
+      <c r="P27" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="Q27" s="13"/>
     </row>
     <row r="28" spans="1:85">
@@ -3530,293 +3707,293 @@
         <v>151</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="I28" s="22">
+        <v>1</v>
+      </c>
+      <c r="J28" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J28" s="22"/>
-      <c r="K28" s="12" t="s">
-        <v>221</v>
+      <c r="K28" s="16" t="s">
+        <v>230</v>
       </c>
       <c r="L28" s="19">
-        <v>45121</v>
+        <v>44408</v>
       </c>
       <c r="M28" s="22">
-        <v>534</v>
+        <v>103</v>
       </c>
       <c r="N28" s="13" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="O28" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="P28" s="16"/>
+        <v>229</v>
+      </c>
+      <c r="P28" s="16" t="s">
+        <v>231</v>
+      </c>
       <c r="Q28" s="13"/>
     </row>
     <row r="29" spans="1:85">
       <c r="G29" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="12" t="s">
-        <v>80</v>
+        <v>151</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="I29" s="22">
+        <v>6</v>
+      </c>
+      <c r="J29" s="22">
+        <v>7</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>220</v>
       </c>
       <c r="L29" s="19">
-        <v>45120</v>
+        <v>45122</v>
       </c>
       <c r="M29" s="22">
-        <v>228</v>
-      </c>
-      <c r="N29" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="P29" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="13"/>
+        <v>461</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="O29" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="13"/>
     </row>
     <row r="30" spans="1:85">
       <c r="G30" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>81</v>
+        <v>151</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>207</v>
       </c>
       <c r="I30" s="22">
-        <v>10</v>
-      </c>
-      <c r="J30" s="22"/>
-      <c r="K30" s="16" t="s">
-        <v>92</v>
+        <v>6</v>
+      </c>
+      <c r="J30" s="22">
+        <v>5</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="L30" s="19">
-        <v>45124</v>
+        <v>45121</v>
       </c>
       <c r="M30" s="22">
-        <v>242</v>
+        <v>534</v>
       </c>
       <c r="N30" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="O30" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="P30" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="13"/>
-    </row>
-    <row r="31" spans="1:85" s="1" customFormat="1">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+        <v>222</v>
+      </c>
+      <c r="O30" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" spans="1:85">
       <c r="G31" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="H31" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="I31" s="22">
-        <v>12</v>
-      </c>
-      <c r="J31" s="22">
-        <v>16</v>
-      </c>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
       <c r="K31" s="12" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="L31" s="19">
-        <v>45160</v>
+        <v>45120</v>
       </c>
       <c r="M31" s="22">
-        <v>373</v>
-      </c>
-      <c r="N31" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="O31" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="P31" s="42" t="s">
-        <v>176</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="N31" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P31" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q31" s="1"/>
       <c r="R31" s="13"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="2"/>
-      <c r="AC31" s="2"/>
-      <c r="AD31" s="2"/>
-      <c r="AE31" s="2"/>
-      <c r="AF31" s="2"/>
-      <c r="AG31" s="2"/>
-      <c r="AH31" s="2"/>
-      <c r="AI31" s="2"/>
-      <c r="AJ31" s="2"/>
-      <c r="AK31" s="2"/>
-      <c r="AL31" s="2"/>
-      <c r="AM31" s="2"/>
-      <c r="AN31" s="2"/>
-      <c r="AO31" s="2"/>
-      <c r="AP31" s="2"/>
-      <c r="AQ31" s="2"/>
-      <c r="AR31" s="2"/>
-      <c r="AS31" s="2"/>
-      <c r="AT31" s="2"/>
-      <c r="AU31" s="2"/>
-      <c r="AV31" s="2"/>
-      <c r="AW31" s="2"/>
-      <c r="AX31" s="2"/>
-      <c r="AY31" s="2"/>
-      <c r="AZ31" s="2"/>
-      <c r="BA31" s="2"/>
-      <c r="BB31" s="2"/>
-      <c r="BC31" s="2"/>
-      <c r="BD31" s="2"/>
-      <c r="BE31" s="2"/>
-      <c r="BF31" s="2"/>
-      <c r="BG31" s="2"/>
-      <c r="BH31" s="2"/>
-      <c r="BI31" s="2"/>
-      <c r="BJ31" s="2"/>
-      <c r="BK31" s="2"/>
-      <c r="BL31" s="2"/>
-      <c r="BM31" s="2"/>
-      <c r="BN31" s="2"/>
-      <c r="BO31" s="2"/>
-      <c r="BP31" s="2"/>
-      <c r="BQ31" s="2"/>
-      <c r="BR31" s="2"/>
-      <c r="BS31" s="2"/>
-      <c r="BT31" s="2"/>
-      <c r="BU31" s="2"/>
-      <c r="BV31" s="2"/>
-      <c r="BW31" s="2"/>
-      <c r="BX31" s="2"/>
-      <c r="BY31" s="2"/>
-      <c r="BZ31" s="2"/>
-      <c r="CA31" s="2"/>
-      <c r="CB31" s="2"/>
-      <c r="CC31" s="2"/>
-      <c r="CD31" s="2"/>
-      <c r="CE31" s="2"/>
-      <c r="CF31" s="2"/>
-      <c r="CG31" s="2"/>
-    </row>
-    <row r="32" spans="1:85" s="1" customFormat="1">
-      <c r="A32" s="17"/>
+    </row>
+    <row r="32" spans="1:85">
       <c r="G32" s="13" t="s">
         <v>152</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="I32" s="22">
-        <v>15</v>
-      </c>
-      <c r="J32" s="22"/>
+        <v>10</v>
+      </c>
+      <c r="J32" s="22">
+        <v>16</v>
+      </c>
       <c r="K32" s="16" t="s">
-        <v>192</v>
+        <v>92</v>
       </c>
       <c r="L32" s="19">
-        <v>45189</v>
-      </c>
-      <c r="M32" s="22"/>
+        <v>45124</v>
+      </c>
+      <c r="M32" s="22">
+        <v>242</v>
+      </c>
       <c r="N32" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="O32" s="13" t="s">
-        <v>127</v>
+        <v>173</v>
+      </c>
+      <c r="O32" s="17" t="s">
+        <v>155</v>
       </c>
       <c r="P32" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
+        <v>177</v>
+      </c>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="13"/>
     </row>
     <row r="33" spans="1:85" s="1" customFormat="1">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
       <c r="G33" s="13" t="s">
         <v>152</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="I33" s="22">
-        <v>23</v>
-      </c>
-      <c r="J33" s="22"/>
-      <c r="K33" s="16" t="s">
-        <v>183</v>
+        <v>12</v>
+      </c>
+      <c r="J33" s="22">
+        <v>16</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="L33" s="19">
-        <v>45183</v>
-      </c>
-      <c r="M33" s="22"/>
+        <v>45160</v>
+      </c>
+      <c r="M33" s="22">
+        <v>373</v>
+      </c>
       <c r="N33" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="O33" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="P33" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="3"/>
+        <v>171</v>
+      </c>
+      <c r="O33" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="P33" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="R33" s="13"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="2"/>
+      <c r="AM33" s="2"/>
+      <c r="AN33" s="2"/>
+      <c r="AO33" s="2"/>
+      <c r="AP33" s="2"/>
+      <c r="AQ33" s="2"/>
+      <c r="AR33" s="2"/>
+      <c r="AS33" s="2"/>
+      <c r="AT33" s="2"/>
+      <c r="AU33" s="2"/>
+      <c r="AV33" s="2"/>
+      <c r="AW33" s="2"/>
+      <c r="AX33" s="2"/>
+      <c r="AY33" s="2"/>
+      <c r="AZ33" s="2"/>
+      <c r="BA33" s="2"/>
+      <c r="BB33" s="2"/>
+      <c r="BC33" s="2"/>
+      <c r="BD33" s="2"/>
+      <c r="BE33" s="2"/>
+      <c r="BF33" s="2"/>
+      <c r="BG33" s="2"/>
+      <c r="BH33" s="2"/>
+      <c r="BI33" s="2"/>
+      <c r="BJ33" s="2"/>
+      <c r="BK33" s="2"/>
+      <c r="BL33" s="2"/>
+      <c r="BM33" s="2"/>
+      <c r="BN33" s="2"/>
+      <c r="BO33" s="2"/>
+      <c r="BP33" s="2"/>
+      <c r="BQ33" s="2"/>
+      <c r="BR33" s="2"/>
+      <c r="BS33" s="2"/>
+      <c r="BT33" s="2"/>
+      <c r="BU33" s="2"/>
+      <c r="BV33" s="2"/>
+      <c r="BW33" s="2"/>
+      <c r="BX33" s="2"/>
+      <c r="BY33" s="2"/>
+      <c r="BZ33" s="2"/>
+      <c r="CA33" s="2"/>
+      <c r="CB33" s="2"/>
+      <c r="CC33" s="2"/>
+      <c r="CD33" s="2"/>
+      <c r="CE33" s="2"/>
+      <c r="CF33" s="2"/>
+      <c r="CG33" s="2"/>
     </row>
     <row r="34" spans="1:85" s="1" customFormat="1">
+      <c r="A34" s="17"/>
       <c r="G34" s="13" t="s">
         <v>152</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="I34" s="22">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J34" s="22"/>
       <c r="K34" s="16" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L34" s="19">
-        <v>45175</v>
-      </c>
-      <c r="M34" s="22">
-        <v>106</v>
-      </c>
+        <v>45189</v>
+      </c>
+      <c r="M34" s="22"/>
       <c r="N34" s="13" t="s">
-        <v>205</v>
+        <v>126</v>
       </c>
       <c r="O34" s="13" t="s">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="P34" s="16" t="s">
-        <v>203</v>
+        <v>128</v>
       </c>
       <c r="Q34" s="13"/>
       <c r="R34" s="3"/>
@@ -3829,29 +4006,27 @@
         <v>152</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="I35" s="22">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="J35" s="22"/>
       <c r="K35" s="16" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="L35" s="19">
-        <v>45174</v>
-      </c>
-      <c r="M35" s="22">
-        <v>131</v>
-      </c>
+        <v>45183</v>
+      </c>
+      <c r="M35" s="22"/>
       <c r="N35" s="13" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="O35" s="13" t="s">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="P35" s="16" t="s">
-        <v>203</v>
+        <v>130</v>
       </c>
       <c r="Q35" s="13"/>
       <c r="R35" s="3"/>
@@ -3864,29 +4039,31 @@
         <v>152</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="I36" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J36" s="22"/>
-      <c r="K36" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="L36" s="25">
-        <v>45119</v>
-      </c>
-      <c r="M36" s="45">
-        <v>2177</v>
-      </c>
-      <c r="N36" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="O36" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="3"/>
+      <c r="K36" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="L36" s="19">
+        <v>45175</v>
+      </c>
+      <c r="M36" s="22">
+        <v>106</v>
+      </c>
+      <c r="N36" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="O36" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="P36" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q36" s="13"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
@@ -3899,29 +4076,29 @@
       <c r="H37" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I37" s="22" t="s">
-        <v>200</v>
+      <c r="I37" s="22">
+        <v>2</v>
       </c>
       <c r="J37" s="22"/>
       <c r="K37" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="L37" s="25">
-        <v>45193</v>
-      </c>
-      <c r="M37" s="45">
-        <v>74</v>
-      </c>
-      <c r="N37" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
+      </c>
+      <c r="L37" s="19">
+        <v>45174</v>
+      </c>
+      <c r="M37" s="22">
+        <v>131</v>
+      </c>
+      <c r="N37" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="O37" s="13" t="s">
+        <v>202</v>
       </c>
       <c r="P37" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q37" s="3"/>
+        <v>203</v>
+      </c>
+      <c r="Q37" s="13"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
@@ -3929,130 +4106,138 @@
     </row>
     <row r="38" spans="1:85" s="1" customFormat="1">
       <c r="G38" s="13" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="I38" s="22">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J38" s="22"/>
-      <c r="K38" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="L38" s="19">
-        <v>45133</v>
-      </c>
-      <c r="M38" s="22"/>
-      <c r="N38" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="O38" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="P38" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q38" s="13"/>
+      <c r="K38" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="L38" s="25">
+        <v>45119</v>
+      </c>
+      <c r="M38" s="45">
+        <v>2177</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
     </row>
-    <row r="39" spans="1:85" s="13" customFormat="1">
-      <c r="G39" s="14" t="s">
+    <row r="39" spans="1:85" s="1" customFormat="1">
+      <c r="G39" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="J39" s="22"/>
+      <c r="K39" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="L39" s="25">
+        <v>45193</v>
+      </c>
+      <c r="M39" s="45">
+        <v>74</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="P39" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="1:85" s="1" customFormat="1">
+      <c r="G40" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="H39" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="I39" s="22">
-        <v>10</v>
-      </c>
-      <c r="J39" s="22"/>
-      <c r="K39" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="L39" s="19">
-        <v>45142</v>
-      </c>
-      <c r="M39" s="22">
-        <v>266</v>
-      </c>
-      <c r="N39" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P39" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-    </row>
-    <row r="40" spans="1:85">
-      <c r="G40" s="14" t="s">
-        <v>84</v>
-      </c>
       <c r="H40" s="13" t="s">
-        <v>217</v>
+        <v>97</v>
       </c>
       <c r="I40" s="22">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J40" s="22"/>
-      <c r="K40" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="L40" s="28">
-        <v>45137</v>
+      <c r="K40" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="L40" s="19">
+        <v>45133</v>
       </c>
       <c r="M40" s="22"/>
-      <c r="N40" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="O40" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="P40" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-    </row>
-    <row r="41" spans="1:85">
+      <c r="N40" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="O40" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="P40" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="1:85" s="13" customFormat="1">
       <c r="G41" s="14" t="s">
         <v>84</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="I41" s="22">
-        <v>7</v>
-      </c>
-      <c r="J41" s="22"/>
+        <v>10</v>
+      </c>
+      <c r="J41" s="22">
+        <v>19</v>
+      </c>
       <c r="K41" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="L41" s="28">
-        <v>45136</v>
-      </c>
-      <c r="M41" s="42">
-        <v>70</v>
+        <v>75</v>
+      </c>
+      <c r="L41" s="19">
+        <v>45142</v>
+      </c>
+      <c r="M41" s="22">
+        <v>266</v>
       </c>
       <c r="N41" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="O41" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="P41" s="27" t="s">
-        <v>100</v>
+        <v>174</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P41" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="Q41" s="1"/>
-      <c r="R41" s="18"/>
+      <c r="R41" s="1"/>
     </row>
     <row r="42" spans="1:85">
       <c r="G42" s="14" t="s">
@@ -4066,295 +4251,341 @@
       </c>
       <c r="J42" s="22"/>
       <c r="K42" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L42" s="28">
-        <v>45138</v>
+        <v>45137</v>
       </c>
       <c r="M42" s="22"/>
       <c r="N42" s="14" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="O42" s="29" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="P42" s="27" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
     </row>
     <row r="43" spans="1:85">
-      <c r="G43" s="1" t="s">
-        <v>131</v>
+      <c r="G43" s="14" t="s">
+        <v>84</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="I43" s="22"/>
+        <v>97</v>
+      </c>
+      <c r="I43" s="22">
+        <v>7</v>
+      </c>
       <c r="J43" s="22"/>
       <c r="K43" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="L43" s="19">
-        <v>45171</v>
-      </c>
-      <c r="M43" s="22">
-        <v>125</v>
+        <v>78</v>
+      </c>
+      <c r="L43" s="28">
+        <v>45136</v>
+      </c>
+      <c r="M43" s="42">
+        <v>70</v>
       </c>
       <c r="N43" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="P43" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q43" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="R43" s="13"/>
+        <v>98</v>
+      </c>
+      <c r="O43" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="P43" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="18"/>
     </row>
     <row r="44" spans="1:85">
-      <c r="G44" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H44" s="13"/>
+      <c r="G44" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>217</v>
+      </c>
       <c r="I44" s="22">
         <v>2</v>
       </c>
       <c r="J44" s="22"/>
       <c r="K44" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="L44" s="19">
-        <v>33048</v>
-      </c>
-      <c r="M44" s="22" t="s">
-        <v>225</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="L44" s="28">
+        <v>45138</v>
+      </c>
+      <c r="M44" s="22"/>
       <c r="N44" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="O44" s="1"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="13"/>
+        <v>101</v>
+      </c>
+      <c r="O44" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="P44" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
     </row>
     <row r="45" spans="1:85">
       <c r="G45" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H45" s="13"/>
+      <c r="H45" s="13" t="s">
+        <v>135</v>
+      </c>
       <c r="I45" s="22"/>
-      <c r="J45" s="22">
+      <c r="J45" s="22"/>
+      <c r="K45" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="L45" s="19">
+        <v>45171</v>
+      </c>
+      <c r="M45" s="22">
+        <v>125</v>
+      </c>
+      <c r="N45" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P45" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q45" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R45" s="13"/>
+    </row>
+    <row r="46" spans="1:85">
+      <c r="G46" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H46" s="13"/>
+      <c r="I46" s="22">
+        <v>2</v>
+      </c>
+      <c r="J46" s="22"/>
+      <c r="K46" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="L46" s="19">
+        <v>33048</v>
+      </c>
+      <c r="M46" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="N46" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="O46" s="1"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="13"/>
+    </row>
+    <row r="47" spans="1:85">
+      <c r="G47" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H47" s="13"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22">
         <v>1</v>
       </c>
-      <c r="K45" s="12" t="s">
+      <c r="K47" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="L45" s="19">
+      <c r="L47" s="19">
         <v>33062</v>
       </c>
-      <c r="M45" s="22" t="s">
+      <c r="M47" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="N45" s="14" t="s">
+      <c r="N47" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="O45" s="1"/>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="12"/>
-      <c r="R45" s="13"/>
-    </row>
-    <row r="46" spans="1:85">
-      <c r="G46" s="13" t="s">
+      <c r="O47" s="1"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="13"/>
+    </row>
+    <row r="48" spans="1:85">
+      <c r="G48" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="H46" s="13" t="s">
+      <c r="H48" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="I46" s="22">
+      <c r="I48" s="22">
         <v>5</v>
       </c>
-      <c r="J46" s="22"/>
-      <c r="K46" s="24" t="s">
+      <c r="J48" s="22"/>
+      <c r="K48" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="L46" s="25">
+      <c r="L48" s="25">
         <v>45119</v>
       </c>
-      <c r="M46" s="45">
+      <c r="M48" s="45">
         <v>2782</v>
       </c>
-      <c r="N46" s="6" t="s">
+      <c r="N48" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="O46" s="3" t="s">
+      <c r="O48" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="47" spans="1:85" s="1" customFormat="1">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="48" t="s">
+    <row r="49" spans="1:85" s="1" customFormat="1">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="H47" s="13" t="s">
+      <c r="H49" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I47" s="22">
+      <c r="I49" s="22">
         <v>6</v>
       </c>
-      <c r="J47" s="22"/>
-      <c r="K47" s="16" t="s">
+      <c r="J49" s="22"/>
+      <c r="K49" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="L47" s="25">
+      <c r="L49" s="25">
         <v>45193</v>
       </c>
-      <c r="M47" s="45">
+      <c r="M49" s="45">
         <v>74</v>
       </c>
-      <c r="N47" s="13" t="s">
+      <c r="N49" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="O47" s="3" t="s">
+      <c r="O49" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="P47" s="10" t="s">
+      <c r="P49" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
-      <c r="AA47" s="2"/>
-      <c r="AB47" s="2"/>
-      <c r="AC47" s="2"/>
-      <c r="AD47" s="2"/>
-      <c r="AE47" s="2"/>
-      <c r="AF47" s="2"/>
-      <c r="AG47" s="2"/>
-      <c r="AH47" s="2"/>
-      <c r="AI47" s="2"/>
-      <c r="AJ47" s="2"/>
-      <c r="AK47" s="2"/>
-      <c r="AL47" s="2"/>
-      <c r="AM47" s="2"/>
-      <c r="AN47" s="2"/>
-      <c r="AO47" s="2"/>
-      <c r="AP47" s="2"/>
-      <c r="AQ47" s="2"/>
-      <c r="AR47" s="2"/>
-      <c r="AS47" s="2"/>
-      <c r="AT47" s="2"/>
-      <c r="AU47" s="2"/>
-      <c r="AV47" s="2"/>
-      <c r="AW47" s="2"/>
-      <c r="AX47" s="2"/>
-      <c r="AY47" s="2"/>
-      <c r="AZ47" s="2"/>
-      <c r="BA47" s="2"/>
-      <c r="BB47" s="2"/>
-      <c r="BC47" s="2"/>
-      <c r="BD47" s="2"/>
-      <c r="BE47" s="2"/>
-      <c r="BF47" s="2"/>
-      <c r="BG47" s="2"/>
-      <c r="BH47" s="2"/>
-      <c r="BI47" s="2"/>
-      <c r="BJ47" s="2"/>
-      <c r="BK47" s="2"/>
-      <c r="BL47" s="2"/>
-      <c r="BM47" s="2"/>
-      <c r="BN47" s="2"/>
-      <c r="BO47" s="2"/>
-      <c r="BP47" s="2"/>
-      <c r="BQ47" s="2"/>
-      <c r="BR47" s="2"/>
-      <c r="BS47" s="2"/>
-      <c r="BT47" s="2"/>
-      <c r="BU47" s="2"/>
-      <c r="BV47" s="2"/>
-      <c r="BW47" s="2"/>
-      <c r="BX47" s="2"/>
-      <c r="BY47" s="2"/>
-      <c r="BZ47" s="2"/>
-      <c r="CA47" s="2"/>
-      <c r="CB47" s="2"/>
-      <c r="CC47" s="2"/>
-      <c r="CD47" s="2"/>
-      <c r="CE47" s="2"/>
-      <c r="CF47" s="2"/>
-      <c r="CG47" s="2"/>
-    </row>
-    <row r="48" spans="1:85" ht="16.5" customHeight="1">
-      <c r="G48" s="1" t="s">
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="2"/>
+      <c r="AD49" s="2"/>
+      <c r="AE49" s="2"/>
+      <c r="AF49" s="2"/>
+      <c r="AG49" s="2"/>
+      <c r="AH49" s="2"/>
+      <c r="AI49" s="2"/>
+      <c r="AJ49" s="2"/>
+      <c r="AK49" s="2"/>
+      <c r="AL49" s="2"/>
+      <c r="AM49" s="2"/>
+      <c r="AN49" s="2"/>
+      <c r="AO49" s="2"/>
+      <c r="AP49" s="2"/>
+      <c r="AQ49" s="2"/>
+      <c r="AR49" s="2"/>
+      <c r="AS49" s="2"/>
+      <c r="AT49" s="2"/>
+      <c r="AU49" s="2"/>
+      <c r="AV49" s="2"/>
+      <c r="AW49" s="2"/>
+      <c r="AX49" s="2"/>
+      <c r="AY49" s="2"/>
+      <c r="AZ49" s="2"/>
+      <c r="BA49" s="2"/>
+      <c r="BB49" s="2"/>
+      <c r="BC49" s="2"/>
+      <c r="BD49" s="2"/>
+      <c r="BE49" s="2"/>
+      <c r="BF49" s="2"/>
+      <c r="BG49" s="2"/>
+      <c r="BH49" s="2"/>
+      <c r="BI49" s="2"/>
+      <c r="BJ49" s="2"/>
+      <c r="BK49" s="2"/>
+      <c r="BL49" s="2"/>
+      <c r="BM49" s="2"/>
+      <c r="BN49" s="2"/>
+      <c r="BO49" s="2"/>
+      <c r="BP49" s="2"/>
+      <c r="BQ49" s="2"/>
+      <c r="BR49" s="2"/>
+      <c r="BS49" s="2"/>
+      <c r="BT49" s="2"/>
+      <c r="BU49" s="2"/>
+      <c r="BV49" s="2"/>
+      <c r="BW49" s="2"/>
+      <c r="BX49" s="2"/>
+      <c r="BY49" s="2"/>
+      <c r="BZ49" s="2"/>
+      <c r="CA49" s="2"/>
+      <c r="CB49" s="2"/>
+      <c r="CC49" s="2"/>
+      <c r="CD49" s="2"/>
+      <c r="CE49" s="2"/>
+      <c r="CF49" s="2"/>
+      <c r="CG49" s="2"/>
+    </row>
+    <row r="50" spans="1:85" ht="16.5" customHeight="1">
+      <c r="G50" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H48" s="1"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-    </row>
-    <row r="49" spans="7:10">
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="7:10">
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-    </row>
-    <row r="52" spans="7:10">
-      <c r="H52" s="13"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-    </row>
-    <row r="53" spans="7:10">
-      <c r="G53" s="6" t="s">
+      <c r="H50" s="1"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+    </row>
+    <row r="51" spans="1:85">
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:85">
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="54" spans="1:85">
+      <c r="H54" s="13"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+    </row>
+    <row r="55" spans="1:85">
+      <c r="G55" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="130" ht="15" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="218" spans="1:14">
-      <c r="A218" s="30"/>
-      <c r="B218" s="31"/>
-      <c r="G218" s="32"/>
-      <c r="H218" s="33"/>
-      <c r="I218" s="46"/>
-      <c r="J218" s="46"/>
-    </row>
-    <row r="219" spans="1:14">
-      <c r="A219" s="30"/>
-      <c r="B219" s="31"/>
-      <c r="G219" s="32"/>
-      <c r="H219" s="33"/>
-      <c r="I219" s="46"/>
-      <c r="J219" s="46"/>
-    </row>
-    <row r="220" spans="1:14">
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="110" ht="14.25" customHeight="1"/>
+    <row r="124" ht="14.25" customHeight="1"/>
+    <row r="132" ht="15" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="220" spans="1:10">
       <c r="A220" s="30"/>
       <c r="B220" s="31"/>
       <c r="G220" s="32"/>
@@ -4362,7 +4593,7 @@
       <c r="I220" s="46"/>
       <c r="J220" s="46"/>
     </row>
-    <row r="221" spans="1:14">
+    <row r="221" spans="1:10">
       <c r="A221" s="30"/>
       <c r="B221" s="31"/>
       <c r="G221" s="32"/>
@@ -4370,7 +4601,7 @@
       <c r="I221" s="46"/>
       <c r="J221" s="46"/>
     </row>
-    <row r="222" spans="1:14">
+    <row r="222" spans="1:10">
       <c r="A222" s="30"/>
       <c r="B222" s="31"/>
       <c r="G222" s="32"/>
@@ -4378,7 +4609,7 @@
       <c r="I222" s="46"/>
       <c r="J222" s="46"/>
     </row>
-    <row r="223" spans="1:14">
+    <row r="223" spans="1:10">
       <c r="A223" s="30"/>
       <c r="B223" s="31"/>
       <c r="G223" s="32"/>
@@ -4386,71 +4617,69 @@
       <c r="I223" s="46"/>
       <c r="J223" s="46"/>
     </row>
-    <row r="224" spans="1:14">
-      <c r="A224" s="1"/>
+    <row r="224" spans="1:10">
+      <c r="A224" s="30"/>
       <c r="B224" s="31"/>
-      <c r="G224" s="34"/>
-      <c r="H224" s="35"/>
-      <c r="I224" s="22"/>
-      <c r="J224" s="22"/>
-      <c r="K224" s="16"/>
-      <c r="N224" s="14"/>
-    </row>
-    <row r="225" spans="2:14">
-      <c r="B225" s="1"/>
-      <c r="G225" s="34"/>
-      <c r="H225" s="35"/>
-      <c r="I225" s="22"/>
-      <c r="J225" s="22"/>
-      <c r="K225" s="22"/>
-      <c r="N225" s="14"/>
-    </row>
-    <row r="226" spans="2:14">
-      <c r="B226" s="1"/>
+      <c r="G224" s="32"/>
+      <c r="H224" s="33"/>
+      <c r="I224" s="46"/>
+      <c r="J224" s="46"/>
+    </row>
+    <row r="225" spans="1:14">
+      <c r="A225" s="30"/>
+      <c r="B225" s="31"/>
+      <c r="G225" s="32"/>
+      <c r="H225" s="33"/>
+      <c r="I225" s="46"/>
+      <c r="J225" s="46"/>
+    </row>
+    <row r="226" spans="1:14">
+      <c r="A226" s="1"/>
+      <c r="B226" s="31"/>
       <c r="G226" s="34"/>
-      <c r="H226" s="36"/>
-      <c r="I226" s="47"/>
-      <c r="J226" s="47"/>
-      <c r="K226" s="22"/>
+      <c r="H226" s="35"/>
+      <c r="I226" s="22"/>
+      <c r="J226" s="22"/>
+      <c r="K226" s="16"/>
       <c r="N226" s="14"/>
     </row>
-    <row r="227" spans="2:14">
+    <row r="227" spans="1:14">
       <c r="B227" s="1"/>
-      <c r="G227" s="11"/>
-      <c r="H227" s="37"/>
-      <c r="I227" s="46"/>
-      <c r="J227" s="46"/>
-      <c r="K227" s="38"/>
-      <c r="N227" s="37"/>
-    </row>
-    <row r="228" spans="2:14">
+      <c r="G227" s="34"/>
+      <c r="H227" s="35"/>
+      <c r="I227" s="22"/>
+      <c r="J227" s="22"/>
+      <c r="K227" s="22"/>
+      <c r="N227" s="14"/>
+    </row>
+    <row r="228" spans="1:14">
       <c r="B228" s="1"/>
-      <c r="G228" s="11"/>
-      <c r="H228" s="37"/>
-      <c r="I228" s="46"/>
-      <c r="J228" s="46"/>
-      <c r="K228" s="38"/>
-      <c r="N228" s="37"/>
-    </row>
-    <row r="229" spans="2:14">
+      <c r="G228" s="34"/>
+      <c r="H228" s="36"/>
+      <c r="I228" s="47"/>
+      <c r="J228" s="47"/>
+      <c r="K228" s="22"/>
+      <c r="N228" s="14"/>
+    </row>
+    <row r="229" spans="1:14">
       <c r="B229" s="1"/>
       <c r="G229" s="11"/>
       <c r="H229" s="37"/>
       <c r="I229" s="46"/>
       <c r="J229" s="46"/>
-      <c r="K229" s="39"/>
+      <c r="K229" s="38"/>
       <c r="N229" s="37"/>
     </row>
-    <row r="230" spans="2:14">
+    <row r="230" spans="1:14">
       <c r="B230" s="1"/>
       <c r="G230" s="11"/>
       <c r="H230" s="37"/>
       <c r="I230" s="46"/>
       <c r="J230" s="46"/>
-      <c r="K230" s="39"/>
+      <c r="K230" s="38"/>
       <c r="N230" s="37"/>
     </row>
-    <row r="231" spans="2:14">
+    <row r="231" spans="1:14">
       <c r="B231" s="1"/>
       <c r="G231" s="11"/>
       <c r="H231" s="37"/>
@@ -4459,7 +4688,7 @@
       <c r="K231" s="39"/>
       <c r="N231" s="37"/>
     </row>
-    <row r="232" spans="2:14">
+    <row r="232" spans="1:14">
       <c r="B232" s="1"/>
       <c r="G232" s="11"/>
       <c r="H232" s="37"/>
@@ -4467,6 +4696,24 @@
       <c r="J232" s="46"/>
       <c r="K232" s="39"/>
       <c r="N232" s="37"/>
+    </row>
+    <row r="233" spans="1:14">
+      <c r="B233" s="1"/>
+      <c r="G233" s="11"/>
+      <c r="H233" s="37"/>
+      <c r="I233" s="46"/>
+      <c r="J233" s="46"/>
+      <c r="K233" s="39"/>
+      <c r="N233" s="37"/>
+    </row>
+    <row r="234" spans="1:14">
+      <c r="B234" s="1"/>
+      <c r="G234" s="11"/>
+      <c r="H234" s="37"/>
+      <c r="I234" s="46"/>
+      <c r="J234" s="46"/>
+      <c r="K234" s="39"/>
+      <c r="N234" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/Гербарии/Actaeae DNA  samples by AE (04.12.2023).xlsx
+++ b/Гербарии/Actaeae DNA  samples by AE (04.12.2023).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Eranthis\Гербарии\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA22998-226B-4C8E-8761-ACA5060CB699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB5376F-3047-45BE-A297-9501B67C0EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1785,8 +1785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CG234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="H19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2037,7 +2037,9 @@
       <c r="I3" s="22">
         <v>3</v>
       </c>
-      <c r="J3" s="22"/>
+      <c r="J3" s="22">
+        <v>3</v>
+      </c>
       <c r="K3" s="16" t="s">
         <v>60</v>
       </c>
@@ -4044,7 +4046,9 @@
       <c r="I36" s="22">
         <v>3</v>
       </c>
-      <c r="J36" s="22"/>
+      <c r="J36" s="22">
+        <v>10</v>
+      </c>
       <c r="K36" s="16" t="s">
         <v>198</v>
       </c>
@@ -4079,7 +4083,9 @@
       <c r="I37" s="22">
         <v>2</v>
       </c>
-      <c r="J37" s="22"/>
+      <c r="J37" s="22">
+        <v>12</v>
+      </c>
       <c r="K37" s="16" t="s">
         <v>199</v>
       </c>

--- a/Гербарии/Actaeae DNA  samples by AE (04.12.2023).xlsx
+++ b/Гербарии/Actaeae DNA  samples by AE (04.12.2023).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Eranthis\Гербарии\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB5376F-3047-45BE-A297-9501B67C0EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9ECE831-98F4-4356-85CA-E9131EDB584C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="249">
   <si>
     <t>Species</t>
   </si>
@@ -1197,6 +1197,18 @@
   </si>
   <si>
     <t>54°14'28.4''N, 90°46'26.1''E</t>
+  </si>
+  <si>
+    <t>8 (+ 1 семена)</t>
+  </si>
+  <si>
+    <t>10 (+ 1 семена)</t>
+  </si>
+  <si>
+    <t>Отобрано на химию (из числа образцов на ДНК)</t>
+  </si>
+  <si>
+    <t>только на бх</t>
   </si>
 </sst>
 </file>
@@ -1783,10 +1795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CG234"/>
+  <dimension ref="A1:CH234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1798,19 +1810,19 @@
     <col min="6" max="6" width="10.85546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="50.7109375" style="6" customWidth="1"/>
     <col min="8" max="8" width="52.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="24" style="45" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="12" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13" style="45" customWidth="1"/>
-    <col min="14" max="14" width="93" style="6" customWidth="1"/>
-    <col min="15" max="15" width="28.5703125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="39.7109375" style="10" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="3"/>
-    <col min="18" max="18" width="20" style="3" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="3"/>
+    <col min="9" max="11" width="24" style="45" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" style="10" customWidth="1"/>
+    <col min="13" max="13" width="12" style="3" customWidth="1"/>
+    <col min="14" max="14" width="13" style="45" customWidth="1"/>
+    <col min="15" max="15" width="93" style="6" customWidth="1"/>
+    <col min="16" max="16" width="28.5703125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="39.7109375" style="10" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="3"/>
+    <col min="19" max="19" width="20" style="3" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" s="12" customFormat="1">
+    <row r="1" spans="1:86" s="12" customFormat="1">
       <c r="A1" s="15" t="s">
         <v>53</v>
       </c>
@@ -1841,28 +1853,30 @@
       <c r="J1" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="L1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="M1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="O1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="P1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="Q1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="10"/>
       <c r="T1" s="10"/>
       <c r="U1" s="10"/>
-      <c r="V1" s="38"/>
+      <c r="V1" s="10"/>
       <c r="W1" s="38"/>
       <c r="X1" s="38"/>
       <c r="Y1" s="38"/>
@@ -1926,8 +1940,9 @@
       <c r="CE1" s="38"/>
       <c r="CF1" s="38"/>
       <c r="CG1" s="38"/>
-    </row>
-    <row r="2" spans="1:85" s="1" customFormat="1">
+      <c r="CH1" s="38"/>
+    </row>
+    <row r="2" spans="1:86" s="1" customFormat="1">
       <c r="G2" s="13" t="s">
         <v>83</v>
       </c>
@@ -1940,29 +1955,29 @@
       <c r="J2" s="22">
         <v>5</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="19">
+      <c r="M2" s="19">
         <v>45093</v>
       </c>
-      <c r="M2" s="22">
+      <c r="N2" s="22">
         <v>59</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="O2" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="Q2" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="S2" s="3"/>
+      <c r="R2" s="16"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
-      <c r="V2" s="2"/>
+      <c r="V2" s="3"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
@@ -2026,8 +2041,9 @@
       <c r="CE2" s="2"/>
       <c r="CF2" s="2"/>
       <c r="CG2" s="2"/>
-    </row>
-    <row r="3" spans="1:85" s="1" customFormat="1">
+      <c r="CH2" s="2"/>
+    </row>
+    <row r="3" spans="1:86" s="1" customFormat="1">
       <c r="G3" s="13" t="s">
         <v>83</v>
       </c>
@@ -2040,29 +2056,29 @@
       <c r="J3" s="22">
         <v>3</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="22"/>
+      <c r="L3" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="L3" s="19">
+      <c r="M3" s="19">
         <v>45095</v>
       </c>
-      <c r="M3" s="22">
+      <c r="N3" s="22">
         <v>109</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="O3" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="Q3" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="S3" s="3"/>
+      <c r="R3" s="12"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
-      <c r="V3" s="2"/>
+      <c r="V3" s="3"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
@@ -2126,8 +2142,9 @@
       <c r="CE3" s="2"/>
       <c r="CF3" s="2"/>
       <c r="CG3" s="2"/>
-    </row>
-    <row r="4" spans="1:85" s="1" customFormat="1">
+      <c r="CH3" s="2"/>
+    </row>
+    <row r="4" spans="1:86" s="1" customFormat="1">
       <c r="G4" s="13" t="s">
         <v>83</v>
       </c>
@@ -2141,27 +2158,29 @@
         <f>19+20+14+20+20+20+18+20+18+20</f>
         <v>189</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="22">
+        <v>18</v>
+      </c>
+      <c r="L4" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="L4" s="19">
+      <c r="M4" s="19">
         <v>45139</v>
       </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="22"/>
+      <c r="O4" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="Q4" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="Q4" s="12"/>
-      <c r="S4" s="3"/>
+      <c r="R4" s="12"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
-      <c r="V4" s="2"/>
+      <c r="V4" s="3"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
@@ -2225,8 +2244,9 @@
       <c r="CE4" s="2"/>
       <c r="CF4" s="2"/>
       <c r="CG4" s="2"/>
-    </row>
-    <row r="5" spans="1:85">
+      <c r="CH4" s="2"/>
+    </row>
+    <row r="5" spans="1:86">
       <c r="G5" s="20" t="s">
         <v>134</v>
       </c>
@@ -2237,24 +2257,25 @@
         <v>3</v>
       </c>
       <c r="J5" s="22"/>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="22"/>
+      <c r="L5" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="L5" s="25">
+      <c r="M5" s="25">
         <v>45122</v>
       </c>
-      <c r="M5" s="45">
+      <c r="N5" s="45">
         <v>2385</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:85" s="1" customFormat="1">
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:86" s="1" customFormat="1">
       <c r="G6" s="20" t="s">
         <v>132</v>
       </c>
@@ -2265,26 +2286,27 @@
       <c r="J6" s="22">
         <v>2</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="22"/>
+      <c r="L6" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="L6" s="19">
+      <c r="M6" s="19">
         <v>45119</v>
       </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="22"/>
+      <c r="O6" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="O6" s="43"/>
-      <c r="P6" s="16" t="s">
+      <c r="P6" s="43"/>
+      <c r="Q6" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Q6" s="40"/>
-      <c r="S6" s="3"/>
+      <c r="R6" s="40"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
-    </row>
-    <row r="7" spans="1:85" s="1" customFormat="1">
+      <c r="V6" s="3"/>
+    </row>
+    <row r="7" spans="1:86" s="1" customFormat="1">
       <c r="G7" s="20" t="s">
         <v>132</v>
       </c>
@@ -2295,26 +2317,27 @@
       <c r="J7" s="22">
         <v>2</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="22"/>
+      <c r="L7" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="L7" s="19">
+      <c r="M7" s="19">
         <v>45117</v>
       </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="22"/>
+      <c r="O7" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="O7" s="44"/>
-      <c r="P7" s="12"/>
-      <c r="R7" s="1" t="s">
+      <c r="P7" s="44"/>
+      <c r="Q7" s="12"/>
+      <c r="S7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
-    </row>
-    <row r="8" spans="1:85" s="1" customFormat="1">
+      <c r="V7" s="3"/>
+    </row>
+    <row r="8" spans="1:86" s="1" customFormat="1">
       <c r="G8" s="20" t="s">
         <v>132</v>
       </c>
@@ -2325,25 +2348,26 @@
       <c r="J8" s="22">
         <v>2</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="22"/>
+      <c r="L8" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="L8" s="19">
+      <c r="M8" s="19">
         <v>45117</v>
       </c>
-      <c r="M8" s="22"/>
-      <c r="N8" s="14" t="s">
+      <c r="N8" s="22"/>
+      <c r="O8" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="O8" s="44"/>
-      <c r="P8" s="12" t="s">
+      <c r="P8" s="44"/>
+      <c r="Q8" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
-    </row>
-    <row r="9" spans="1:85" s="1" customFormat="1">
+      <c r="V8" s="3"/>
+    </row>
+    <row r="9" spans="1:86" s="1" customFormat="1">
       <c r="G9" s="20" t="s">
         <v>132</v>
       </c>
@@ -2356,29 +2380,32 @@
       <c r="J9" s="22">
         <v>28</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="22">
+        <v>5</v>
+      </c>
+      <c r="L9" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="L9" s="19">
+      <c r="M9" s="19">
         <v>45135</v>
       </c>
-      <c r="M9" s="22">
+      <c r="N9" s="22">
         <v>306</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="O9" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="P9" s="12" t="s">
+      <c r="Q9" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
-    </row>
-    <row r="10" spans="1:85" s="1" customFormat="1">
+      <c r="V9" s="3"/>
+    </row>
+    <row r="10" spans="1:86" s="1" customFormat="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2395,29 +2422,29 @@
         <v>19</v>
       </c>
       <c r="J10" s="42"/>
-      <c r="K10" s="27" t="s">
+      <c r="K10" s="42"/>
+      <c r="L10" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="L10" s="28">
+      <c r="M10" s="28">
         <v>45173</v>
       </c>
-      <c r="M10" s="42">
+      <c r="N10" s="42">
         <v>463</v>
       </c>
-      <c r="N10" s="13" t="s">
+      <c r="O10" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="O10" s="29" t="s">
+      <c r="P10" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="P10" s="27" t="s">
+      <c r="Q10" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="2"/>
+      <c r="V10" s="3"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
@@ -2481,8 +2508,9 @@
       <c r="CE10" s="2"/>
       <c r="CF10" s="2"/>
       <c r="CG10" s="2"/>
-    </row>
-    <row r="11" spans="1:85" s="1" customFormat="1">
+      <c r="CH10" s="2"/>
+    </row>
+    <row r="11" spans="1:86" s="1" customFormat="1">
       <c r="G11" s="26" t="s">
         <v>150</v>
       </c>
@@ -2492,30 +2520,34 @@
       <c r="I11" s="42">
         <v>34</v>
       </c>
-      <c r="J11" s="42"/>
-      <c r="K11" s="27" t="s">
+      <c r="J11" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="K11" s="42">
+        <v>2</v>
+      </c>
+      <c r="L11" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="L11" s="28">
+      <c r="M11" s="28">
         <v>45168</v>
       </c>
-      <c r="M11" s="42">
+      <c r="N11" s="42">
         <v>489</v>
       </c>
-      <c r="N11" s="13" t="s">
+      <c r="O11" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="O11" s="29" t="s">
+      <c r="P11" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="P11" s="27" t="s">
+      <c r="Q11" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="2"/>
+      <c r="V11" s="3"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
@@ -2579,8 +2611,9 @@
       <c r="CE11" s="2"/>
       <c r="CF11" s="2"/>
       <c r="CG11" s="2"/>
-    </row>
-    <row r="12" spans="1:85" s="1" customFormat="1">
+      <c r="CH11" s="2"/>
+    </row>
+    <row r="12" spans="1:86" s="1" customFormat="1">
       <c r="G12" s="26" t="s">
         <v>150</v>
       </c>
@@ -2590,30 +2623,34 @@
       <c r="I12" s="42">
         <v>14</v>
       </c>
-      <c r="J12" s="42"/>
-      <c r="K12" s="27" t="s">
+      <c r="J12" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="K12" s="42">
+        <v>2</v>
+      </c>
+      <c r="L12" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="L12" s="28">
+      <c r="M12" s="28">
         <v>45134</v>
       </c>
-      <c r="M12" s="42">
+      <c r="N12" s="42">
         <v>463</v>
       </c>
-      <c r="N12" s="13" t="s">
+      <c r="O12" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="O12" s="29" t="s">
+      <c r="P12" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="P12" s="27" t="s">
+      <c r="Q12" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
-      <c r="V12" s="2"/>
+      <c r="V12" s="3"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
@@ -2677,8 +2714,9 @@
       <c r="CE12" s="2"/>
       <c r="CF12" s="2"/>
       <c r="CG12" s="2"/>
-    </row>
-    <row r="13" spans="1:85" s="1" customFormat="1">
+      <c r="CH12" s="2"/>
+    </row>
+    <row r="13" spans="1:86" s="1" customFormat="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2695,28 +2733,28 @@
       <c r="J13" s="22">
         <v>19</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="22"/>
+      <c r="L13" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="L13" s="19">
+      <c r="M13" s="19">
         <v>45142</v>
       </c>
-      <c r="M13" s="22">
+      <c r="N13" s="22">
         <v>502</v>
       </c>
-      <c r="N13" s="14" t="s">
+      <c r="O13" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="P13" s="12" t="s">
+      <c r="Q13" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
-      <c r="V13" s="2"/>
+      <c r="V13" s="3"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
@@ -2780,8 +2818,9 @@
       <c r="CE13" s="2"/>
       <c r="CF13" s="2"/>
       <c r="CG13" s="2"/>
-    </row>
-    <row r="14" spans="1:85" s="1" customFormat="1">
+      <c r="CH13" s="2"/>
+    </row>
+    <row r="14" spans="1:86" s="1" customFormat="1">
       <c r="G14" s="26" t="s">
         <v>150</v>
       </c>
@@ -2794,29 +2833,29 @@
       <c r="J14" s="42">
         <v>10</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="42"/>
+      <c r="L14" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="L14" s="28">
+      <c r="M14" s="28">
         <v>45164</v>
       </c>
-      <c r="M14" s="42">
+      <c r="N14" s="42">
         <v>555</v>
       </c>
-      <c r="N14" s="13" t="s">
+      <c r="O14" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="O14" s="29" t="s">
+      <c r="P14" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="P14" s="12" t="s">
+      <c r="Q14" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="2"/>
+      <c r="V14" s="3"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
@@ -2880,8 +2919,9 @@
       <c r="CE14" s="2"/>
       <c r="CF14" s="2"/>
       <c r="CG14" s="2"/>
-    </row>
-    <row r="15" spans="1:85" s="1" customFormat="1">
+      <c r="CH14" s="2"/>
+    </row>
+    <row r="15" spans="1:86" s="1" customFormat="1">
       <c r="G15" s="26" t="s">
         <v>150</v>
       </c>
@@ -2892,29 +2932,29 @@
       <c r="J15" s="42">
         <v>5</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="42"/>
+      <c r="L15" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="L15" s="28">
+      <c r="M15" s="28">
         <v>45127</v>
       </c>
-      <c r="M15" s="42">
+      <c r="N15" s="42">
         <v>535</v>
       </c>
-      <c r="N15" s="13" t="s">
+      <c r="O15" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="O15" s="29" t="s">
+      <c r="P15" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="P15" s="12" t="s">
+      <c r="Q15" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
-      <c r="V15" s="2"/>
+      <c r="V15" s="3"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
@@ -2978,8 +3018,9 @@
       <c r="CE15" s="2"/>
       <c r="CF15" s="2"/>
       <c r="CG15" s="2"/>
-    </row>
-    <row r="16" spans="1:85" s="1" customFormat="1">
+      <c r="CH15" s="2"/>
+    </row>
+    <row r="16" spans="1:86" s="1" customFormat="1">
       <c r="G16" s="26" t="s">
         <v>150</v>
       </c>
@@ -2990,29 +3031,29 @@
       <c r="J16" s="42">
         <v>7</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="42"/>
+      <c r="L16" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="L16" s="28">
+      <c r="M16" s="28">
         <v>45157</v>
       </c>
-      <c r="M16" s="42">
+      <c r="N16" s="42">
         <v>544</v>
       </c>
-      <c r="N16" s="13" t="s">
+      <c r="O16" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="O16" s="29" t="s">
+      <c r="P16" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="P16" s="12" t="s">
+      <c r="Q16" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-      <c r="V16" s="2"/>
+      <c r="V16" s="3"/>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
@@ -3076,8 +3117,9 @@
       <c r="CE16" s="2"/>
       <c r="CF16" s="2"/>
       <c r="CG16" s="2"/>
-    </row>
-    <row r="17" spans="1:85" s="1" customFormat="1">
+      <c r="CH16" s="2"/>
+    </row>
+    <row r="17" spans="1:86" s="1" customFormat="1">
       <c r="G17" s="13" t="s">
         <v>133</v>
       </c>
@@ -3090,29 +3132,29 @@
       <c r="J17" s="22">
         <v>7</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="22"/>
+      <c r="L17" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="L17" s="19">
+      <c r="M17" s="19">
         <v>45093</v>
       </c>
-      <c r="M17" s="22">
+      <c r="N17" s="22">
         <v>59</v>
       </c>
-      <c r="N17" s="13" t="s">
+      <c r="O17" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="P17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P17" s="16" t="s">
+      <c r="Q17" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="Q17" s="16"/>
-      <c r="S17" s="3"/>
+      <c r="R17" s="16"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
-      <c r="V17" s="2"/>
+      <c r="V17" s="3"/>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
@@ -3176,8 +3218,9 @@
       <c r="CE17" s="2"/>
       <c r="CF17" s="2"/>
       <c r="CG17" s="2"/>
-    </row>
-    <row r="18" spans="1:85" s="1" customFormat="1">
+      <c r="CH17" s="2"/>
+    </row>
+    <row r="18" spans="1:86" s="1" customFormat="1">
       <c r="G18" s="13" t="s">
         <v>133</v>
       </c>
@@ -3190,29 +3233,29 @@
       <c r="J18" s="22">
         <v>8</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="22"/>
+      <c r="L18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="L18" s="19">
+      <c r="M18" s="19">
         <v>45095</v>
       </c>
-      <c r="M18" s="22">
+      <c r="N18" s="22">
         <v>109</v>
       </c>
-      <c r="N18" s="13" t="s">
+      <c r="O18" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="P18" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="P18" s="16" t="s">
+      <c r="Q18" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Q18" s="16"/>
-      <c r="S18" s="3"/>
+      <c r="R18" s="16"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
-      <c r="V18" s="2"/>
+      <c r="V18" s="3"/>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
@@ -3276,8 +3319,9 @@
       <c r="CE18" s="2"/>
       <c r="CF18" s="2"/>
       <c r="CG18" s="2"/>
-    </row>
-    <row r="19" spans="1:85" s="13" customFormat="1">
+      <c r="CH18" s="2"/>
+    </row>
+    <row r="19" spans="1:86" s="13" customFormat="1">
       <c r="G19" s="13" t="s">
         <v>133</v>
       </c>
@@ -3288,27 +3332,28 @@
         <v>3</v>
       </c>
       <c r="J19" s="22"/>
-      <c r="K19" s="24" t="s">
+      <c r="K19" s="22"/>
+      <c r="L19" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="L19" s="25">
+      <c r="M19" s="25">
         <v>45119</v>
       </c>
-      <c r="M19" s="45">
+      <c r="N19" s="45">
         <v>2782</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="O19" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="P19" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="3"/>
+      <c r="Q19" s="16"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="1:85" s="1" customFormat="1">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="1:86" s="1" customFormat="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3325,28 +3370,28 @@
         <v>4</v>
       </c>
       <c r="J20" s="22"/>
-      <c r="K20" s="24" t="s">
+      <c r="K20" s="22"/>
+      <c r="L20" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="L20" s="25">
+      <c r="M20" s="25">
         <v>45121</v>
       </c>
-      <c r="M20" s="45">
+      <c r="N20" s="45">
         <v>2199</v>
       </c>
-      <c r="N20" s="6" t="s">
+      <c r="O20" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="P20" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="3"/>
+      <c r="Q20" s="12"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
-      <c r="V20" s="2"/>
+      <c r="V20" s="3"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
@@ -3410,8 +3455,9 @@
       <c r="CE20" s="2"/>
       <c r="CF20" s="2"/>
       <c r="CG20" s="2"/>
-    </row>
-    <row r="21" spans="1:85" s="1" customFormat="1">
+      <c r="CH20" s="2"/>
+    </row>
+    <row r="21" spans="1:86" s="1" customFormat="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3428,24 +3474,24 @@
         <v>2</v>
       </c>
       <c r="J21" s="22"/>
-      <c r="K21" s="24" t="s">
+      <c r="K21" s="22"/>
+      <c r="L21" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="L21" s="25">
+      <c r="M21" s="25">
         <v>45188</v>
       </c>
-      <c r="M21" s="22"/>
-      <c r="N21" s="6" t="s">
+      <c r="N21" s="22"/>
+      <c r="O21" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="O21" s="3"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="10"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
-      <c r="V21" s="2"/>
+      <c r="V21" s="3"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
@@ -3509,8 +3555,9 @@
       <c r="CE21" s="2"/>
       <c r="CF21" s="2"/>
       <c r="CG21" s="2"/>
-    </row>
-    <row r="22" spans="1:85" ht="15" customHeight="1">
+      <c r="CH21" s="2"/>
+    </row>
+    <row r="22" spans="1:86" ht="15" customHeight="1">
       <c r="G22" s="26" t="s">
         <v>151</v>
       </c>
@@ -3523,28 +3570,29 @@
       <c r="J22" s="22">
         <v>9</v>
       </c>
-      <c r="K22" s="16" t="s">
+      <c r="K22" s="22"/>
+      <c r="L22" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="L22" s="19">
+      <c r="M22" s="19">
         <v>45109</v>
       </c>
-      <c r="M22" s="22">
+      <c r="N22" s="22">
         <v>150</v>
       </c>
-      <c r="N22" s="13" t="s">
+      <c r="O22" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="P22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="P22" s="16" t="s">
+      <c r="Q22" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="1"/>
-    </row>
-    <row r="23" spans="1:85" ht="15" customHeight="1">
+      <c r="R22" s="16"/>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:86" ht="15" customHeight="1">
       <c r="G23" s="26" t="s">
         <v>151</v>
       </c>
@@ -3555,28 +3603,31 @@
       <c r="J23" s="22">
         <v>24</v>
       </c>
-      <c r="K23" s="16" t="s">
+      <c r="K23" s="22">
+        <v>4</v>
+      </c>
+      <c r="L23" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="L23" s="19">
+      <c r="M23" s="19">
         <v>45160</v>
       </c>
-      <c r="M23" s="22">
+      <c r="N23" s="22">
         <v>352</v>
       </c>
-      <c r="N23" s="13" t="s">
+      <c r="O23" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="O23" s="17" t="s">
+      <c r="P23" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="P23" s="12" t="s">
+      <c r="Q23" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="13"/>
-    </row>
-    <row r="24" spans="1:85" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="R23" s="1"/>
+      <c r="S23" s="13"/>
+    </row>
+    <row r="24" spans="1:86" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="G24" s="26" t="s">
         <v>151</v>
       </c>
@@ -3587,28 +3638,29 @@
         <v>19</v>
       </c>
       <c r="J24" s="42"/>
-      <c r="K24" s="27" t="s">
+      <c r="K24" s="42"/>
+      <c r="L24" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="L24" s="28">
+      <c r="M24" s="28">
         <v>45168</v>
       </c>
-      <c r="M24" s="42">
+      <c r="N24" s="42">
         <v>552</v>
       </c>
-      <c r="N24" s="13" t="s">
+      <c r="O24" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="O24" s="29" t="s">
+      <c r="P24" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="P24" s="27" t="s">
+      <c r="Q24" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="3"/>
-    </row>
-    <row r="25" spans="1:85" s="13" customFormat="1" ht="15" customHeight="1">
+      <c r="R24" s="1"/>
+      <c r="S24" s="3"/>
+    </row>
+    <row r="25" spans="1:86" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="G25" s="26" t="s">
         <v>151</v>
       </c>
@@ -3621,28 +3673,29 @@
       <c r="J25" s="42">
         <v>4</v>
       </c>
-      <c r="K25" s="27" t="s">
+      <c r="K25" s="42"/>
+      <c r="L25" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="L25" s="28">
+      <c r="M25" s="28">
         <v>45168</v>
       </c>
-      <c r="M25" s="42">
+      <c r="N25" s="42">
         <v>492</v>
       </c>
-      <c r="N25" s="13" t="s">
+      <c r="O25" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="O25" s="29" t="s">
+      <c r="P25" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="P25" s="27" t="s">
+      <c r="Q25" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="3"/>
-    </row>
-    <row r="26" spans="1:85" s="13" customFormat="1">
+      <c r="R25" s="1"/>
+      <c r="S25" s="3"/>
+    </row>
+    <row r="26" spans="1:86" s="13" customFormat="1">
       <c r="G26" s="13" t="s">
         <v>151</v>
       </c>
@@ -3655,25 +3708,28 @@
       <c r="J26" s="22">
         <v>11</v>
       </c>
-      <c r="K26" s="16" t="s">
+      <c r="K26" s="22">
+        <v>2</v>
+      </c>
+      <c r="L26" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="L26" s="19">
+      <c r="M26" s="19">
         <v>45173</v>
       </c>
-      <c r="M26" s="22"/>
-      <c r="N26" s="13" t="s">
+      <c r="N26" s="22"/>
+      <c r="O26" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="O26" s="13" t="s">
+      <c r="P26" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="P26" s="16" t="s">
+      <c r="Q26" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="R26" s="3"/>
-    </row>
-    <row r="27" spans="1:85">
+      <c r="S26" s="3"/>
+    </row>
+    <row r="27" spans="1:86">
       <c r="G27" s="13" t="s">
         <v>151</v>
       </c>
@@ -3686,25 +3742,26 @@
       <c r="J27" s="22">
         <v>11</v>
       </c>
-      <c r="K27" s="16" t="s">
+      <c r="K27" s="22"/>
+      <c r="L27" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="L27" s="19">
+      <c r="M27" s="19">
         <v>45173</v>
       </c>
-      <c r="M27" s="22"/>
-      <c r="N27" s="13" t="s">
+      <c r="N27" s="22"/>
+      <c r="O27" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="O27" s="13" t="s">
+      <c r="P27" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="P27" s="16" t="s">
+      <c r="Q27" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" spans="1:85">
+      <c r="R27" s="13"/>
+    </row>
+    <row r="28" spans="1:86">
       <c r="G28" s="13" t="s">
         <v>151</v>
       </c>
@@ -3717,27 +3774,28 @@
       <c r="J28" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="K28" s="16" t="s">
+      <c r="K28" s="22"/>
+      <c r="L28" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="L28" s="19">
+      <c r="M28" s="19">
         <v>44408</v>
       </c>
-      <c r="M28" s="22">
+      <c r="N28" s="22">
         <v>103</v>
       </c>
-      <c r="N28" s="13" t="s">
+      <c r="O28" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="O28" s="13" t="s">
+      <c r="P28" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="P28" s="16" t="s">
+      <c r="Q28" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" spans="1:85">
+      <c r="R28" s="13"/>
+    </row>
+    <row r="29" spans="1:86">
       <c r="G29" s="13" t="s">
         <v>151</v>
       </c>
@@ -3750,25 +3808,28 @@
       <c r="J29" s="22">
         <v>7</v>
       </c>
-      <c r="K29" s="16" t="s">
+      <c r="K29" s="22">
+        <v>2</v>
+      </c>
+      <c r="L29" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="L29" s="19">
+      <c r="M29" s="19">
         <v>45122</v>
       </c>
-      <c r="M29" s="22">
+      <c r="N29" s="22">
         <v>461</v>
       </c>
-      <c r="N29" s="13" t="s">
+      <c r="O29" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="O29" s="13" t="s">
+      <c r="P29" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" spans="1:85">
+      <c r="Q29" s="16"/>
+      <c r="R29" s="13"/>
+    </row>
+    <row r="30" spans="1:86">
       <c r="G30" s="13" t="s">
         <v>151</v>
       </c>
@@ -3781,25 +3842,28 @@
       <c r="J30" s="22">
         <v>5</v>
       </c>
-      <c r="K30" s="12" t="s">
+      <c r="K30" s="22">
+        <v>2</v>
+      </c>
+      <c r="L30" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="L30" s="19">
+      <c r="M30" s="19">
         <v>45121</v>
       </c>
-      <c r="M30" s="22">
+      <c r="N30" s="22">
         <v>534</v>
       </c>
-      <c r="N30" s="13" t="s">
+      <c r="O30" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="O30" s="13" t="s">
+      <c r="P30" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" spans="1:85">
+      <c r="Q30" s="16"/>
+      <c r="R30" s="13"/>
+    </row>
+    <row r="31" spans="1:86">
       <c r="G31" s="13" t="s">
         <v>152</v>
       </c>
@@ -3808,28 +3872,29 @@
       </c>
       <c r="I31" s="22"/>
       <c r="J31" s="22"/>
-      <c r="K31" s="12" t="s">
+      <c r="K31" s="22"/>
+      <c r="L31" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="L31" s="19">
+      <c r="M31" s="19">
         <v>45120</v>
       </c>
-      <c r="M31" s="22">
+      <c r="N31" s="22">
         <v>228</v>
       </c>
-      <c r="N31" s="14" t="s">
+      <c r="O31" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="P31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="P31" s="12" t="s">
+      <c r="Q31" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="13"/>
-    </row>
-    <row r="32" spans="1:85">
+      <c r="R31" s="1"/>
+      <c r="S31" s="13"/>
+    </row>
+    <row r="32" spans="1:86">
       <c r="G32" s="13" t="s">
         <v>152</v>
       </c>
@@ -3842,28 +3907,29 @@
       <c r="J32" s="22">
         <v>16</v>
       </c>
-      <c r="K32" s="16" t="s">
+      <c r="K32" s="22"/>
+      <c r="L32" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="L32" s="19">
+      <c r="M32" s="19">
         <v>45124</v>
       </c>
-      <c r="M32" s="22">
+      <c r="N32" s="22">
         <v>242</v>
       </c>
-      <c r="N32" s="13" t="s">
+      <c r="O32" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="O32" s="17" t="s">
+      <c r="P32" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="P32" s="16" t="s">
+      <c r="Q32" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="13"/>
-    </row>
-    <row r="33" spans="1:85" s="1" customFormat="1">
+      <c r="R32" s="1"/>
+      <c r="S32" s="13"/>
+    </row>
+    <row r="33" spans="1:86" s="1" customFormat="1">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -3882,29 +3948,31 @@
       <c r="J33" s="22">
         <v>16</v>
       </c>
-      <c r="K33" s="12" t="s">
+      <c r="K33" s="22">
+        <v>3</v>
+      </c>
+      <c r="L33" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="L33" s="19">
+      <c r="M33" s="19">
         <v>45160</v>
       </c>
-      <c r="M33" s="22">
+      <c r="N33" s="22">
         <v>373</v>
       </c>
-      <c r="N33" s="13" t="s">
+      <c r="O33" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="O33" s="17" t="s">
+      <c r="P33" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="P33" s="42" t="s">
+      <c r="Q33" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="R33" s="13"/>
-      <c r="S33" s="3"/>
+      <c r="S33" s="13"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
-      <c r="V33" s="2"/>
+      <c r="V33" s="3"/>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
@@ -3968,8 +4036,9 @@
       <c r="CE33" s="2"/>
       <c r="CF33" s="2"/>
       <c r="CG33" s="2"/>
-    </row>
-    <row r="34" spans="1:85" s="1" customFormat="1">
+      <c r="CH33" s="2"/>
+    </row>
+    <row r="34" spans="1:86" s="1" customFormat="1">
       <c r="A34" s="17"/>
       <c r="G34" s="13" t="s">
         <v>152</v>
@@ -3981,29 +4050,30 @@
         <v>15</v>
       </c>
       <c r="J34" s="22"/>
-      <c r="K34" s="16" t="s">
+      <c r="K34" s="22"/>
+      <c r="L34" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="L34" s="19">
+      <c r="M34" s="19">
         <v>45189</v>
       </c>
-      <c r="M34" s="22"/>
-      <c r="N34" s="13" t="s">
+      <c r="N34" s="22"/>
+      <c r="O34" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="O34" s="13" t="s">
+      <c r="P34" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="P34" s="16" t="s">
+      <c r="Q34" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="3"/>
+      <c r="R34" s="13"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
-    </row>
-    <row r="35" spans="1:85" s="1" customFormat="1">
+      <c r="V34" s="3"/>
+    </row>
+    <row r="35" spans="1:86" s="1" customFormat="1">
       <c r="G35" s="13" t="s">
         <v>152</v>
       </c>
@@ -4014,29 +4084,30 @@
         <v>23</v>
       </c>
       <c r="J35" s="22"/>
-      <c r="K35" s="16" t="s">
+      <c r="K35" s="22"/>
+      <c r="L35" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="L35" s="19">
+      <c r="M35" s="19">
         <v>45183</v>
       </c>
-      <c r="M35" s="22"/>
-      <c r="N35" s="13" t="s">
+      <c r="N35" s="22"/>
+      <c r="O35" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="O35" s="13" t="s">
+      <c r="P35" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="P35" s="16" t="s">
+      <c r="Q35" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="3"/>
+      <c r="R35" s="13"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
-    </row>
-    <row r="36" spans="1:85" s="1" customFormat="1">
+      <c r="V35" s="3"/>
+    </row>
+    <row r="36" spans="1:86" s="1" customFormat="1">
       <c r="G36" s="13" t="s">
         <v>152</v>
       </c>
@@ -4049,31 +4120,32 @@
       <c r="J36" s="22">
         <v>10</v>
       </c>
-      <c r="K36" s="16" t="s">
+      <c r="K36" s="22"/>
+      <c r="L36" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="L36" s="19">
+      <c r="M36" s="19">
         <v>45175</v>
       </c>
-      <c r="M36" s="22">
+      <c r="N36" s="22">
         <v>106</v>
       </c>
-      <c r="N36" s="13" t="s">
+      <c r="O36" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="O36" s="13" t="s">
+      <c r="P36" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="P36" s="16" t="s">
+      <c r="Q36" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="3"/>
+      <c r="R36" s="13"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
-    </row>
-    <row r="37" spans="1:85" s="1" customFormat="1">
+      <c r="V36" s="3"/>
+    </row>
+    <row r="37" spans="1:86" s="1" customFormat="1">
       <c r="G37" s="13" t="s">
         <v>152</v>
       </c>
@@ -4086,31 +4158,34 @@
       <c r="J37" s="22">
         <v>12</v>
       </c>
-      <c r="K37" s="16" t="s">
+      <c r="K37" s="22">
+        <v>2</v>
+      </c>
+      <c r="L37" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="L37" s="19">
+      <c r="M37" s="19">
         <v>45174</v>
       </c>
-      <c r="M37" s="22">
+      <c r="N37" s="22">
         <v>131</v>
       </c>
-      <c r="N37" s="13" t="s">
+      <c r="O37" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="O37" s="13" t="s">
+      <c r="P37" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="P37" s="16" t="s">
+      <c r="Q37" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="3"/>
+      <c r="R37" s="13"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
-    </row>
-    <row r="38" spans="1:85" s="1" customFormat="1">
+      <c r="V37" s="3"/>
+    </row>
+    <row r="38" spans="1:86" s="1" customFormat="1">
       <c r="G38" s="13" t="s">
         <v>152</v>
       </c>
@@ -4121,29 +4196,30 @@
         <v>1</v>
       </c>
       <c r="J38" s="22"/>
-      <c r="K38" s="24" t="s">
+      <c r="K38" s="22"/>
+      <c r="L38" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="L38" s="25">
+      <c r="M38" s="25">
         <v>45119</v>
       </c>
-      <c r="M38" s="45">
+      <c r="N38" s="45">
         <v>2177</v>
       </c>
-      <c r="N38" s="6" t="s">
+      <c r="O38" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="O38" s="3" t="s">
+      <c r="P38" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="3"/>
+      <c r="Q38" s="12"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
-    </row>
-    <row r="39" spans="1:85" s="1" customFormat="1">
+      <c r="V38" s="3"/>
+    </row>
+    <row r="39" spans="1:86" s="1" customFormat="1">
       <c r="G39" s="13" t="s">
         <v>152</v>
       </c>
@@ -4154,31 +4230,32 @@
         <v>200</v>
       </c>
       <c r="J39" s="22"/>
-      <c r="K39" s="16" t="s">
+      <c r="K39" s="22"/>
+      <c r="L39" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="L39" s="25">
+      <c r="M39" s="25">
         <v>45193</v>
       </c>
-      <c r="M39" s="45">
+      <c r="N39" s="45">
         <v>74</v>
       </c>
-      <c r="N39" s="6" t="s">
+      <c r="O39" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="O39" s="3" t="s">
+      <c r="P39" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="P39" s="16" t="s">
+      <c r="Q39" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="1:85" s="1" customFormat="1">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="1:86" s="1" customFormat="1">
       <c r="G40" s="13" t="s">
         <v>84</v>
       </c>
@@ -4188,30 +4265,35 @@
       <c r="I40" s="22">
         <v>16</v>
       </c>
-      <c r="J40" s="22"/>
-      <c r="K40" s="16" t="s">
+      <c r="J40" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="K40" s="22">
+        <v>2</v>
+      </c>
+      <c r="L40" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="L40" s="19">
+      <c r="M40" s="19">
         <v>45133</v>
       </c>
-      <c r="M40" s="22"/>
-      <c r="N40" s="13" t="s">
+      <c r="N40" s="22"/>
+      <c r="O40" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="O40" s="13" t="s">
+      <c r="P40" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="P40" s="16" t="s">
+      <c r="Q40" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="3"/>
+      <c r="R40" s="13"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="1:85" s="13" customFormat="1">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="1:86" s="13" customFormat="1">
       <c r="G41" s="14" t="s">
         <v>84</v>
       </c>
@@ -4224,28 +4306,29 @@
       <c r="J41" s="22">
         <v>19</v>
       </c>
-      <c r="K41" s="12" t="s">
+      <c r="K41" s="22"/>
+      <c r="L41" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="L41" s="19">
+      <c r="M41" s="19">
         <v>45142</v>
       </c>
-      <c r="M41" s="22">
+      <c r="N41" s="22">
         <v>266</v>
       </c>
-      <c r="N41" s="14" t="s">
+      <c r="O41" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="O41" s="1" t="s">
+      <c r="P41" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P41" s="12" t="s">
+      <c r="Q41" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
-    </row>
-    <row r="42" spans="1:85">
+      <c r="S41" s="1"/>
+    </row>
+    <row r="42" spans="1:86">
       <c r="G42" s="14" t="s">
         <v>84</v>
       </c>
@@ -4256,26 +4339,27 @@
         <v>2</v>
       </c>
       <c r="J42" s="22"/>
-      <c r="K42" s="12" t="s">
+      <c r="K42" s="22"/>
+      <c r="L42" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="L42" s="28">
+      <c r="M42" s="28">
         <v>45137</v>
       </c>
-      <c r="M42" s="22"/>
-      <c r="N42" s="14" t="s">
+      <c r="N42" s="22"/>
+      <c r="O42" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="O42" s="29" t="s">
+      <c r="P42" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="P42" s="27" t="s">
+      <c r="Q42" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
-    </row>
-    <row r="43" spans="1:85">
+      <c r="S42" s="1"/>
+    </row>
+    <row r="43" spans="1:86">
       <c r="G43" s="14" t="s">
         <v>84</v>
       </c>
@@ -4285,29 +4369,32 @@
       <c r="I43" s="22">
         <v>7</v>
       </c>
-      <c r="J43" s="22"/>
-      <c r="K43" s="12" t="s">
+      <c r="J43" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="K43" s="22"/>
+      <c r="L43" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="L43" s="28">
+      <c r="M43" s="28">
         <v>45136</v>
       </c>
-      <c r="M43" s="42">
+      <c r="N43" s="42">
         <v>70</v>
       </c>
-      <c r="N43" s="14" t="s">
+      <c r="O43" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="O43" s="29" t="s">
+      <c r="P43" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="P43" s="27" t="s">
+      <c r="Q43" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="18"/>
-    </row>
-    <row r="44" spans="1:85">
+      <c r="R43" s="1"/>
+      <c r="S43" s="18"/>
+    </row>
+    <row r="44" spans="1:86">
       <c r="G44" s="14" t="s">
         <v>84</v>
       </c>
@@ -4318,26 +4405,27 @@
         <v>2</v>
       </c>
       <c r="J44" s="22"/>
-      <c r="K44" s="12" t="s">
+      <c r="K44" s="22"/>
+      <c r="L44" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="L44" s="28">
+      <c r="M44" s="28">
         <v>45138</v>
       </c>
-      <c r="M44" s="22"/>
-      <c r="N44" s="14" t="s">
+      <c r="N44" s="22"/>
+      <c r="O44" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="O44" s="29" t="s">
+      <c r="P44" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="P44" s="27" t="s">
+      <c r="Q44" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
-    </row>
-    <row r="45" spans="1:85">
+      <c r="S44" s="1"/>
+    </row>
+    <row r="45" spans="1:86">
       <c r="G45" s="1" t="s">
         <v>131</v>
       </c>
@@ -4346,30 +4434,31 @@
       </c>
       <c r="I45" s="22"/>
       <c r="J45" s="22"/>
-      <c r="K45" s="12" t="s">
+      <c r="K45" s="22"/>
+      <c r="L45" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="L45" s="19">
+      <c r="M45" s="19">
         <v>45171</v>
       </c>
-      <c r="M45" s="22">
+      <c r="N45" s="22">
         <v>125</v>
       </c>
-      <c r="N45" s="14" t="s">
+      <c r="O45" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="P45" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="P45" s="12" t="s">
+      <c r="Q45" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="Q45" s="12" t="s">
+      <c r="R45" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="R45" s="13"/>
-    </row>
-    <row r="46" spans="1:85">
+      <c r="S45" s="13"/>
+    </row>
+    <row r="46" spans="1:86">
       <c r="G46" s="1" t="s">
         <v>131</v>
       </c>
@@ -4378,24 +4467,25 @@
         <v>2</v>
       </c>
       <c r="J46" s="22"/>
-      <c r="K46" s="12" t="s">
+      <c r="K46" s="22"/>
+      <c r="L46" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="L46" s="19">
+      <c r="M46" s="19">
         <v>33048</v>
       </c>
-      <c r="M46" s="22" t="s">
+      <c r="N46" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="N46" s="14" t="s">
+      <c r="O46" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="O46" s="1"/>
-      <c r="P46" s="12"/>
+      <c r="P46" s="1"/>
       <c r="Q46" s="12"/>
-      <c r="R46" s="13"/>
-    </row>
-    <row r="47" spans="1:85">
+      <c r="R46" s="12"/>
+      <c r="S46" s="13"/>
+    </row>
+    <row r="47" spans="1:86">
       <c r="G47" s="1" t="s">
         <v>131</v>
       </c>
@@ -4404,24 +4494,25 @@
       <c r="J47" s="22">
         <v>1</v>
       </c>
-      <c r="K47" s="12" t="s">
+      <c r="K47" s="22"/>
+      <c r="L47" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="L47" s="19">
+      <c r="M47" s="19">
         <v>33062</v>
       </c>
-      <c r="M47" s="22" t="s">
+      <c r="N47" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="N47" s="14" t="s">
+      <c r="O47" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="O47" s="1"/>
-      <c r="P47" s="12"/>
+      <c r="P47" s="1"/>
       <c r="Q47" s="12"/>
-      <c r="R47" s="13"/>
-    </row>
-    <row r="48" spans="1:85">
+      <c r="R47" s="12"/>
+      <c r="S47" s="13"/>
+    </row>
+    <row r="48" spans="1:86">
       <c r="G48" s="13" t="s">
         <v>153</v>
       </c>
@@ -4432,23 +4523,24 @@
         <v>5</v>
       </c>
       <c r="J48" s="22"/>
-      <c r="K48" s="24" t="s">
+      <c r="K48" s="22"/>
+      <c r="L48" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="L48" s="25">
+      <c r="M48" s="25">
         <v>45119</v>
       </c>
-      <c r="M48" s="45">
+      <c r="N48" s="45">
         <v>2782</v>
       </c>
-      <c r="N48" s="6" t="s">
+      <c r="O48" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="O48" s="3" t="s">
+      <c r="P48" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="49" spans="1:85" s="1" customFormat="1">
+    <row r="49" spans="1:86" s="1" customFormat="1">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -4465,29 +4557,29 @@
         <v>6</v>
       </c>
       <c r="J49" s="22"/>
-      <c r="K49" s="16" t="s">
+      <c r="K49" s="22"/>
+      <c r="L49" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="L49" s="25">
+      <c r="M49" s="25">
         <v>45193</v>
       </c>
-      <c r="M49" s="45">
+      <c r="N49" s="45">
         <v>74</v>
       </c>
-      <c r="N49" s="13" t="s">
+      <c r="O49" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="O49" s="3" t="s">
+      <c r="P49" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="P49" s="10" t="s">
+      <c r="Q49" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
-      <c r="T49" s="3"/>
+      <c r="S49" s="3"/>
       <c r="U49" s="3"/>
-      <c r="V49" s="2"/>
+      <c r="V49" s="3"/>
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
@@ -4551,37 +4643,40 @@
       <c r="CE49" s="2"/>
       <c r="CF49" s="2"/>
       <c r="CG49" s="2"/>
-    </row>
-    <row r="50" spans="1:85" ht="16.5" customHeight="1">
+      <c r="CH49" s="2"/>
+    </row>
+    <row r="50" spans="1:86" ht="16.5" customHeight="1">
       <c r="G50" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="22"/>
       <c r="J50" s="22"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="1"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="12"/>
       <c r="R50" s="1"/>
-    </row>
-    <row r="51" spans="1:85">
+      <c r="S50" s="1"/>
+    </row>
+    <row r="51" spans="1:86">
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="1:85">
+    <row r="52" spans="1:86">
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="54" spans="1:85">
+    <row r="54" spans="1:86">
       <c r="H54" s="13"/>
       <c r="I54" s="22"/>
       <c r="J54" s="22"/>
-    </row>
-    <row r="55" spans="1:85">
+      <c r="K54" s="22"/>
+    </row>
+    <row r="55" spans="1:86">
       <c r="G55" s="6" t="s">
         <v>6</v>
       </c>
@@ -4591,139 +4686,154 @@
     <row r="124" ht="14.25" customHeight="1"/>
     <row r="132" ht="15" customHeight="1"/>
     <row r="192" ht="15.75" customHeight="1"/>
-    <row r="220" spans="1:10">
+    <row r="220" spans="1:11">
       <c r="A220" s="30"/>
       <c r="B220" s="31"/>
       <c r="G220" s="32"/>
       <c r="H220" s="33"/>
       <c r="I220" s="46"/>
       <c r="J220" s="46"/>
-    </row>
-    <row r="221" spans="1:10">
+      <c r="K220" s="46"/>
+    </row>
+    <row r="221" spans="1:11">
       <c r="A221" s="30"/>
       <c r="B221" s="31"/>
       <c r="G221" s="32"/>
       <c r="H221" s="33"/>
       <c r="I221" s="46"/>
       <c r="J221" s="46"/>
-    </row>
-    <row r="222" spans="1:10">
+      <c r="K221" s="46"/>
+    </row>
+    <row r="222" spans="1:11">
       <c r="A222" s="30"/>
       <c r="B222" s="31"/>
       <c r="G222" s="32"/>
       <c r="H222" s="33"/>
       <c r="I222" s="46"/>
       <c r="J222" s="46"/>
-    </row>
-    <row r="223" spans="1:10">
+      <c r="K222" s="46"/>
+    </row>
+    <row r="223" spans="1:11">
       <c r="A223" s="30"/>
       <c r="B223" s="31"/>
       <c r="G223" s="32"/>
       <c r="H223" s="33"/>
       <c r="I223" s="46"/>
       <c r="J223" s="46"/>
-    </row>
-    <row r="224" spans="1:10">
+      <c r="K223" s="46"/>
+    </row>
+    <row r="224" spans="1:11">
       <c r="A224" s="30"/>
       <c r="B224" s="31"/>
       <c r="G224" s="32"/>
       <c r="H224" s="33"/>
       <c r="I224" s="46"/>
       <c r="J224" s="46"/>
-    </row>
-    <row r="225" spans="1:14">
+      <c r="K224" s="46"/>
+    </row>
+    <row r="225" spans="1:15">
       <c r="A225" s="30"/>
       <c r="B225" s="31"/>
       <c r="G225" s="32"/>
       <c r="H225" s="33"/>
       <c r="I225" s="46"/>
       <c r="J225" s="46"/>
-    </row>
-    <row r="226" spans="1:14">
+      <c r="K225" s="46"/>
+    </row>
+    <row r="226" spans="1:15">
       <c r="A226" s="1"/>
       <c r="B226" s="31"/>
       <c r="G226" s="34"/>
       <c r="H226" s="35"/>
       <c r="I226" s="22"/>
       <c r="J226" s="22"/>
-      <c r="K226" s="16"/>
-      <c r="N226" s="14"/>
-    </row>
-    <row r="227" spans="1:14">
+      <c r="K226" s="22"/>
+      <c r="L226" s="16"/>
+      <c r="O226" s="14"/>
+    </row>
+    <row r="227" spans="1:15">
       <c r="B227" s="1"/>
       <c r="G227" s="34"/>
       <c r="H227" s="35"/>
       <c r="I227" s="22"/>
       <c r="J227" s="22"/>
       <c r="K227" s="22"/>
-      <c r="N227" s="14"/>
-    </row>
-    <row r="228" spans="1:14">
+      <c r="L227" s="22"/>
+      <c r="O227" s="14"/>
+    </row>
+    <row r="228" spans="1:15">
       <c r="B228" s="1"/>
       <c r="G228" s="34"/>
       <c r="H228" s="36"/>
       <c r="I228" s="47"/>
       <c r="J228" s="47"/>
-      <c r="K228" s="22"/>
-      <c r="N228" s="14"/>
-    </row>
-    <row r="229" spans="1:14">
+      <c r="K228" s="47"/>
+      <c r="L228" s="22"/>
+      <c r="O228" s="14"/>
+    </row>
+    <row r="229" spans="1:15">
       <c r="B229" s="1"/>
       <c r="G229" s="11"/>
       <c r="H229" s="37"/>
       <c r="I229" s="46"/>
       <c r="J229" s="46"/>
-      <c r="K229" s="38"/>
-      <c r="N229" s="37"/>
-    </row>
-    <row r="230" spans="1:14">
+      <c r="K229" s="46"/>
+      <c r="L229" s="38"/>
+      <c r="O229" s="37"/>
+    </row>
+    <row r="230" spans="1:15">
       <c r="B230" s="1"/>
       <c r="G230" s="11"/>
       <c r="H230" s="37"/>
       <c r="I230" s="46"/>
       <c r="J230" s="46"/>
-      <c r="K230" s="38"/>
-      <c r="N230" s="37"/>
-    </row>
-    <row r="231" spans="1:14">
+      <c r="K230" s="46"/>
+      <c r="L230" s="38"/>
+      <c r="O230" s="37"/>
+    </row>
+    <row r="231" spans="1:15">
       <c r="B231" s="1"/>
       <c r="G231" s="11"/>
       <c r="H231" s="37"/>
       <c r="I231" s="46"/>
       <c r="J231" s="46"/>
-      <c r="K231" s="39"/>
-      <c r="N231" s="37"/>
-    </row>
-    <row r="232" spans="1:14">
+      <c r="K231" s="46"/>
+      <c r="L231" s="39"/>
+      <c r="O231" s="37"/>
+    </row>
+    <row r="232" spans="1:15">
       <c r="B232" s="1"/>
       <c r="G232" s="11"/>
       <c r="H232" s="37"/>
       <c r="I232" s="46"/>
       <c r="J232" s="46"/>
-      <c r="K232" s="39"/>
-      <c r="N232" s="37"/>
-    </row>
-    <row r="233" spans="1:14">
+      <c r="K232" s="46"/>
+      <c r="L232" s="39"/>
+      <c r="O232" s="37"/>
+    </row>
+    <row r="233" spans="1:15">
       <c r="B233" s="1"/>
       <c r="G233" s="11"/>
       <c r="H233" s="37"/>
       <c r="I233" s="46"/>
       <c r="J233" s="46"/>
-      <c r="K233" s="39"/>
-      <c r="N233" s="37"/>
-    </row>
-    <row r="234" spans="1:14">
+      <c r="K233" s="46"/>
+      <c r="L233" s="39"/>
+      <c r="O233" s="37"/>
+    </row>
+    <row r="234" spans="1:15">
       <c r="B234" s="1"/>
       <c r="G234" s="11"/>
       <c r="H234" s="37"/>
       <c r="I234" s="46"/>
       <c r="J234" s="46"/>
-      <c r="K234" s="39"/>
-      <c r="N234" s="37"/>
+      <c r="K234" s="46"/>
+      <c r="L234" s="39"/>
+      <c r="O234" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="K1:K1048576">
+  <conditionalFormatting sqref="L1:L1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Гербарии/Actaeae DNA  samples by AE (04.12.2023).xlsx
+++ b/Гербарии/Actaeae DNA  samples by AE (04.12.2023).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Eranthis\Гербарии\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9ECE831-98F4-4356-85CA-E9131EDB584C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D275B04-384F-4EE5-8BB9-85BF1CC389D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1797,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CH234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Гербарии/Actaeae DNA  samples by AE (04.12.2023).xlsx
+++ b/Гербарии/Actaeae DNA  samples by AE (04.12.2023).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Eranthis\Гербарии\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D275B04-384F-4EE5-8BB9-85BF1CC389D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520CECAB-2341-45E2-B55C-8DC0E6551950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="250">
   <si>
     <t>Species</t>
   </si>
@@ -1209,6 +1209,9 @@
   </si>
   <si>
     <t>только на бх</t>
+  </si>
+  <si>
+    <t>2 (из гербария)</t>
   </si>
 </sst>
 </file>
@@ -1797,8 +1800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CH234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="I25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2256,8 +2259,12 @@
       <c r="I5" s="22">
         <v>3</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
+      <c r="J5" s="22">
+        <v>9</v>
+      </c>
+      <c r="K5" s="22">
+        <v>1</v>
+      </c>
       <c r="L5" s="24" t="s">
         <v>186</v>
       </c>
@@ -3331,7 +3338,9 @@
       <c r="I19" s="22">
         <v>3</v>
       </c>
-      <c r="J19" s="22"/>
+      <c r="J19" s="22">
+        <v>4</v>
+      </c>
       <c r="K19" s="22"/>
       <c r="L19" s="24" t="s">
         <v>184</v>
@@ -3369,8 +3378,12 @@
       <c r="I20" s="22">
         <v>4</v>
       </c>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
+      <c r="J20" s="22">
+        <v>4</v>
+      </c>
+      <c r="K20" s="22">
+        <v>1</v>
+      </c>
       <c r="L20" s="24" t="s">
         <v>185</v>
       </c>
@@ -3473,7 +3486,9 @@
       <c r="I21" s="22">
         <v>2</v>
       </c>
-      <c r="J21" s="22"/>
+      <c r="J21" s="22">
+        <v>2</v>
+      </c>
       <c r="K21" s="22"/>
       <c r="L21" s="24" t="s">
         <v>195</v>
@@ -3673,7 +3688,9 @@
       <c r="J25" s="42">
         <v>4</v>
       </c>
-      <c r="K25" s="42"/>
+      <c r="K25" s="42" t="s">
+        <v>249</v>
+      </c>
       <c r="L25" s="27" t="s">
         <v>194</v>
       </c>
@@ -3871,7 +3888,9 @@
         <v>81</v>
       </c>
       <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
+      <c r="J31" s="22">
+        <v>25</v>
+      </c>
       <c r="K31" s="22"/>
       <c r="L31" s="12" t="s">
         <v>80</v>
@@ -4195,8 +4214,12 @@
       <c r="I38" s="22">
         <v>1</v>
       </c>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
+      <c r="J38" s="22">
+        <v>3</v>
+      </c>
+      <c r="K38" s="22">
+        <v>2</v>
+      </c>
       <c r="L38" s="24" t="s">
         <v>187</v>
       </c>
@@ -4339,7 +4362,9 @@
         <v>2</v>
       </c>
       <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
+      <c r="K42" s="22" t="s">
+        <v>249</v>
+      </c>
       <c r="L42" s="12" t="s">
         <v>77</v>
       </c>
@@ -4522,8 +4547,12 @@
       <c r="I48" s="22">
         <v>5</v>
       </c>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
+      <c r="J48" s="22">
+        <v>10</v>
+      </c>
+      <c r="K48" s="22">
+        <v>2</v>
+      </c>
       <c r="L48" s="24" t="s">
         <v>188</v>
       </c>
